--- a/Pertemuan 12/jakarta_aquarium_review.xlsx
+++ b/Pertemuan 12/jakarta_aquarium_review.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C501"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -541,6 +541,8871 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSUNGNjVybmtRRRAB</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Sebrina Kartikasary</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Kesini acara Fieldtrip skolah anak, tempatnya bagus dan nyaman, jenis ikannya buanyakkk petugas guidenya jg ramah dan jelas bgt dlm menjelaskan, ank2 happy bgt, cocok jg klo ksini sm keluarga Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSURaeXJMSC1nRRAB</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Tiara</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>aesthetic banget👍🏼 cocok buat tempat liburan keluarga atau nge-date. Tempatnya ga besar karena dibawah mall tapi hewan hewannya termasuk beragam (ga cuma ikan) jadi boleh banget buat tempat belajar anak-anak.
+Banyak spot foto dan kesempatan buat interaksi sama hewan-hewannya. Misal megang ikan, bintang laut, kecoa, kasih makan pinguin (vip only), dll.
+Ada tempat penitipan barang tapi perlu bayar lagi per loker. Dilarang bawa minum dari luar (jadi kalau bawa botol aqua plastik bakalan ditahan di depan).
+Harus banget nonton pertunjukan putri duyungnga kalau kesini, bagus bangett!</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSURaX182XzVRRRAB</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Hawa Indah</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Tempatnya bagus, nyaman, bersih, satwa beraneka ragam dan sangat kids friendly.
+Beli Tiket premium weekend: Rp 170,000, tapi kayanya sama aja dengan Tiket Regulernya. Yang bikin beda hanya welcome drink dan dapet kipas. Selebihnya sama, jadi better pilih yang reguler aja.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSUNaeF9hUWpnRRAB</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Muhammad Mufashih</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Tempat hiburan dan edukasi yang sangat modern dan unik.
+Sangat cocok untuk wisata keluarga terutama yang punya anak-anak.
+Lebih disarankan membeli tiket online.
+Banyak objek foto bagi yang suka foto-foto.
+Ada beberapa pertunjukan, pastikan sudah ikut mengantri sebelum pertunjukan dimulai. Karena kami kemaren tidak kebagian pertunjukan.
+Ada juga hiburan 4D dalam ruangan yang menyelami lautan.
+Terima kasih dan semoga bermanfaat.
+Salam sehat dan sukses.
+Always helping others.
+Have a nice day.
+Salam hangat,
+@mmufashih</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUNKMmJpSFF3EAE</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Cindi Maulia</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Datengnya pas weekend dan kebetulan libur sekolah anak-anak jadi lumayan rame untuk cetak tiketnya. Pemesanan tiket bisa online juga bisa on the spot tapi lebih panjang antreannya kalau on the spot. Tempatnya bagus di salah satu mall Jakarta, di Neo Soho. Wahana edukatif untuk anak, tempat foto-foto instagramable bisa juga untuk tempat ngedate sama pasangan. Ada banyak pertunjukkan di tiap jam yang berbeda, kalau kalian beruntung bisa lihat putri duyung juga lho. Enjoy your holiday</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSUNGd2FLZWpnRRAB</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Maulita Pramesti</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Dari awal adanya Jakarta Aquarium penasaran banget kaya apa.. ternyata rasa penasaran saya terjawab.
+Awalnya bingung aquarium dalam mall itu kaya gimana apa hewannya yg saya jarang temui diluar sana? Ternyata pas masuk JAQ isi ikannya hanya ikan ikan umum saja bahkan banyak jenis ikan yg ditukang ikan pun juga ada bahkan saya sendiripun pelihara 😂😭
+Karna saya lebih sering ke Taman Safari &amp; Royal Safari Garden ternyata ke Jakarta Aquarium kurang memuaskan untuk saya. Aquarium besarnya pun yg panjang mirip bgt kaya Aquarium yang ada di resto de'Savana punya Hotel Royal Safari Garden.
+Mungkin yg bikin saya bosan disini karena selain ikannya sering dijumpai diluar juga JAQ sendiri hanya 2 Lantai jadinya cepat selesai.
+Tersedia resto dan ada tambahan hewan2 lain saja yg umum juga seperti ular, penguin, lemur dsb</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSUQ1eUl5ejR3RRAB</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>ratih sukma Prabaningrum</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Tempat nya nyaman. Ada area makan ringan di dalam. Tidak boleh Bawa makan dr luar, jadi tas ny sempet dicek. Suhu ruangnya adem. Better datang after lunch, biar kekejar semua jadwal feeding show nya Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUM1NG9QUlNnEAE</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Ratih Pratitis</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Akses mudah di tengah kota, dekat dengan halte busway. Menyenangkan sekali di sini, bisa lihat berbagai macam ikan dan hewan air lainnya. Nggak cuma liat ikan, ada juga primata dan hewan lainnya. Senang sekali bisa bertemu binturong di sini. Waktu baru datang dikasih snack. Enak snacknya, bisa beli dimana ya? hehehe Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUNwdmFtUUhBEAE</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Ruli Retno</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Tempatnya kecil aja sebenarnya, tp cukup mewakili keingin tahuan anak2. Enaknya tuh lokasinya di mall dan buka sampai malam, jd bisa ngajak anak sepulang kerja, sambil makan malam di mall, fleksibel karena tidak secara khusus 1 tujuan aja. Harganya masih affordable, dan tidak terlalu ramai. Lucunya disana ada burung dan ular jg, which is saya takut bgt sama ular langsung gemetar. Senengnya kesana malem pas feeding time. Ikan hiu nya banyak jenisnya dan parinya besar2. Di akhir ada wahana virtual seru dan byk suvenir bagus. Overal saya suka disini, semoga nanti makin besar dan makin byk koleksi ikannya</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSURGMEktei13RRAB</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Ius Taat</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Tempat yang bagus untuk wisata keluarga karena terdapat banyak poster yang mengedukasi, koleksi ikan dan binatang lainnya lumayan lengkap</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUNwd1oyV2ZBEAE</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>- malfinhanif -</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Tempat rekreasi edukasi untuk anak-anak yg berada di dalam kota jakarta. Bahkan berada di gedung yg bonafide. Anak-anak sangat senang karena mendapatkan pengalaman baru. Ga hanya ikan, terdapat mini zoo di dalamnya sehingga terasa worthed untuk dikunjungi. Biaya masuknya masih masuk akal, lokasinya mudah dijangkau (ga perlu perjalanan jauh ke bogor atau ke ancol), dan mudah untuk mencari makan karena lokasinya di dalam mall. Cobalah 1x untuk rekreasi anak-anak yg mengedukasi ini, saya yakin anda akan puas. Tapi siapkan fisik untuk berjalan kaki. Oiya jangan lupa unt merasakan wahana suasana di kapal selam di akhir perjalanan. Sangat menarik.</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSUMyajRUUHBRRRAB</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Rere Rere</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Tempat yg better sih drpd ke ancol soalny kejauhan. Tapi beli tiketnya ke website ya cek IG nya aja harga weekend dan weekdays beda soalny. Parkie better ke CP ato naik public transport aja. Klo hr libur nasional jangan harap menikmati, gils banyak oranggggg kayak ikan pepes. Krn pengunjung jg ga dibatasin jumlahnya jd sampe sama bs aja membludak. Bagus aja sih tempatnya cuman klo rame bgt panasnya ampun 🤲🏻😭 dijual jg souvenir2 aquarium lucu2 bgt. Rate harga? Jangan ditanya 🤣 sm ky ancol/dufan (you know). Enjoy aquarium (saran sy banyakin foto di ubur2 krn mereka pas di foto bagusssss banget)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSURadHN6NEx3EAE</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Andinih Erlangga</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Amaze banget di dalam mol ada aquarium sebesar ini… tempatnya menurutku cukup luas dan setiap shownya jg udah terjadwal. Saranku kalo kesini datang dari pagi, biar puas Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUNacXZ1OE9nEAE</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Rebecca Ayu C</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>AW CUTEEEEEEE!
+one of my favorite place krn bisa ngeliat hewanhewan gumusss hih 🫶🏻🫶🏻
+selain binatang laut, ada juga binatang darat, pertunjukkan hewan omg so cute, bisa pegang bintang laut, update mood of the day 🤩🥳🥰🤗😂😮😬🫠🤭🥺🫶🏻✨</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSURKejdXOGNBEAE</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Rifqi Irvansyah</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Jakarta Aquarium ini merupakan salah satu tempat yang keren bangetttttt. Ga bisa move on dari sini serius. Ini berada di Soho Mall, jadi kalo kesini ya harus masuk ke Soho Mallnya dulu. Tempatnya gila keren parah, full nuansa biru ungu nila hijau tosca~ love it! Banyak sea creature dan binatang yang keren keren bangettttt~ banyak juga atraksi dari hewan hewan. Pastikan pergi di pagi hari biar dapat menonton semua atraksi hewanbya.</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSUQ1dEstSDN3RRAB</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Mommy Saham</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Cukup menyenangkan untuk anak2 bisa mengenal berbagai jenis ikan dan binatang lainnya secara lbh dekat. Tempat indoor dan tdk bau, tp untuk live action tempatnya terlalu sempit kadang. Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSUNKOXFDWm53RRAB</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Risky Annisa Nurwandani</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Koleksi ikannya menarik. Ada mini zoo juga. Interior bagus banget, tempatnya juga bersih. Sayang aja ga ada mushola di dalemnya, main tank yg ada stagenya juga kurang luas jd berasa nanggung, dan informasi ttg ikan/hewannya ga konsisten, kadang bhsa inggris dlu baru bahasa indonesia atau sebaliknya. Bagusnya sih bahasa dulu ya, baru english
+See less</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSURadHJLSEJnEAE</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Rahma Karlina</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Tempatnya nyaman ada di dalam mall, bisa untuk memperkenalkan hewan untuk anak-anak, ada hewan air, beberapa serangga dan mammalia, ada pertunjukan yg seru juga
+Harga tiket dengan tempatnya sepadan 👍</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUNwNmRXbGZ3EAE</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Anisa Sulistiawati</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Pertama kali ke JAQS, pengalaman baru ngajak anak explore dunia bawah laut 🌊 yg Ada di Mall, amazing.. Baguss ketemu hewan2 baru, spesies ikan jg banyak.. Alhamdulillah kesampean liat mermaid show, main feeding tank, bisa pegang bintang laut, piranha feeding. Cuma kalo weekend emg rame aja.. Tiket bisa beli online atau on the spot di tempat.. So far oke 😍🤩 beli tiket reguler weekend udh puas bangeet 🤗🥰</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSUM1MTdTSzZnRRAB</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Hasna Uswatun Nisa</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Bagussss banget. Worth the price menurutku karena kita bisa nonton pertunjukkan mermaid juga di jam2 tertentu. Semua spot nya photoable dan enak buat ngalamun hahahaha Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUNaN3I2YUNREAE</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Sepiring Berdua</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Trmpatnya bagus, bersih dan oke banget terdekorasi dengan baik, meskipun tidak besar sekali tpi macam ikannya banyak dan tempatnya bisa dibiat aktivitas anak2.. Anak2 senang sekali Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUQ1OXNuelN3EAE</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Miss Erlina Krisnawati</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Seru banget buat study tour. Kakak kakak guidenya sangat ramah. Ga nyesel sama sekali. Anak anak pada happy tuh Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSUQ1bXZXYXBRRRAB</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Nickerson Timadius</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Tempat menarik untuk keluarga, banyak jenis binatang laut, air tawar &amp; darat
+Pembelian tiket bisa on site Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSUQ1MnJYN2lBRRAB</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Gandita Anggoro</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Beli tiketnya lewat aplikasi lebih hemat dan ada diskon, supaya ga antri, parkir mobil di basement, krn tempatnya di lantai LM, bisa beli tiket yg reguler aja, pas jam sholat bisa izin keluar, krn musholanya dekat dg exit pinguin show Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSUNaenZPajJRRRAB</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Retno Fuji</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Another experience yang harus kalian punya saat ke jakarta!
+Memutuskan buat date di jakarta akuarium adalah keputusan tepat!!! Semua hewan2 yang ada disana itu ngengemesin bgt dari section darat - lautnya.
+Informasi untuk proses beli tiket - penukaran - maps untuk ke area2 spesific juga udah jelas banget. Termasuk mereka nyediain maps (kertas) biar kita bisa tau lagi di area mana.
+Dan yg selalu iconic adalah aquarium tabung yg cukup tinggi walaupun ga terlalu besar. Ngelihat ikan2 berenang memutari aquarium bener2 satifiying. Area mermaid adalah salah satu juga yg bisa bikin kita amaze sama mermaid2 mereka. Pokonya seru deh
+Untuk keluarga atau pun pasangan ini tempatnya cocok! Aku datang di weekend termasuknya penuh tapi tetep ga desek2an ko</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSURKem9UWFBREAE</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Daily Dianty</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Tempatnya bagus..nyaman bersih pelayanan bagus,cuma ada satu di bagian tempat cetak foto,ada bebebrapa yg ramah,ada beberapa yg jutek ya saat melyani,masukan aja,setidaknya saat ingin membicarakan konsumen di depan konsumen lain jgn mengkritik di depan konsumen lain,klw ingin mengoper konsumen tsb ke tmpat temennya karna ada yg lagi sibuk,tolong ucapkan maaf ibu di bantu dengan teman saya dlu ya , bukan seperti ini “tolong dong itu ibu nya batuin ya,dengan nada ketus ke temennya”,itu aja sich,lebih jaga sikap dan tata krama,selebihnya bagus</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSUNaZ3FqRmx3RRAB</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Grace Supatra</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Aquarium indoor. Bagi para pecinta wisata dengan tempat yang tidak panas. Tempat ini sangat sesuai untuk anda.
+Terletak di Neo Soho dan Central Park.
+Tidak hanya binatang laut disini seperti ikan pari,hiu, dan teman2nya.
+Ada juga meerkat, penguin, kadal dan macam2.
+Lebih baik membeli tiket online terebih dahulu supaya tidak menunggu terlalu lama karena harus mengantri membeli tiket.</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSURKNklLV2pRRRAB</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Hi Ketut Natalia</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Bagus banget. Ngga cuma ikan ada juga binatang-binatang lain. Seru banget melihat-lihat dan foto foto disini. Disana juga tersedia jasa foto. Dan jangan lewatlan kisah putri duyung nya. Seru banget buat bocil bocil. Kisah putri duyung nya ngga boleh di foto atau di videokan.
+Overall bagis sih.</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUM1cWMyUldREAE</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>V Intan</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Walaupun tempatnya tidak begitu luas, tapi cukup memanjakan mata saya. Banyak  jenis ikan dan hewan2 yang jarang saya lihat. Spot foto juga lumayan banyak. Pertunjukan mermaidnya ga boleh dilewatkan sihhh.
+Cocok buat liburan keluarga atau couple date🙈. Saya sarankan kalo kesini weekdays aja, karena cukup ramai saat weekend.</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSURKcFlYQjlBRRAB</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Chintamy Christini</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Salah satu tempat rekreasi terbaik di Jakarta khususnya bagi anak-anak untuk melihat dan mempelajari satwa/binatang. Terletak di dalam Mal Neo Soho, namun dapat diakses melalu Mal Central Park juga. Harga tiket mulai dari Rp 150.000,- sampai Rp 250.000,- (ada tiket reguler dan premium) yang dapat dipilih sesuai kebutuhan. Kelebihan tiket premium adalah mendapat merchandise setiap pembelian 2 tiket dan akses keluar masuk selama 4 jam.
+Di tempat ini tersedia berbagai jenis ikan, hewan langka, serangga, dll yang mudah dilihat oleh anak-anak dan tersedianya beberapa show memberi makanan selama 5-10 menit sesuai jadwal yang ada.</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSUNKdGJPaDV3RRAB</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Recta Olivia Umboro</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Pilihan lokasi jalan2 dan hiburan mengedukasi  seru bersama keluarga. Kamu bisa lihat tidak hanya hewan2 laut tapi juga bsa mwnyentuhnya loh. Oh ya selain hewan laut disini kamu juga bisa lihat ular, burung hantu, monyet, pinguin, berang2 dll..ayok liburan seru di jakarta aquarium.</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSURwNFlQWDBnRRAB</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Tommy Halim</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Tempat yang bagus dan aesthetic, banyak hewan-hewan air disana, selain melihat ikan-ikan juga banyak spot foto yang bagus, tempatnya cukup luas dan cocok untuk jalan-jalan bersama keluarga, sebaiknya jika kesini bisa pesan tiket melalui online biar tidak antre Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUR4c3AzYUJREAE</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Anova Fatimah</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Tiket masuk saat tanggal merah atau weekend adalah sekitar 170an ribu. Hewannya tidak hanya ikan tapi ada kadal, serangga dan beberapa yang lain. Cukup bagus kok... Ada banyak show2 juga yang dapat dilihat seperti memberi makan ikan, parade pinguin dan mermaid show. Buat mermaid show, datang lah di lokasi 30 menit sblm acara.. krn tempatnya sangat terbatas. Show nya di jam 13, 15 dan 17. Secara umum bagus banget.. cuma gak ada musholla ajah di sini.</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSURKNjZxVThRRRAB</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Christina Ken Maria</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Kalau waktu ngga terlalu banyak, langsung nguber feeding show yang di main tank aja - right before the mermaid show. Dan harus nonton mermaid show nya sih, soalnya duduk,crowd nya diatur, shownya udah dipatent dan ngga boleh direkam. Oke kok, antagonisnya auranya serem banget, kalau bawa anak kecil mungkin banget bisa sampai nangis. Kalau feeding show yang lain terlalu ngga bisa dinikmati - karena terlalu crowded dan semua orang berdiri. Dan ngasih makannya juga cepet banget. Sisanya bisa puas2in liat ikan &amp; hewan2 lain yang lagi ngga feeding show hehehe
+Kalau bermaksud spend time more than 4 hours atau seharian, beli yang premium dan cari diskonan di e-commerce.. Jadi bisa keluar masuk, cari makan di luar dulu dan balik lagi ke dalam.</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSURwb2ZQNzh3RRAB</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Putri</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Seru banget pengalaman laut disini. Benar benar besar sekali aquariumnya. Bisa menyentuh ikan pari dan hiu juga. Ada beberapa pertunjukan disini yaitu memberi makan ikan di big aquarium, pinguin show, kasih makan ikan piranha. Ada restaurantnya juga agar kita bisa duduk dan menunggu pertunjukan disini✨🫶🏻👍🏻 …</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUR4aGRHUlhBEAE</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Yuli A W</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Datang ke sini kesorean (jam 3.30an), jadi kelewat animal show-nya. Tapi ga apa, karena antri banget waktu siang dan long weekend.
+Aquarium-nya tidak sebesar sea world, tapi lebih bagus dan terawat. Penataan satwa satwa-nya juga bagus sehingga terlihat luas. Sempat melihat mermaid show-nya, cukup menarik. Overall, anak2 pada suka.
+Beli tiket online, cukup cepat masuk-nya kalau sudah sore. Kalau beli di tempat antri cukup lama. Jadi mending beli dulu online.</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSURKdWJqNlRBEAE</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>hendra duta</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Salah satu tujuan utama ketika ke Jakarta kali ini, supaya anak bisa lihat binatang-binatang laut secara langsung.. Lokasinya di dalam Mall Neo SOHO lantai LG.. Bener-bener Guedhe buanget tempatnya, lumayan lah itung-itung olahraga.. Disini pengunjung nggak boleh bawa minuman dari luar, klo makanan kurang tau boleh nggak.. Soalnya kemarin Tas nya dititipkan di bagian penitipan barang..
+Harga tiket masuk anak-anak sudah termasuk pendampingnya.. Kemarin beli 2 dewasa &amp; 1 anak, ternyata 1 dewasanya nggak kepake.. atau kalau ragu-ragu tanya ke petugasnya dulu sebelum beli tiket..
+Selain ikan laut, ada juga beberapa reptil yang dapat dilihat secara langsung.. Malah ada juga ular yang bisa dipengang &amp; foto bersama langsung.. Bisa juga memberi makan binatang, melihat pertunjukan dll.. ada jadwalnya, sebaiknya lihat-lihat dulu jadwalnya supaya nggak kelewatan kalau mau nonton mermaid juga..</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSURScHBDRjlnRRAB</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Stephen Santosa</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Jakarta Aquarium Safari bisa menjadi solusi berlibur di tengah kota Jakarta.
+Lokasinya di Mall Neo Soho, masuk dari lantai LM. Kondisi sehari-hari tidak terlalu ramai, sering terlihat ada anak-anak sekolah field trip. Saat saya berkunjung sewaktu Lebaran H-2, kondisi ramai mengantri, tetapi tidak terlalu lama. Botol air plastik haris dititipkan di depan, tidak boleh dibawa masuk. Tiket yang dijual hanya tiket premium, cukup mahal, tetapi setiap rombongan dapat beberapa voucher tenant di Central Park dan Neo Soho yang dapat ditukarkan untuk potongan harga atau promo lain.
+Untuk kondisi aquarium sendiri tidak terlalu besar seperti di luar negeri. Kebanyakan berupa aquarium aquarium kecil dan enclosure satwa berukuran kecil. Isinya tidak sepenuhnya hewan laut, ada beberapa hewan darat seperti serangga, monyet, binturong, juga diperlihatkan disini. Penyajian di hewan-hewan ini cukup baik dan bagus. Jarak jalan tidak terlalu panjang. Kondisi dingin nyaman, pada beberapa titik bau hewan cukup wajar.
+Ekspetasi untuk watertank harus diturunkan karena memang tidak sebesar watertank di aquarium lain di luar negeri. Selain itu, untuk show-show yang ditunjukkan pada jadwal bukan lah show dengan tempat duduk seperti Taman Safari, tetapi hanya berdiri di samping enclosure melihat proses feeding.
+Show yang emnajdi Highlight utama adalah show putri duyung yang ada di ujung rute. Sayang tidak didesain untuk keramaian, di mana tempat duduk tidak terlalu banyak, terutama saat Lebaran sangat tidak memadai. Saya hanya dapat menonton show dari sisi samping watertank sehingga tidak dapat mendengar dan menonton cerita di luar dari gerakan putri duyung itu sendiri.
+Kondisi kelengkapan fasilitas di dalam cukup baik, tetapi agak gelap.
+Overall good.</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUNKcHFhZlBnEAE</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>kitin astria</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Tempatnya bagus dan bersih, ruangannya di kelilingi tank untuk hewan, dan dimanjakan warna biru disini, nuansa ocean deep nya dapet banget. Ada juga hewan daratnya bahkan ada tarantula. Tolonglah kalau kesini jangan foto pakai Blitz kasian mata hewannya. Thanks. Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUNadk5TYkpREAE</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Mhktzz</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Salah satu tempat yang direkomendasikan untuk dikunjungi di Jakarta. Udah dua kali kesini tahun lalu dan bulan kemarin, kesan saya cukup bagus Aquarium nya. Banyak aneka ragam makhluk hidup yang ditempatkan mulai dari reptil, mamalia, biota laut, dll. Cocok buat cuci mata sekalian refreshing setelah kegiatan seharian. Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSUNKa01haXdRRRAB</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>si aduhai</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Cocok untuk ajak anak sekalian edukasi binatang laut di jakarta aquarium yg ada di neo soho ini, untuk antrian tiketnya dibedakan antara yg online dan membeli ditempat langsung, didalam ada toiletnya dibawah ada juga yg jualan makanan / minuman Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUNKcS1Qa2VBEAE</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>debby armeiyanti</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Tempat yang menyenangkan untuk berwisata dengan anak.
+Kalau mau datang ke sini di weekend atau libur sekolah, sebaiknya membeli tiket via online. Lebih cepat proses masuknya.
+Untuk anak yg tinggi badan lebih dari 120cm sudah terhitung dewasa.
+Dengan membeli tiket reguler sudah bisa nonton pertunjukan pearl of the sea.</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUR4MUs3SEpBEAE</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Silvio “Sil”</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Tempat yang bagus dikunjungi untuk anak-anak. Harga tiket lebih murah di online dibanding offline cuma pas tuker tiket malah antri yang online. Makan minum dari luar dilarang masuk. Ada kru untuk foto-foto. Binatangnya mayoritas ikan diselingi reptil dan mamalia. Kondisi di dalam remangremang cenderung biru. Ada outlet Makan Di dalam. Binatang yang di dalam banyak yang tidur, kayaknya memang jam tidurnya jadi kurang seru.</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSURaNXJfa0F3EAE</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Kartika</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Tempat nya bagus, bersih, adem banget AC nya jalan masuk ke dalam langsung disambut sama fotografer (hasil foto bisa dicetak di counter foto di dalam-berbiaya). Untuk koleksi hewan2 nya banyak sih mulai dari ikan, kadal, kecoa, ular, meerkat, dll. Untuk tempat duduk2 juga banyak di dalam. Kemarin kesana pas lagi weekdays, kirain bakal sepi, ternyata lagi rame juga kunjungan rombongan dari preschools. Selain bisa lihatin hewan2, juga bisa sambil aktivitas lain seperti mewarnai, melukis, panen mutiara dll (sebagian besar berbiaya). Oh ya, ada semacam jual berbagai makanan juga di dalam dan kita gak boleh bawa makanan dari luar (bakal di cek dan suruh titip di pintu masuk, masalahnya pintu keluar di lantai yg berbeda, jd risiko lupa ambil barang yg dititip lumayan tinggi). Deket pintu keluar juga ada jual cinderamata (harga wisata tentunya). So far, pengalaman yg menyenangkan sih buat anak2.</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSUNweWFMbDFRRRAB</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Elysa Wu</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Mini zoo termudah aksesny, karena d mall.
+Untuk koleksi binatang ny lumayan banyak untuk ukuran d mall.
+Sudah pernah masuk beberapa kali.
+D jam tertentu ada penampilan mermaid.
+Saran aja kalo mau k sini paa weekday aja,biar agak sepi, jd bisa lyat lebih puas</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSURKc3VYTEZnEAE</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Buku Budi</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Arah petunjuk bila parkir dr arah CP kurang.
+Area masuk antrian sempit dan ada fotograp yg menghalangi antrian masuk.
+Ternyata d dalam ada lagi.
+Kenapa aquarium ikan piranha nyempil ya..kalau ada pertunjukan..padahal peminat tinggi loh.
+Harusnya semangat eco envi
+Setuju d depan botol d tahan..
+Eh d dalam jualan air kemasan botol.
+Harusnya apresiasi  bagi yg bawa thumbler</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUNwdzhpY1p3EAE</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Septika Dwi</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Tempatnya menyenangkan, baik untuk anak-anak maupun dewasa, tempatnya bersih, harum, dingin, nyaman. Ada fotografer jugaa, yang nanti di akhir bisa ambil foto-fotonya dengan melakukan pembayaran terlebih dahulu Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSUNwblBmejdRRRAB</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>evelyn panda</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Salah satu tempat rekreasi sekaligus adukasi bagi keluarga, walau tdk terlalu luas tetapi hewan2 yg ada khususnya hewan laut cukup lengkap. Dua kali ke sini sebelum pandemi dan setelah pandemi, tetap menarik untuk dikunjungi. Pembelian tiket di lokasi cukup mudah, pelayanan cepat. Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUNKNjhQNUFnEAE</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Anna afriana</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Seru, menarik, seru byk satwanya, pertunjukan teater putri duyung nya seru, staf nya membantu, lebih baik bawa botol minum sendiri bukan kemasan karena dilarang &amp; banyak jajanan di dalam, pesan tiket dulu di web jakarta aquarium nya menghindari penumpukan di loket Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSURaenZfTkxREAE</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Fx.verry Sun</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>sebenernya sih jujur lumayan menarik, cuman mahal. rasanya ga worth muter gitu doang seharga 175rb. cuman ya sudahlah secara tempat lebih terpelihara dgn baik dibanding seaworld.mestinya bagian makanan jgn ada di tengah2 gitu loh, anak saya muntah ga tahan nyium baunya</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUN4al9ldFFnEAE</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Liston Octoberry</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Harga tiket lumayan mahal saat weekend. Letaknya berada di mall neo soho, ada 2 lantai safari. Berbagai jenis hewan ada di dalamnya, banyak juga live atraksi pada jam jam tertentu.
+Tempat bersih, cocok untuk wisata keluarga maupun pasangan untuk ngedate.</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSUNKMmZEcnRnRRAB</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Inda Risinda</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Adududu aku kesini sendiri untuk me time ya.. seru bangeett.. gampang pula aksesnya.. naik busway bisa banget.. turun di S Parman Podomoro City yaa.. masuk dulu Central Park, trus naik ke lantai UG.. samping Max Factory ada akses ke ECo Bridge.. naahh kalau mau ke Jakarta Aquarium mesti turun ya ke Lantai Mezanin.. itu dibawah Ground tapi di atas Lower Ground.. lokasinya deket tempat makan dan tempat sholat jd klo ke sini udah semua ada.. sebagai catatan, klo beli tiket online  mesti di redeem dulu ya di loket pembelian tiket, baru deh pake tiket fisik untuk masuk.. di dalemnya muter2 aja lah ampe bosen ya..ahaha waktu yang dibutuhkan sekitar 1 s.d. 2 jam deh ya.. yuk mari kemarii</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSURKMUpTUjdBRRAB</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Novia Fulan</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Sangat edukatif dan menyenangkan untuk anak-anak dan orang dewasa. Banyak variasi hewan laut dan live show yang bisa ditonton sesuai jadwal🐠🐙🐡</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSUNGby1MaGlRRRAB</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Gunawan Pasaribu</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Gak perlu jauh2 ke ujung sana yg pake biaya masuk dr depan nya bahkan banyak hal lain yg keluarin biaya lumayan mahal. Di JAQ neo soto, simple.. datang, turun ke LM, beli tiket, masuk. Kalo mo makan, pilihannya banyak banget... apalagi 2 mall begini kan? Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUNaM2ZyOVdBEAE</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Nurhilalliyah</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>semua foto tanpa filter karena tempatnya emang gemes estetik buat foto-foto gitu, tapi jangan pakai flash yaa Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSURwLTkteVFBEAE</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Ilma Sani Fitriana</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Tempat wisata di dalam Mall. Bisa melihat aneka satwa mulai dari satwa aquatik, reptil, burung, dan lain lain. Ada feeding show dan mermaid show juga. Ada resto dan jajanan nya juga.
+IG : @ilmasani
+Yt : Ilma Sani Fitriana</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSURSN3BUalZ3EAE</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Patricia Claresta</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Sudah 2x kesini &amp; selalu have fun. Suka banget. tempatnya bersih terawat. Ada show2 hewan. Ada show putri duyung jg. Hewannya jg banyak. Cocok utk bawa anak kecil utk edukasi anak jg.
+Better beli tiket online dlu jd tidak perlu antri lg</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUR4cFoyUWFnEAE</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Endang Aisyah</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Tempat wisata untuk melihat berbagai macam ikan dan hewan langka lainnya, serta bisa liat mermaid dan show lainnya bagus bgt worth it bgt sama harga yang dikeluarkan, kami berkunjung hati jumat dikenakan 175.000/orang Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUNKeS1PbVRnEAE</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Mohammad Irwan Trimulyono</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Jakarta Aquarium, berada dalam mall Neo Soho di area Grogol maka menyajikan pertunjukan aquarium yang sangat luar biasa dan mudah dijangkau
+HTM bisa dibeli di aplikasi macam Traveloka, jadi sampe sana tinggal tukar menambah kenyamanan
+Fasilitas di dalamnya sangat baik, ikannya sehat2, atraktif
+Kalau ke Jakarta, mau mampir kesini, recommended kok guys</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSURad1ppM2FnEAE</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Dian Pitaloka Saraswati</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Tempat yang menarik, koleksinya lumayan banyak. Meski namanya jakarta aquarium tapi ada koleksi reptil dan jga insects serta laba2, ada jg lemur dan tupai loh  Utk anak2 sangat cocok, stroller friendly. Hewan favorite saya ubur2  banyak yg dipajang..
+Ada cafeteria tp makanannya ga banyak Ada restoran juga.
+Ada spot foto2 tapi dijual kayaknya</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSUNaeV9UZDVBRRAB</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>faustin</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Tempatnya bagus dan dirawat dengan baik. Aquariumnya berada di dalam mall, jadi tidak terlalu besar. Di jam tertentu ada pertunjukan di dalam air. Pertunjukan dikemas dengan sangat baik dan menarik, terutama untuk anak kecil. Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSUR4MHVDNXpnRRAB</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Oliviakusuma</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Baguss, inovasi terbaru wahana aquarium indoor di dalam mall, tidak panas. Cocok untuk anak anak mengenal hewan2. Banyak pertunjukan. Saran jangan datang malam karna pertunjukan sudah selesai Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSURKZ0tmTU53EAE</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Anindya Dewi</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>pertama kali kesini sama kakak sepupu dan anaknya, cukup seru! sayangnya kami ngga expect bakal seramai itu, jadi baru beli tiket online on the spot karena antrian tiket offline lumayan panjang. pas masuk dibagi kipas sama yogurt kecil gitu. oiya, tas bakal diperiksa dan minuman/makanan dari luar harus dititip di depan. tapi tenang, di dalam ada yang jual snack juga kok, jadi aman kalau laper dan haus bisa ngemil. sebelum masuk ke area akuarium kita difoto dulu, bisa diambil di booth sekalian bayar. koleksi ikan dan satwa lautnya cukup banyak dan beragam. ada hewan lain juga semacam iguana, ular, serangga, meerkat juga ada. spot fotonya banyak, tapi harus sabar gantian sama yang lain. ada beberapa atraksi juga di jam-jam tertentu, pastiin cek jadwalnya biar ngga ketinggalan dan ngga kebagian tempat. overall tempat yang seru buat refreshing!</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUNwdGIydFZnEAE</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Rahmatri Mardiko</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Tempat rekreasi yang menyenangkan dan edukatif buat anak-anak. Terdapat banyak akuarium dan ragam satwa laut, air tawar, dan satwa darat. Tempatnya tidak begitu luas namun namun terawat dan banyak yang bisa dilihat. Ada banyak pertunjukan yang menyajikan edukasi untuk pengunjung. Harga tiket lumayan mahal dibandingkan tempat rekreasi serupa.</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUN4NjhlOEp3EAE</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Ayu Purnama A</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>konsep yang unik banget! safari aquarium dalam mall 😍 walaupun agak pricey tapi worth it!!! 👍🏻 kalo ga salah kemarin itu harganya -+ 200-250k bisa keluar masuk dengan batasan waktu yah. ga cuma hewan laut aja, disini jg ada hewan darat lhoo.. dan di dalam jg disediakan area jajanan snack, jadi kita ga bakalan kehausan atau kelaparan. ada banyak pentas yang bisa ditonton salah satunya feeding piranha, binturong, penguin parade, mermaid show 😍 ga mengecewakan deh masuk sini! healing+edukasi ❤️</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSURSbE9LamNnEAE</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Mey SS</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Hiburan seru ditengah kota. Anak2 suka banget. Bersih. Ada tiket Reguler tidak bisa keluar masuk serta beberapa terbatas dan tiket Premium bisa keluar masuk. Saya prefer beli online tiketnya. Ada 1 event yang drama panggung g bisa direkam apapun saat sedang berlangsung karena kena UUD Hak Cipta. Lebih baik pagi2 datang biar nyaman dan gak rame. Ada paket buat rombongan anak2 sekolah juga.</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUNaaExtUlpBEAE</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Fauziyah Margaret</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Asik banget tempat nya apalagi untuk bu ibu yang bawa anak, anak pasti happy banget kesini,. Bisa sambil belajar juga mengenalkan hewan laut ke anak 🥰 …</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSURadEtYNDVRRRAB</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Andri Hendisutio</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Tempat yang menarik untuk dikunjungi, karena banyak sekali spesies binatang selain ikan disini. Semua juga dibuat dengan suasana yang baik sekali sehingga cocok dipakai untuk tujuan jalan2 keluarga ataupun date bersama pasangan. Usul saya lebih baik melakukan kunjungan pada hari biasa karena lebih sepi. Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSURab1BlRDl3RRAB</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Fitriyati Yati</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Rp. 150 rebo....cantik bersih puasin mateee.banget.ngak boleh bawa minuman tapi ada yg jual. Minuman jg di dlm... Gratis belli cup. Mini..</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSURwdVltWDVnRRAB</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Hhadiyat</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Untuk yang ingin melihat akuarium raksasa yang berisi ikan laut bisa mampir disini. Tempatnya di tengah mall Central Park Jakarta. Tiketnya lumayan mahal (apalagi harga makanan/minuman di dalamnya 😁). Cocok utk yg suka berswafoto meskipun harus pakai HP yg bagus krn susah berfoto di cahaya yg minimum. Suka ada show memberi makan ikan piranha dll...</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSURSemQtNFZREAE</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Joseph Gabriel</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Dari ikan hiu sampai ikan badut.
+Dari ular, laba-laba, sampai kalajengking.
+Koleksi binatangnya banyak dan bervariasi. Cocok sebagai tempat wisata edukatif bagi anak2 maupun orang dewasa.
+Ada banyak atraksi juga seperti 3 dimensi, parade penguin, fish feeding, dan fun games di dalamnya. Dan tentunya ada atraksi mermaid yang dapat ditonton di jam2 tertentu.
+Terletak di dalam mall Neo Soho, dengan pintu masuk di lantai LGM. Tempatnya ada 2 tingkat. Lantai LGM sebagai pintu masuk dan lantai LG sebagai pintu keluar.
+Jika membeli tiket premium akan mendapat privilege tertentu seperti diskon di beberapa tempat makan.</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSURSNXJ5TFdREAE</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Vincent Masella</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Jakarta Aquarium ini berlokasi di dalam Neo Soho, Jakarta Barat. Harga tiket masuk  225.000. Menarik banget buat semua kalangan dari anak kecil sampai dewasa. Banyak satwa satwa yang jarang banget dilihat. Ternyata ga cuma satwa air, disini juga ada berbagai satwa darat, kecuali gajah ama jerapah ya wkkwwk. Banyak spot foto menarik. Ada pertunjukan teater dan simulasi kapal selam 5D (kurang sip neh 5D nya). Dan gak lupa, ada putri duyung !</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSUNwc19qSW53RRAB</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Daryanti Darwis</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Tempat wisata indoor yang sangat mengedukasi, menyediakan banyak hewan-hewan laut untuk dikenalkan ke anak-anak. Ada juga proses pertumbuhan ikan, ada pagelaran penguin. Seru deh seharian disini bisa foto foto untuk feed instagram kamu Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSURwdkxUb2d3RRAB</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Febriyanti Kusmala</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Berkunjung saat weekend, saran saya lebih baik dtng pagian agar tidak terlalu rame. Tempatnya dibanding yg diancol ini lebih kecil ya, tp nyaman karna tdh tercium aroma amis serta ruangannya nyaman dingin bersih. Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSURaanJuN0xBEAE</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Dwi Yuliyanah</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>First time ke sini dan tidak sesuai dengan ekspetasi. Disini saya beli tiket masuk premium, tapi tidak ada bedanya dengan tiket yang biasa😩, perbedaan nya hanya di tiket premium mendapatkan fasilitas ada minuman &amp; jelly pada saat kita masuk. Pegawai nya juga kurang ramah terhadap pengunjung &amp; atraksi nya juga tidak di bedakan yg mana untuk premium, yg mana untuk tiket biasa, untuk teman² yang ingin berlibur ke sini, lebih baik beli tiket yg biasa aja, karna tidak ada bedanya dengan yang premium &amp; kalau kesini lebih baik datang dari pukul 12:00, supaya bisa menikmati semua atraksi di tempat ini. Untuk aquarium nya sih okelah untuk healing dari hiruk-pikuk kota jakarta.</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSUNadHZXUTR3RRAB</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Dedy Permana</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Tempatnya bagus, cocok utk ajak rekreasi anak-anak. Bisa mengenal beragam jenis hewan laut, koleksinya cukup lengkap. Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSURKaGVxTWtRRRAB</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Indah Oktariani</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Destinasi favorit jika ingin melihat ekosistem laut tapi indoor dan adem,dan favorit banget liat show di Amphitheater-nya walo ceritanya selalu sama.</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSURwbU5YbG1nRRAB</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Ahmad Syarifudin</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>seneng banget bisa kesini, terlebih lagi bareng anak jadi bisa edukasi hewan laut. untuk harga relatif standar menurut saya, cuma aksesnya aja karena di mall jadi susah cari parkir pas weekend, terus pas kesana gak kebagian space buat nonton show mermaidnya karena ketemu sama rombongan sekolahan yang lagi tur juga, tapi overall recomended banget buat ngajak anak-anak, cukup lengkap banget aquariumnya.</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSUN4d2JIVXNnRRAB</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>dinda amalia</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Bagus2, saya yg bukan bocah aja suka. Tapi memang ngga sebesar SeaWorld ya tempatnya tapi lebih rapih dan terawat aja
+Sayang bgt sih untuk koleksinya perkandang 1 aja jadi kasian sama satwanya sendirian gitu Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUR4cXZQTVl3EAE</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Irghifari</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>cocok untuk ngedate hanya saja tempatnya tidak begitu luas, tapi overall ok sih, pemandunya pun sangat membantu Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUR4OWZDYWFREAE</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Solehudin Widya Putra</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Jalan - jalan ke JAS pas weekday, beli tiket langsung di tempat, suasana ramai tapi gak sampe ngantri. Tempat dan Fasilitas ok 👍🏼👍🏼
+Bisa buat belajar / ngenalin hewan - hewan ke anak, sambil “ngasuh”</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSUR4djVTSWpBRRAB</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Yesica Soejoto</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Tempatnya bersih,adem dan nyaman.
+Cuma tidak terlalu luas mungkin karena lokasi dalam mall.
+Boleh dicoba berkunjung sekali2 untuk refrensi jalan2 di jakarta selain mall.. hehehehe...</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUMtaDZ5bGVBEAE</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>G.N. Habibah</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Jakarta Aquarium Safari, tempat yang cukup oke untuk dikunjungi anak-anak apalagi untuk mengenalkan berbagai jenis ikan dan beberapa hewan lainnya.
+Harga tiketnya lumayan merogoh kocek, apalagi kalau datengnya rombongan sekeluarga. Pasti habis banyak.
+Untungnya di sini ada loker buat naruh barang-barang kita, cukup bayar 10K untuk dapat 1 koin sekali pakai.
+Sebelum masuk gate, biasanya kita akan difoto terlebih dahulu dan dapat tiket untuk pengambilan foto.
+Nanti di dalam akan dijelaskan harga foto cetak perpaketnya berapa.
+Untuk harga termurah, cetak 2 lembar, harganya di atas 300K, nanti dapat soft file foto-fotonya juga.
+Harga bervariasi tergantung media cetaknya apa, kalau yang tebel kayak undangan ya 380K, di atas itu harga 400anK lebih.
+Di dalam cukup menarik, isinya hampir mirip dengan SeaWorld namun dengan versi lebih baik.
+Kelebihannya, di sini tempat didesain dengan apik dan menarik, penyajian tampilan aquarium juga bagus dan bervariasi.
+Tak hanya itu, kita bisa interaksi juga dengan beberapa hewan lain seperti ular, burung, binturong, bintang laut dan anak hiu di kolam sentuh.
+Ada musik klasiknya, jadi lebih berkelas aja rasanya.
+Bahkan di toilet pun ada jadwal pertunjukan harian agar pengunjung tidak terlewatkan sesi menarik di sana.
+Namun sayang, bagian laktasi gabung dengan toilet, tampak menyedihkan, foto terlampir ya ...
+Di bagian dalam juga variasi makanannya ga banyak, hanya semodel snack popcorn, permen, gulali kapas, dan sebagainya.
+Maka dari itu untuk yang pakai tiket sekali masuk, sebaiknya makan dulu atau bawa bekal dari luar.
+Buat yang pakai tiket premium kan bisa keluar masuk aquarium ya, jadi aman, bisa ditinggal keluar cari makan.
+Well, meskipun makan di sini juga kurang ramah kantong sih ...
+Di lantai yang sama dengan aquarium, hanya tersedia jajanan kering model minimarket di Korea.
+Kalau mau makan berat ada di lantai atasnya, tapi ya gitu, harga seporsi makanannya bisa seharga tiket masuk ke aquarium.
+Ngomong-ngomong soal biaya, nanti kita kalau udah masuk ke dalem, semua gratis kecuali makanan, minuman dan cetak foto.
+Cetak foto di dalam harga paketannya mahal, nanti habis nonton mermaid, ada tawaran cetak foto lagi, keluar lewat bagian souvernir, rata-rata harganya setara harga tiket juga. Di bagian Augmented reality juga ada tawaran cetak foto dan save file video yang harganya lumanyun.
+Too much penawaran yang serba mengeluarkan uang lebih.
+Harus pinter ngatur keuangan dan strategi agar anak engga rewel minta ini itu atau ngejar gengsi pengen cetak foto kenang-kenangan mahal.
+Versi ekonomisnya, foto aja sendiri pakai hp dan kamera pribadi.
+Kalau emang pengen lebih estetik, ya diedit sendiri aja.
+Jadi sisa uangnya bisa digunakan untuk hal yang lebih bermanfaat lainnya, tak hanya dihamburkan untuk hal yang tidak urgen.
+Di luar pengeluaran tambahan selain tiket, mengunjungi tempat ini cukup layak untuk mengajak anak mengenal dunia bawah laut.
+Menambah pengalaman anak tentang serunya mengenal hewan-hewan secara langsung tak hanya dari buku maupun video.
+Jadi bisa membandingkan besar asli hewan tak hanya mengira-ira ukuran gambar di buku.
+Sebelum beli tiket di sini, ada baiknya cek aplikasi lain seperti tiket dot kom atau apa gitu.
+Lebih baik lagi kalau perginya terencana, jadi bisa memantau harga promo gledek, lumayan kan bisa saving money lebih banyak.
+Untuk gambaran lebih lanjut, saya sertakan foto-fotonya juga sebagai bahan pertimbangan kebutuhan liburan diri atau anak.</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSURSX3NIeS1RRRAB</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>empret</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Sama seperti aquarium di tempat lainnya. Tiket termasuk mahal.
+Wahana 5D sebaiknya menggunakan kursi sehingga anak kecil tetap bisa melihat layar depan krn antrian tidak diatur. Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUN4MWRETVVnEAE</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Putri Quita</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Keren banget tempatnya , binatangnya juga banyak banget macem2nya . Ga ngebosenin karna ga hanya binatang laut aja isinya tapi yg darat reptil serangga juga ada .
+Hewannya lengkap , spot foto banyak , jdi bikin foto2 n video terus</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUNKdUxHQ2V3EAE</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Putri Tria Permata</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Happy bngt🥰 Aku ketemu putri duyung, menonton pertunjukan dan melihat pinguin secara langsung!
+Kalau kesini jangan lupa bawa tripod ya biar lebih leluasa foto foto🐠🫧
+Disini juga ada edukasi tentang memberi makan hewan loh …</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUR4X3NhWEF3EAE</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Mita Mch</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>pesen tiket via online, mau langsung beli di tempat juga bisa banget. Jum'at masih termasuk weekday. untuk bagian foto harusnya dari awal dikasih tau biaya2nya berapa. Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSURKZ0luXzNnRRAB</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Sri Rahayu</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>tempatnya ga se besar expetasi saya, dg harga 225.000 (high season) dpt wahana hny liat2 satwa laut dan wahana 5D sih kurang worth it kemahalan. Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSURSbi1UTENnEAE</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>anis nurhayati</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Bagus bangeeeettttt, bakal puas deh sama isinya. Cuma klo weekend mahal binggo. Lebih baik ke sini weekday guys. Soalnya klo weekend bisa 200k keatas. Tapi overall ga kecewa sama isinya :) karena di dalamnya banyak hewan laut yg lucu2 kayak ikan pari :) Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUN4aXAtcVNREAE</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Dinny Nuari Nurlita Rochaendi</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Seru banget! Cocok untuk masuk list tempat wisata bersama keluarga, pasangan, atau teman-teman. Saat weekend pengunjung lebih banyak tapi kita tetap bisa explore setiap sudutnya kok. Rekomendasi beli tiket lebih dulu ya, biar tidak lama antri😉</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSUQ1eVpTMXJ3RRAB</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Surya Safari</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Keren bgt. Bersih. Nyaman. Tempat yg recomended untuk bawa anak. Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSURSMzlhWlVnEAE</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Chika Chik</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Liburan yg cocok utk seluruh keluarga, bahkan orangtua sekalipun.
+Koleksi ikan yg cukup lengkap dengan akuarium2 yg tertata baik.
+Di lantai 1 bisa menikmati satwa darat dan bbrp atraksi sesuai jadwal.
+Ada 2 spot utk dgn lantai kaca sehingga bisa melihat ikan2 dari atas.
+Di lantai bawah lebih banyak area dgn spot2 utk melihat isi aquarium lebih banyak tetapi tentunya lumahan kecil
+Namun disini tdak ada terowongan aquarium spt SeaWorld, sehingga terlihat spt aquarium kecil2 (dibandingkan SeaWorld).
+Di depan aquarium disediakan kursi duduk dan musik instrumental, bisa duduk lama n rileks menikmati ikan .
+pengaturan lighting terlalu gelap, tdk memungkinkan bagi pengunjung utk berfoto dgn hasil yg bagus.
+Banyak tersedia fotografer di dalam, namun harga terlalu mahal. Termurah 280rb ,cetak 1 foto &amp; softcopy semua foto yg ada.
+Ada perbedaan info d website dgn aktual, dimana tiket reguler tdk dapat akses ke mermaid show (sudah dikonfirmasi jg saat menelepon CS). Aktual di lokasi, semua dpt menonton, namun sayangnya narasi menggunakan bahasa Inggris.
+Melihat pengunjung yg Mayoritas lokal dan anak2, ga make sense digunakan bahasa Inggris.
+Juga sekarang tdk boleh lg mengambil foto &amp; video ( dulunya boleh).
+Tidak disarankan membeli online via website.
+Pada hari kedatangan, sy membeli tiket di konter langsung, dan membeli tambahan tiket via web.
+Setelah membayar,tdk ada email konfirmasi dan e ticket diterima.
+Sempat lama berurusan di konter utk mengklaim tiketnya, akhirnya diberikan juga stlh mrk mengecek email, Cc yg digunakan dan no tlp di sistem.
+Venue ini lebih nyaman dikunjungi saat weekday, krn tempatnya agak kecil.
+Kalau weekend yg padat, sulit bisa menikmati pemandangan dan suasana d dalamnya.</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSUNKa2ZXbThnRRAB</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Julaeha Junaedi</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Suka bgt apalagi dapet 2 tiket reguler gratis dr giveaway ig, mayan kan tinggal bayar tiket bocil doang hihi, oiya jangan lupa kalo lagi di pinguin show sebisa mungkin jawab pertanyaan mc, lumayan loh bisa masuk ngasih makan pinguin langsung</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUNKZ2Y3aE1REAE</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Soegiono Liem</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Lumayan bagus cuma harga2 Souvernirnya mehong2, kyk foto yg dijual + bingkainya 300rb lbh. Boneka juga di toko mall cm 75rb disana bisa 270rb Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSUNwazVDdW1RRRAB</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Nurul Ulfa Aulia</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Super funn!! dengan harga yang dibayar dan experience nya bener2 sesuai! didalam tuh dinginnn.. kaca2 nya jernih, airnya bersih, semuanya bagus worth the experience deh!! Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSUNoemJxdXN3RRAB</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Firmansyah Ok</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Bagus sekali. Karena weekend, ramai sekali pengunjung nya yg pasti didominasi keluarga.  Selain jadi sarana hiburan, juga edukasi bagi anak2. Harga tiket sebanding lah dengan fasilitas dan kebutuhan perawatan ikan dan satwa lainnya nya yang pasti tidak murah. Ada banyak pertunjukan yang menghibur dr mulai dr Pinguin, Berang2 dan Binturong..
+Kekurangan nya hanya didalam nggak ada mushola nya.</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSURKcnJ2UHhRRRAB</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Diana Septiani</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Rame banget sih. Terus ternyata tempatnya juga gak gede2 banget. Tapi oke nya karena dia didalem mall. Binatang lautnya jg ga gitu banyak ya. Mau lihat mermaid show tapi antriannya sih horror bgt wkwkwk Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSURwNGNxMkR3EAE</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Dzakwan Mustofa'ainal Akhyar</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Bagus dan sangat worth it kesini dari pagi sampe sore karena banyak pertunjukan hewan yg menarik. Terutama pengwin!! Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSURaMGVHRDVnRRAB</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Anju Simanjuntak</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Seru, untuk pertunjukan makan hewan nya usahain sudah dilokasi 15-20min sebelum jam tayang Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSUNwOG8zZHVnRRAB</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Aswirah Jamaluddin</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Salah satu tempat wisata yang bagus dikunjungi ketika anak sekolah libur, tempatnya ada di dalam mal, berbagai jenis hewan ada dalam jakarta aquarium Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUNwdnRQYVdnEAE</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>hana rifiani</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Keren bgt disni, lengkap bgt
+Banyak jenis2 ikan, gak cuma ikan ada hewan2 lain juga
+Sangat recommended untuk family time Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSURwMXF5SXNRRRAB</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Astikatri Utami</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Pengalaman luar biasa bisa melihat dan belajar banyak hal tentang hewan laut❤️ cinta sekali dengan pertunjukan mermaid nya. Para staff yang ramah dan baik, handphone saya hilang, dan ditemukan dengan salah satu staff nya terimakasih banyak ❤️❤️❤️ Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSURSOXYzWmpBRRAB</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>adyati yudison</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Datang hari ke3 lebaran, cukup crowded, tp masih bs menikmati atraksi. Sangat menarik untuk anak yg besar, namun untuk balita kurang interaktif (karena ramai kurang bs menceritakan panjang lebar dan mengamati lbh lama). Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSUN4emZEUjdnRRAB</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Dinda Yusti</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Menurut saya untuk kaum mendang mending ini tidak worth it karena di dalamnya tidak banyak yg bisa di lihat. Sedikit. Ada kamar mandinya, lebih baik bawa makanan dari luar untuk nyemil dan jangan lupa nonton pertunjungan di dalamnya jangan hanya melihat ikan. Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUN4cmQtY1d3EAE</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>swastiindah pujiastuti</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Membeli tiket melalui aplikasi tetapi tetap harus antri di depan loket untuk mendapatkan gelang masuk.
+Koleksi binatang di akuarium banyak dan beragam.
+Petugas pendamping sangat ramah dan selalu menginformasikan koleksi binatang sehingga mengedukasi pengunjung.
+Harga tiket lumayan mahal, terkhusus yg premium dan salah satu privilege nya adalah mendapatkan welcome drink tapi kenyataan di lokasi utk bagian welcome drink nya sudah habis.
+Salah satu pertunjukan adalah melihat pemberian makan pinguin dan ini adalah menjadi favorit pengunjung, sehingga tempatnya penuh dan sempit.</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUNSNHEtRFFnEAE</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Rhaisa Thania Elnizar</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Wahana yg cukup menarik buat anak yg suka melihat binatang dan tentang kehidupan di dalam laut.. Bukan hanya mengenal ikan tapi juga yg lainnya.. Over all ok lah Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSUM1c3VIeGlRRRAB</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Mutiah Ayu</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Keren banget, banyak acara panggungnya,cocok buat semua usia Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSURCd3FhSE9nEAE</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Syamil Karim</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Tempat wisata yang ternyata besar meski ada didalam mall. Terdiri dari dua lantai, pintu masuk ada dibawah lantai GF, dan pintu keluarnya ada dibawahnya lagi. Tempat yang fun terutama untuk anak-anak. Tapi disaranin untuk reservasi online, karena meski udah dateng jam 9 pun tetep rame.
+Tips lagi, dari pintu keluar jakarta aquarium belok kiri terus sampe ke jalan kecil ada musholla &amp; toilet.</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSURSdzY3aDFnRRAB</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Eren Paoca</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>pencinta binatang laut wajib banget datang kesini, banyak banget binatang nya, disini ada burung juga, monyet, kucing, ular dan banyak lagi, dan di sini pertama x nya aku pegang hiu dan bintang laut, recommended banget, tiket masuk nya juga murah, dan ada challenge nya, ntar dapet hadiah klo smua nya dpt stamp Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSUM1NUlyRml3RRAB</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Fazri Muharrom</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Terima kasih Jakarta Aquarium yg telah menyediakan wahana edukasi hewan air. Lebih baik kesini pakai gendongan daripada stroler, krn di dalam masuk ke wahana berikutnya turun tangga. Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSUNKaHNyY29RRRAB</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Fauzia Putri Avia</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Aquarium disini memang bagus banget, tidak hanya  ikan saja, tapi ada  pengiun, dan beberapa jenis hewan darat.
+Saran buat yg mau kesini, coba cari2 tau jadwal kegiatan disini jadi bisa disesuaikan mau datang jam berapa kesini</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSURCMGFlRGt3RRAB</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Abdul Qadir Hassan</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Aquarium yang memlikiki koleksi hewan laut lengkap di Jakarta. Ada beberapa juga hewan darat di dalamnya. Sangat direkomendasikan untuk membawa anak-anak untuk mengenal hewan laut disini.
+Anak-anak bisa juga berinteraksi dengan beberapa hewan laut. Terdapat beberapa show yang bisa dinikmati, melihat pemberian makan piranha dan ikan lainnya, dan pertunjukan menarik lainnya. Ada juga misi yang bisa diikuti selama menjelajah, nantinya akan mendapatkan hadiah di akhir petualangan.</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSURwOUtyYkVnEAE</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>syifaf</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Tempatnya bagus, ada pertunjukanya gitu di jam tertentu Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSUNKX1l1SmdnRRAB</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Teddy Janitra Anggraito</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Walaupun satwa tidak selengkap SeaWorld, tapi tempat ini jauh lebih rapih dan tertata. Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSUNGMmJYbDN3RRAB</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Lia Lia</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Ya biasa aja, terlalu mahal. Kalau 100rb masih mending krn di mall dan ber-ac. Dalamnya ya bagus tapi ya udh biasa aja. Di tmii dg harga lbh murah, ilmunya lbh banyak. Harga makanan n minuman ngga kira2, masa teh pucuk 20rb. Harga cetak fto masa 350rb cuma buat 1 fto. 🤦🏻‍♀️ ngga worth it lah. Mls sih buat balik lg.</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUR4emFmalJBEAE</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>priti paramawidya</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Tiket biasa dewasa 150rb
+Anak sampai 5th terhitung anak. 111rb. Ini perlu pemberitahuan pake poster atau banner lah tiket anak itu usia berapa. Kasian yang ngira anak 6-7th masih pake tiket anak.
+Disitu ada ukuran tinggi badan sih, tapi juga g ada keterangan.
+Di dalam seru, ada touching area. Jalan di atas aquarium isi hiu dan pari gede.
+Isinya banyak, variatif. Ga cuma jenis hewan under water tapi juga reptil dan serangga.
+Saran aku tiket yang biasa aja, karena areanya ga besar. Jadi sekali jalan ga capek sama sekali.</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSUNaMzdlSHVnRRAB</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Wina Tjia</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Lumayan gede, tmptnya bersih, spot foto bagus juga.  Friendly staff. Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSURSXzZYalV3EAE</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Zadri Indra</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Tempat hiburan indor yang bagus dan koleksi ikan yang lumayan dan pertujukan putri duyung dan feeding time, enjoy sambil shoping.</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSURoaDlLcS1BRRAB</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Maria Irlene</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Cukup besar area wisatanya. Di hari biasa lumayan sepi jadi enak banget buat foto2. Untuk harga gak terlalu mahal. Gak hanya hewan laut, ada hewan darat juga. Sebaiknya datang dari pagi biar bisa lihat feeding animal. Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSURSdkx5LUZREAE</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>david jordy</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Ke sini lagi iseng iseng coba, eh taunya kerenn karena ada akuariumnya, boleh lah buat healing sore sore gitu, pinguinnya berenang renang gitu
+Untuk makanan lumayan, dan harganya sedikit menengah ke atas, tapi dengan penampilan akuarium pinguinnya saya rasa you will get what you pay for</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSUNoemRPLWxRRRAB</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Rina Tri Lestari</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Tempat yang menyenangkan untuk tamasya bersama keluarga, terutama anak-anak. Sesuai namanya kebanyakan koleksinya adalah berbagai jenis ikan, binatang-binatang lain juga ada dengan jumlah yang lebih sedikit.
+Lokasinya berada di dalam mal, Neo Soho, jadi bisa ke sini sekalian makan atau jalan-jalan shopping. Tempatnya cukup besar, bersih, dan yang lebih penting kids friendly. Petunjuk juga informasi yang berikan di setiap spot satwa juga sangat membantu dan mengedukasi.</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUR4NnN1TFZ3EAE</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Fadly Faturrohman</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Fun experience tempat yang indah bagus modern nyaman fasilitas bagus, hanya untuk waktu bermain melewati semua wahana cuman 30 menit beres karena tempatnya kecil kecuali jika rela menunggu berjam-jam untuk show khusus yg hanya diadakan pd jam tertentu. Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSUNKazZEdGxnRRAB</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>aniza andrena</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>ngedate ke-2 diajak kesini dadakan sore sore dan masuknya gak antri, wktu itu juga gak terlalu ramai, ternyata cocok bgt guys ngedate kesini karena jadi bisa ngobrol banyak, buat keluarga juga tempatnya cocok karena tempatnya bagus dan banyak hewan laut menarik yg bisa diliat, tentunya highlight aquarium yg ditengah ini jangan sampai terlewat ya!!</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUQ1bXNDM0dnEAE</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>muhammad erikman</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Beli tiket premium serasa reguler, nonton pertunjukkan pun terbatas orangnya, padahal sudah masuk ke dalam dan sama sama bayar, liat beberapa satwa seperti pinguin harus beli makanan dulu di resto, padahal pinguin sudah berada dalam wahana. Kalau kata teman2 masih banyak kegajean dan keanehan disini.</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUR4Z09qbllnEAE</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Papi Kai</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Seru tempatnya, tapi harus siap siap kaki pegal setelah keliling, banyak yang bisa dipelajari dan ramah untuk anak anak, untuk harga tidak mahal dan tidak murah juga, jangan lupa matikan fitur flash pada kamera hehe Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSUQtMFoyT3RRRRAB</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Rita Triastuti</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Datang pagi pas weekday jadi ga terlalu penuh, tiket reguler 150 rb bisa ntn pertunjukan mermaid show, binturong, otter, pinguin. Ikan nya lumayan banyak yg bagus pertunjukan mermaid sangat ditunggu anak". Harga makanan lumayan mihil Popcorn 44 rb, teh kotak 22 rb.
+Drpd lumanyun mending makan dulu sblm masuk ato bawa bekel sendiri.
+Kalo lapar ada solaria di lt. 3a harga standar, perut kenyang.</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSURoMmI2QjdnRRAB</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>alam sadikin</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Nonton pertunjukan mermaid, anak2 suka sekali, semacem kabaret dengan latar belakang aquarium raksasa dengan beragam biota termasuk mermaid. Sayangnya ikan2nya walau sebagai figuran terlihat tidak tergerak untuk membantu si mermaid yang kesulitan, terutama ikan pari yang cuman mondar mandir aja. Ayolaaahh ikan2!
+Selain pertunjukan, wahana akuarium lainnya menarik2, ikan2nya bagus2, ikan ekor kuningnya banyaaakk banget, lebih seger daripada yang dipajang di superindo.
+Pengalaman dan kesenangan yang didapat, sepadan lah sama tiket masuknya. Senang bisa berkunjung.</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSUNCcDlqMG1BRRAB</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Verindha Octria</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Bukan cuma cocok buat ngasih edukasi ke anak/ keponakan mengenai spesies laut dan jenisnya. Tapi juga ngasih edukasi ke kita, sebagai generasi muda yang pengen belajar lebih jauh mengenai itu.
+Tentunya, dengan adanya wahana ini, begitu menyejukkan mata, bikin tenteram deh pokoknya ngeliat wahana ini.
+Ada atraksinya, ada photo booth nya juga, tapi aku lebih prefer "difotoin temen" aja wkwkwkwk
+Masuk ke lokasinya dari Neo Soho, atau dari Central Park juga bisa kok, kebetulan waktu itu aku dari CP aja
+Tiketnya dibeli dulu via trvlka biar gampang, disitu liatin invoice nya via email. Kalau ga salah harganya 100K karena weekend waktu itu.</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSUN4dUozRjB3RRAB</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Mira Gusvina</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Kalau mau berkunjung ke sini hindari hari libur deh, kebetulan kmrn bawa bocil kesini pas lagi liburan, wow rame banget di dalm.. sumpek gt , so far sih untuk jenis ikannya termasuk lengkap sih. Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUQtbjltY1pREAE</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Tri Wahyuni Irayanti</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>kesini weekend jam 13.00 sampe magrib, rame bgttt. bawa anak under 2thn, anak sangat senang krn banyak ragam ikan dan ada beberapa hewan darat.. untuk foto boot yg di fotokan oleh petugas harga tebus nya luamyan mahal 370an, jadi kami ga ambil hasil foto nya .. suka dg ketenangan di bagian ubur2..senada sama musik yg diputar rasanya damai.</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSUNocmZhcHNnRRAB</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Nadia Rizqi</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Worth banget dikunjungi kalau punya anak usia 5 taun keatas. Banyak pertunjukannya dan gratis. Saran saya sih datengnya pas weekday ya, karena kalo weekend rame banget, belom lagi pengunjung mallnya sendiri. Parkirnya agak bikin pusing karena spiral, muter dari lantai 1 sampai 9.
+Ikannya gede gede banget dan unik</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUR4dE12TFFBEAE</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Shalsa Billa</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Bagus, Instragram-able bgt. Ada seminar edukasi juga. Worth it sih dengan harga segitu</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSUNoaTgyY3pRRRAB</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Tessa Widjaja</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Awalnya saya pikir tempatnya kecil, ternyata cukup luas. Koleksi binatang juga lumayan banyak, ada beberapa hewan yang tidak hidup di air juga. Bisa lihat waktu pemberian makannya, kolam khusus untuk menyentuh bintang laut dan ikan pari, ada show juga dan bisa merasakan pengalaman seperti dalam kapal selam, dan arena games. Lebih baik datang jangan waktu liburan anak sekolah karena kondisi ramai, antrian show &amp; kapal selam panjang, feeding time juga tidak bisa terlihat jelas. Ada penjual snack dan minuman di dalam.</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSURKNl8tcmRREAE</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Dion</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Tempat wisata indoor yang bagus
+Selalu rame di setiap weekend dan keyenn abizz Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSURCbS03ZnJRRRAB</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>ump bela</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Wajib booster atau vaksin dosis 3 karna harus scan peduli lindungi, kemaren pas kesini masuk lewat mall taman anggrek, agak muter sih tapi terlanjut parkir males keluar nyari parkiran lagi. Bagus bgt aquariumnya trs lumayan banyak ikannya, kalau laper gak perlu keluar di dalem banyak yg jual Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSURKdTRQNHpnRRAB</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Dita Nuur</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>9/10 soalnyaa tempatnyaa kurang luas huhuhu tbtb udah selesai ajaaaa,,,, tapi mermaid show nyaa bagusss, mengunjungi bersama kak sarkyy🐬🐬</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSUNKN0t1ZDl3RRAB</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Edwin Fred</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Sangat cocok untuk membawa anak kemari, memberikan edukasi mengenai kehidupan biota laut, serangga, dan binatang lainnya. Tempatnya juga nyaman, cozy serta full AC, jadi jangan tkt anak kepanasan ya. Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUNCX3B6VlFBEAE</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Ridwan Ahmad Onez</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>TERBAIK ! Jenis hewan yang ada disini variatif banget. Tempat juga asik, seru, dan tertata rapi. Untuk harga tiket normal dan sepadan dengan yang di dapat. Kesini recommended pas weekday, weekend rame bgt. Paling seru ajak anak bisa sekalian liburan dan belajar. Two thumbs 👍👍 …</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUNCdi1IQUt3EAE</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Minuita April</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Berkunjung kemari pada hari minggu. Tidak terlalu ramai pengunjung. Tiket dapat dibeli on the spot atau advance. Lokasinya ada di dalam Neo Soho Mall. Ada sejumlah atraksi wisata atau spot yang dapat dikunjungi di Jakarta Aquarium &amp; Safari ini. Misalnya:
+Atraksi binatang
+Pertunjukan edukasi satwa
+Pertunjukan Pearl of The South Sea
+Sea Explorer
+Underwater Fantasy Diving
+Aquatrekking</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSUNSbFlYTDJ3RRAB</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Altheus Family</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Jakarta Aquarium merupakan tempat wisata edukasi yang cocok untuk semua usia. Lokasinya ada di dalam Mal Neo Soho Jakarta. Disini kita bisa melihat berbagai biota laut dan juga beberapa hewan darat. Designnya modern dan hitech, ada 4d simulator dan pertunjukan theater putri duyung. Review lengkap silakan lihat di channel yt kami. Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSURoZ28zemN3EAE</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Nurul Hidayati Thamrin</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Wisata nyaman bersama anak2. Karena indoor, full ac, banyak binatang yg bisa dilihat, dan ada beberapa aktivitas yg bisa dilakukan selain lihat2 binatangnya sendiri. Di dalem juga tersedia tempat makan dan tempat jajan snacks. Walaupun harganya mayan pricey, tapi banyak spot yg bisa dilihat, banyak spot tempat foto2 😅 anak2 happy, tentu aja orangtuanya ikut happy 😆😆😆
+Oiya kalo mau ke sini, better beli tiket online aja yes.. selisihnya jauuuuh soalnya mayan banget shay.. terus kalo bawa anak2 toddler, ga usah beli yg premium. Bedanya premium sama reguler? kalo yg premium free masuk ke 5D simulasi kapal selam. Ai jamin toddler masuk situ takut cuy, keluar2 nangess, jd mending beli reguler aja 😅</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSURKMUxicHNnRRAB</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Verina Kusuma</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>So beautiful.. seru banget berkunjung ke Jakarta Aquarium &amp; Safari. Mantaappp Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSURoNHNUMmJBEAE</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Aisyah Tsabitah</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Seru banget. Cukup banyak koleksi hewan yang dipamerkan di aquarium ini. Bisa memberi makan hewan-hewan yang ada di sini. Ada juga cafe yang terhubung langsung dengan aquarium untuk penguin. Kalau tepat waktunya bisa berfoto di dalam aquarium penguinnya.</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSURKdFpqemt3RRAB</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Ria Silvia Splendour</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Pengalaman Seafari terunik karena berlokasi di dalam  Mall dan tentunya aquarium di dalamnya pun tidak monoton dan sangat menarik.. sangat rekomen untuk belajar dunia laut.. Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSURSX3UtbjhnRRAB</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Azhar Faishal Fakhri</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Lokasinya dalam Mall Neo Soho, kesini bertiga dengan istri dan anak, anak saya suka, kombinasi safari dan pertunjukan ikan, ada 5D juga yg lumayan bagus Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSURCMzZtVF9RRRAB</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Mira Utami (Miramiut)</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>List wisata edukatif kali ini, mamih ajak anak-anak ke jakartaaquarium . Ternyata JAQS itu tempatnya magical ada banyak banget yang bisa di eksplor.
+Selain bisa belajar dan mengenal hewan laut di Jakarta Aquarium &amp; Safari ini ditemukan sekitar 3500 spesies hewan air dan darat didalam area konservasi indor  yang luar biasa.
+Kegiatan dan pertunjukan shownya banyak jadi pastikan untuk nonton juga jangan sampai dilewatkan yah.
+Kagumi ekosistem yang indah dan beragam, terletak di Neo Soho anak-anak bisa menjelajahi beragam area interaktif, termasuk menyaksikan gambar ikan yang hidup seperti berada dalam keajaiban.
+Hari biasa tidak begitu ramai dan wajib untuk cek jadwal pertunjukannya karena memang gak boleh dilewatin. Ada promo tertentu juga lumayan banget sih klo dapat potongan diskon.</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSUN4Z3ZUUzZBRRAB</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Mario Kastanya</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Besar Aquariumnya setelah seaworld ancol.
+Kita dateng jam 14.30 sore di hari sabtu...
+Rame &amp; tidak terlalu penuh.
+Jika bawa keluarga atau anak kecil cocok nih dibawa kesini.
+Yaa coba dateng saja kawan yukk</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSURKMWJEUUdREAE</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Liony Dionita</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>lucu lucu temanya biru biru. banyak aquarium estetik . harga tiket masih standar tp pesan lewat online lebih hemat Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUNCbFlUUVB3EAE</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Andina Lucky</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Lokasinya mudah dijangkau, karena ada di dalam gedung mall. Kesini pas hari libur nasional penuh banget. Koleksi hewan nya cukup banyak dan unik. Beberapa bisa kita ajak interaksi secara langsung. Ada pertunjukan mermaid dan sinema 5d. Cuma untuk 5d nya kurang terasa real. Cocok untuk wisata keluarga dan edukasi anak Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUNKdi0tY1RREAE</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Nikenn Pratiwi</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Pengalaman yang seru dan menyenangkan bisa melihat ribuan jenis fauna laut dan ada jg hewan lain.. Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSURPbWZqOEpBEAE</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Aprillia Tanto</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Aquarium di dalam mall. Tempatnya bagus &amp; bersih. Koleksi ikannya cukup banyak, tapi sesuai namanya, karena ini big aquarium jadi koleksi ikannya memang banyak tapi tetap tidak sebanyak di sea world 😂. The ticket is quite pricey for me, mungkin karena lokasinya di dalam mall dan memang tempatnya sangat well maintained. Tempatnya sendiri menurutku tidak terlalu besar. Hanya perlu 45 menit - 1 jam berjalan santai kita sudah selesai mengelilingi seluruh tempat (termasuk buat foto2 dan melihat ikan2nya)</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUN1all6d1h3EAE</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Ronni Darmawan</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Pengalaman kesini bawa anak sangat menghibur anak2 dengan adanya binatang2 laut.
+Untuk masuk nya disini ada 2 harga. Reguler dengan premium, pembedanya hanya pada menggunaka 5D. Selain itu sama. Saya sendiri ambil yang reguler dengan anak saya.
+Saran saya kesini sehabis makan siang sekitar jam 13:00 - 13:50 agar merasakan semua event yang ada disini, dan pulang nya sekitar jam 16:30. Ini terakhir eventnya.
+Point penting yang saya sarankan. Untuk di event kasih makan pingun, saya sarankan angkat tangan dulu ketika di kasih pertanyaan, agar bisa merasakan kasih makan pingun , jawaban nya dari 2 pertanyaan “ BERTELUR “ yang satu nya lupa. Hehe
+Tempatnya ini ada 2 lantai, yang mana ada kemungkinan nanti kalian akan bolak balik di kawasan ini , karena memang menunggu event2 yang ada di masing2 zone yang telah di jelaskan.
+Untuk foto2 dgn burung atau ular gratis, akan tetap untuk mau softcopy foto di welcome dan di area aquarium tabung yang panjang ke atas itu berbayar, katanya sih 200ribuan, tapi di cek saja langsung.
+Disini hanya ada makanan ringan seperti pop corn, dorayaki, takoyaki, roti2 isi gtu. Yang harganya lumayan untuk di kantong.
+Prihal kepadatan di lokasi, bagi yang gak suka rame2, suka foto2 di spot2 tertentu, saya sarankan datang di weekday. Tapi kalau mau padat merayap dan ingin senggol2an dan antria mau foto di spot2 tertentu akan kurang nyaman karena masing2 orang punya ego sendiri2.</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSUR1eDVYYm9BRRAB</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Tak Dikenal</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Sudah akhir pekan, saatnya kamu  mengajak keluarga menikmati hiburan di luar rumah. Tapi bingung mau mengajak mereka kemana, terutama anak-anak? Tak perlu bingung, Jakarta Aquarium Neo Soho jadi solusinya.
+Wahana rekreasi baru di bilangan Jakarta Barat ini menawarkan akuarium dalam mall pertama di Indonesia. Dengan desain ruang yang nyaman, anak-anak akan betah berlama-lama di dalam.
+Tempat ini terbuka untuk umum setiap hari, mulai pukul 10 pagi hingga 10 malam. Pengunjung cukup membayar tiket masuk sebesar Rp140.000 – Rp185.000 di hari biasa dan Rp185.000 – Rp200.000 di akhir pekan.
+Tiket masuk wahananya sendiri ada 2 macam, yakni reguler dan premium.</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUR1cWRhbERBEAE</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Florencia A</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Penasaran seperti apa Jakarta Aquarium sekalian bawa bocah untuk lihat lihat..
+Jakarta Aquarium ini ada 2 lantai dan di sini ad buat feeding animal dan bs pegang juga. Tapi karena kita takut jd ga pegang better liat2 aja.
+Section nya masing2 jg banyak ga cuman ikan tapi ada binatang lain macam burung, monyet, lemur, kura kura dan lain nya.
+Karena kita datang weekdays jadi crowd nya tidak terlalu parah dibanding kan pas hari libur nasional ini super ramai dan sampai antri keluar.
+Overall Jakarta Aquarium ini OK kalao mau bawa anak anak untuk mengenal berbagai macam hewan.</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSURCOEpmQXJ3RRAB</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Dewi Susanti</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Asik bangetttt, kalo full course gitu bakal puas sih, gak cuma anak anak yg suka, aku juga suka kalo diajak kesini lagi. Tiket mulai 150-200 an tergantung hari dan paketnya ✨✨</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSUNoN3ZQOG93RRAB</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>loren z</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>pengalaman yg sangat seru dan menyenangkan piknik ke aquarium Jakarta karna anak² pada seneng sekali.. tiket masih terjangkau untuk weekend, terus didalam tuh worth it lah karna tempatnya luas bgt dan gak cuma hewan² air aja tapi ada lemur, meerkat, kura², dan banyak lainnya jd beraneka ragam bgt, ada pertunjukan ikan piranha juga lho.. seru bgt sih menurutku.. weekend ramai dan penuh.. tp tidak sampe bersesak sesakan..</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSUQ1eXFqNzlnRRAB</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>santa hosiana</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Ekspektasi, ruangannya besar banget
+Realita, standar meseum yg ada di mall pada umumnya.
+Hewannya ga cuma yg ada di laut atau air tawar, ada juga beberapa hewan eksotis seperti ular, tarantula, kalajengking dan lainnya.
+Datang hari sabtu sore, cenderung ramai lancar.
+Tips, untuk yg suka foto atau mau difotoin sama kameramen disana bisa banget dibantu sama mereka, kalo gamau cetak karena mahal, tanya aja kalo file digitalnya bisa ga, karena aku ga ditawarin untuk file tapi pas aku gamau cetak, baru deh di tawarin, lebih murah dibanding dicetak.
+Overall, tempat ini bagus untuk foto dan variasi jalan jalan yg deket dan ga panas.</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSUM1OE1uX3JBRRAB</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>MIFTAHUL KHAIRAH</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Tempatnya seru banget, banyak spot fotonya juga dan menambah wawasan tentang biota laut Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSUNPMXJEajBBRRAB</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Yuni Widhi Astuti</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Ksini pas weekday.. jd g terlalu ramai.. Harga tiket lmyn mahal tp worth it lahh..
+Tiket dewasa 135rb, tiket anak 115rb, bayi under 2yo free.. pke bca dpt potongan lg..
+T4 keren, bersihh, nyaman. Show nya banyak &amp; macam2.. Binturong, Pinguin parade, paling keren : pearl of the south sea!
+Gulali yg gelas 30rb, kelinci 35rb, olaf 50rb..
+Cuman harga teh kotak luar biasa, 22rb!! Itu udh plg murah.</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSURKaVpDVmt3RRAB</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Annisa Nugrahany</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Cocok untuk jalan-jalan keluarga dan ada pertunjukan putri duyungnya. Good experience!</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSUNKNU56NWdBRRAB</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Dito Sulistio</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Ada pengetahuan ttg biota laut dan darat, cukup bayar 150 rb/ org (u/ reguler yg premium beda), dapat foto digital tapi tidak dijelaskan saat awal bahwa harus menebus 345 rb (min. 2 foto yg cetak/jadi). Overall sebanding saja Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUN1NHNDaUN3EAE</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Septyandini Widowati</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Seru banget! Banyak jenis ikan dan hewan-hewan lautnya. Ada beberapa pertunjukn yang seru seru kaya feeding otter dll. Pertunjukan putri duyung juga seru bangeeeet. Cocok untuk liburan keluarga apalagi dengan anak kecil, pasti seneng bgt. Kalo weekend lunayan rame yah. Lokasinya cukup luas yaa. Ada di dalem mall jd setelah dr situ banyak pilihan makanan.</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUR4cXNYRlBnEAE</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Jo DeBritto</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>The best Indoor aquarium di dalam mall. Hewan lumayan banyak, ada yang darat dan air. informasi yang di berikan juga baik. Konsep bagus.
+Menarik untuk belajar atau sekedar mencari hiburan.
+Recommended dah</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSURCcDRMY2dRRRAB</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Kursus Mengemudi Tirta Raya Bintaro Manual Matic</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Liburan Seru
+Theater putri duyung.
+Bertemu Pinguin..
+Banyak ikan dan binatang lainnya...
+Untuk makan dan minum standar.
+Cetak foto lumayan mahal 😁
+Tapi hasilnya bagus.
+Terimakasih</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSURwdTdmbjNnRRAB</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Haryo Aditomo</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Tempatnya bersih, suasananya menyenangkan cocok ajak anak2 untuk liburan kesini Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSUNKbFlIVW5RRRAB</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Angelica Halim</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>cukup menarik considering hampir gaprnh ad ((zoo)) di dlm mall kyk gini, konsepnya jg ok bgt, cmn mnrtku kurang interaktif utk penjelasan hewan"nya, krn yg di tab dan di aquarium kdg kan ga sama ya, misal dewasa dan baby, jd bisajadi beda jdnya susah utk dikenali utk yg awam. kmrn beli di trave dpt disc jd 150k aja, lumayan sih, walau sedi jg kmrn niat mau liat pinguin tp pinguinnya gaada wkwkw:( overall ok kok, goodjob👍</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUNoNGFtd1N3EAE</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>christ johan</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Penguin Humboldt (Spheniscus Humboldti).
+Spesies penguin yang hidup di Peru dan Chile yang sudah terbiasa dengan iklim sub tropis (18 sd 25 derajad Celcius).
+Tinggi 56 sd 70 cm dan berat 3,6 sd 5,9 kg.
+Penguin Humboldt Jakarta Aquarium adalah Lembaga  Konservasi ex-situ bagian dari Taman Safari Indonesia yang telah berhasil menetaskan 40 telur penguin dan merupakan generasi ke 3 dari Taman Safari Indonesia.
+Tempat sarana wisata  edukasi bagi anak anak dan orang tua di dalam mall di kawasan Jakarta Barat.
+Menariknya bisa sambil menikmati makanan dan minuman yang disediakan
+“Food edutainment”perpaduan yang serasi Food Beverage edukasi dan entertainment.</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSURSMjYtZ1ZnEAE</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Rivan Fernandi</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Aquarium nya luas, dan jenis satwa yang ada di aquarium ini banyak jenisnya. Ga cuma ikan aja, ada mamalia dan reptil juga. Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUQtOWZLdFBREAE</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Ifan Tirta Adi</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>keren banget untuk jd spot foto² tp kusarankan klo mau foto² weekdays ya, klo weekend pasti rame.
+banyak hewan² selain ikan, jd gk ngebosenin, ada pinguin jg di restoran samping tempat keluar. Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSURaeXRudnlBRRAB</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Andi Nurul Ulum</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Bagus bgt tempatnya. Selain tempatnya bersih, banyak bgt juga pilihan atraksi yang bisa dilihat. Sarannya sih datang dari pagi jam 11 biar bisa liat semua feeding hournya. Plus mereka ada atraksi mermaid yang tidak bisa direkam karena sudah punya HAKI jadi better nonton langsung Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSURCaUt6T0FnEAE</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Selvi Agustin</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Kesini weekday tpi pas lagi liburan anak sekolah jdi RUAME polllll.. jdi kurang bisa menikmati karna bener2 rame, udh pusing sendiri liat orang.. harga tiket 225/orang plus dapet kinderjoy 1/tiket..
+Tapi kalau dibandingkan sama seaworld saya lebih memilih seaworld ancol karna variasi ikannya lebih banyak, aquariumnya lebih besar jdi lebih puas..
+Nilai plusnya disini banyak hewan2 lain selain hewan2 laut.</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUN4bEt5ZGR3EAE</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>elysa afrilliani</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Tiket masuknya mahal 😩 di dalam juga kalau mau liat beberapa atraksi harus bayar lagi dan harganya juga bikin pengen nangis 😅. Tapi overall bagus kok …</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSURSdXZpTndnRRAB</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Muhammad Etsha Pratama</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Pada akhir pekan pengunjung sangat ramai, tapi petugas cekatan sehingga tidak perlu lama antri. Lebih baik beli ticket secara online. Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSUQtbnJyZmlBRRAB</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Ika Mulyana</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Tempatnya nyaman, adem. Instagramable banget, semua sudutnya cakep untuk foto foto. Koleksi hewan ga cuma ikan saja. Sayang banget food court nya cuma snack aja, ga ada makanan berat. Saya pakai premium, tapi untuk kembali ke dalam agak malas. Jadi puas puasin main dl, baru keluar untuk makan. Snack nya juga ya ampun mahal banget hahahahhahaaha, bukan untuk kaum mendang mending kayak aku. Teh kotak 22 ribu soalnya 😂😭</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSUNPeVAzYXRBRRAB</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Rhezendy Prana</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>SERUUUUUUU! Untuk hiburan di dalam kota, ini cukuuup seru banget. Di luar harganya yang (IMHO) agak lumayan pricey tapi cukup worth it! ikann nya macem-macemmmm, banyak jenis hewan juga yg saya baru nemu setelah dari sini, hewan air maupun darat. Di dalem juga udah ada jualan makanan/minuman jdi ga ribet keluar-keluar nyari.
+Harga reguler hari libur dewasa seingat saya sekitar 175,000 untk anak 135,000 (please do correct me if i’m wrong ya….) tapiiiii pas kemarin kesana ada promo diskon. tapi ada yang premium sekitar 225,000 kalo dewasa, kalo anak lupa wkwkwkw enaknya kalo yg premium ini udah include masuk ke 5d, kayaknya seru. nanti kalo kesana lagi saya review lagiiiii~</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUNoallLRUpnEAE</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Nathania Nadia Budiman</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Slalu suka liat2 ikan, skrg malah udah ditambah hewan2 darat jg jd namanya aquarium &amp; safari, cuma yg baru2 pergi udah ga ada jellyfish syg bgt pada kemana ituuu... Bs beli tix dadakan on the spot 150k klo mau 4d experience nambah 50k lagi trus dikasih kertas tantangan foto di area2 yg ditentukan nt keluar dpt stiker Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSUN4aUp2dnRnRRAB</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Indah Nafidah Hayati</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Seruu sekali bawa anak2 kesini… banyak show nya. Kemarin nnton parade penguin dan cerita mermaid</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUNlX2FHa0NBEAE</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Nicky</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Pertama kali kesini dan ternyata memuaskan. Dengan tiket reguler saat weekend sekitar 171rb (online ticket) sangat worth it. Kalau mau datang weekend lebih baik pagi mendekati jam buka jakarta aquarium. Sudah agak siangan mulai padat.
+Banyak variasi hewan laut yang bisa dilihat. Ada touch the pool dan beberapa show juga. Di depan setiap aquarium ada penjelasan tentang hewan. Banyak spot foto yang bagus. Cocok untuk semua usia.
+Ada jasa foto juga, cuma sayang menurut saya kemahalan (sekitar 300rban). Tapi kalau ada budget lebih sebenarnya menarik karena bisa foto di depan swirl tank dan bawa souvenir foto berbingkai.
+Pelayanan staffnya ramah-ramah, tempatnya bersih, termasuk toiletnya.</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSURPMmFLampBRRAB</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>damar prasetya</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Menyenangkan, very exciting.
+Koleksi hewannya ternyata tidak hanya hewan laut tapi ada beberapa hewan darat juga meskipun bukan yang besar-besar.
+Lokasinya yang berada di dalam mall membuatnya semakin nyaman karena tidak panas-panasan dan mudah cari makan.
+Atraksi hewannya juga macam-macam, seperti kasih makan pinguin atau piranha. Ada live teater dalam air juga tentang queen of the south.
+Modern, kalo ada kesempatan ke sini lagi ah.</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSURab09XUFVREAE</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Media Komunika</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Bagus,sayang tempatnya kecil-gak imbang dengan harga tiket</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSURKcU52aS1BRRAB</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>agung Slamet raharjo</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Tempatnya bagus, ada wahana di dalam mall nice Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSUMtOS1xZi1nRRAB</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>ZND story</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Masuknya biasa aja.. makin kedalam makin wow untuk ank" nambah wawasan kemaritimin
+Ambil paket premium bisa  keluar masuk 4 jam plus bisa nikmatin kapal selam 5 dimensi</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSUNCMWVxdDRRRRAB</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Bowie Siregar</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Wahana aquarium yang cukup menghibur dan mudah dicapai. Letaknya di lantai LG gedung Neo Soho. Koleksi ikan cukup lengkap. Ada live interaktif memberi makan hewan dan juga atraksi pertunjukan mermaid di jam jam tertentu. Didalam ada yang jual cemilan, tidak usah khawatir kalau lapar. Kekurangannya disini tidak ada walk thru aquarium seperti di Sea World atau SEA Aquarium Singapore. Cocok untuk pergi bersama keluarga atau dengan pasangan.</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUQtOXVqU2FREAE</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Rangga Adhi Wisesa</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Bad trip berasa sia" beli tiket premium cuma bisa wahana 5D udah gitu gitu" doang wahananya. Ada beberapa juga waktu itu lagi di perbaiki spotnya huftt udah beli tiket mahal menurut saya engga worth it yang premium mending yang reguler Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSURPdHJXQl9nRRAB</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Salena Basoeki</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Ke sini pas liburan sekolah, paling bener beli tiket dulu di aplikasi (traveloka/tiket.com, dll) karena bedanya lumayan (30rb), kalau on the spot antriannya mengularrrr. Tapi antrian ini banyak petugasnya jadi crowd tertib.
+Karena beli tiket regular jd d dalam yg ekstra harus bayar lagi (50rb buat ksh makan pari, dll, menurut saya kurang penting hahaha).
+Untuk akuarium dan atraksinya bagus, binatang2nya sangat terawat dan bersih.Ada feeding time dan show yg bisa dilihat (bisa cek jadwal). Di dalam bagian ujung ada pusat jajanan gitu. Reccomended untuk anak2 dan keluarga. Siap2 duit yg lumayan ya hehehe. all</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUNleXQ2ZWZBEAE</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Herina Yunita</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Kalo bosen ke sea world bolelah main ke sini... Kalo sea world ada trowongan airnya ..kalo di sini ada semacam jembatan kaca gitu yg di bawahnya aquarium ikan.. yang wa tau isinya ada ikan pari sama hiu..
+Mereka juga ada mermaid show, anak anak pasti suka nih...Untuk jam jamnya wa lupa. worth it lah ke sini kalo lagi pengen refresh mau liat ikan atau suasana laut 😁.. di dalem sini gak cuma ada hewan laut aja loh tapi juga ada beberapa hewan darat dan beberapa jenis hewan dari berbagai perairan ya..oh ia di dalem jakarta aquarium ini juga ada beberapa stand makanan ya.. jd kalo capek jalan di dalem pengen istirahat sebentar bisalah cemal cemil dikit..
+kalo ke jakarta utara ke jauhan bisa ke jakarta barat aja, abis liat liat ikan bisa langsung nge mall</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSUNCeTdIWDZRRRAB</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>mohammad ardiant</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Tempatnya bagus, ada event pertunjukannya setiap hari dan sangat bagus untuk anak- anak hingga remaja. Bisa menjadi rekomendasi kluarga saat liburan</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUNPb291QldBEAE</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Giri Alifia</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Aesthetically pleasing😍💙🐟🐠 Menurut aku worth the price karena untuk perawatan, pakan, instalasi, lighting, etc pasti butuh cost gede😂 Dateng weekday tapi rasa weekend karena tetep rame. Saran untuk counter cetak foto diperbanyak spotnya karena untuk satu orang aja bisa lama banget karena dijelasin panjang lebar, belom milih2 foto huhu jadi antri lama:((((</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUNodW9lNU5BEAE</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Fitrah Magfirah</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Mini aquarium di dalam mall. SERUUU!
+(Terdapat 2 jenis tiket ya guys, bisa dibeli online agar tidak terlalu mengantri)
+After safari, kita bisa makan di neo soho &amp; cuci mata di CP Atau Mall TA .. yeay🎉</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSURSMnJQUzdnRRAB</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Jimmy Andrianto</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Tempat main &amp; edukasi buat anak. Ada di area mall. Jadi abis maen klo laper/mau cemal cemil bisa cuz langsung cari.
+Di dalemnya ga cuma dunia perikanan aja (mayoritasnya binatang air). Bisa tanyakan ke petugas timet u/ beberapa opsi show yg tersedia. U/ show penguin hanya berlangsung 1x. Jadi tinggal atur waktu aja biar optimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUR1eDcybFVREAE</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>agung mediakreatif</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>kereeen...
+tempat wisata akuarium raksasa yang berada di dalam mall..
+dengan pengaturan interior yang luar biasa, serasa gak berada di dalam mall..
+ada pementasan teatrikalnya juga pada jam-jam tertentu..
+udah gitu mall-nya gedhe banget juga..
+seharian gak cukup untuk muter semuanya...</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSURSOGJfaFdREAE</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Windy Rizki</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Month of visit: April 2023
+Tempat yang menyenangkan kalau bawa bocil dan memperkenalkan laut dan binatangnya, adem, modern dan semakin variatif. Harganya karena lagi liburan kena yg mahal 225,000/orang tapi sebanding dengan fasilitasnya.
+Worth to visit! kalau tinggal di Jakarta harus udah pernah kesini deh pokoknya hehe.
+Pertunjukan yang ada mermaidnya juga bagus! Tidak norak, lucu, bagus hanya beberapa percakapan kurang jelas didengar saja.
+Yang agak kurang itu experience yg 5D itu sih, gambarnya kurang tajem, kurang serem atau mencekam haha.
+Semoga Jakarta Aquarium tetap bisa bertahan yah supaya hewan2 didalamnya tidak kekurangan makanan dan perawatan.</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSURSOTkzclVREAE</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Sugianto Sentosa</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Harga : 8.5
+Luas area : 8.5
+Jenis ikan : 9
+Pelayanan : 10
+Kebersihan : 9.5
+Yg terbaik adalah karyawan nya sangat membantu. Pelayanan nya sangat baik...
+Yang perlu ditambah : acara pengetahuan tentang ikan. Mungkin buat pentas panggung, crita mengenai ikan. Apalagi di saat libur panjang. Itu sangat di butuhkan. Trus panggung buat jadi 2 tempat. Biar ngak numpuk semua di satu panggung. itu hanya masukan tambahan... 😁
+Recommended 👍👍👍</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSURKaF9YVEJ3EAE</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Afifah ayu</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Cukup worth it untuk dikunjungi berbagai jenis usia</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSURPNWFXZ1pnEAE</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Hera Dwi Paramita</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Suka banget disini keren, bnyk hewannya baik itu hewan laut ataupun darat ya. Kaka2 penjaganya juga pada baik baik, ga jutek. Toiletnya bersih. Cuma aku saranin aja kalau mau ke sini lbh baik beli tiket yg reguler, ga usah premium. Bedanya cuma bisa 5D simulation doang dan itu juga ga wah wah banget.
+Satu yg paling aku sayangin di dlm JAQs ini ga ada musholla, jadi harus keluar kalau mau sholat. Dan kalau udh keluar ga bisa masuk lagi.
+Ohiya pertunjukan mermaidnya bagus banget aku suka, keponakan aku yg masih kecil juga suka banget.</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSUN4emVmTWxBRRAB</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Dian Hendra</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Over pricey hehehe. Kalau bukan karena pengen nyenengin anak, ogiaaahh kesini lagi 😂😅 …</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUQ1eVkyR1NBEAE</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>Sup Pomo</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Saya pikir cuma ikan saja, ternyata berbagai macam fauna baik darat air dan udara Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSURCMnR2alp3EAE</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Ghifari Pangripta N</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Menurut saya agak mahal untuk tempat yang ditawarkan. Saya pikir tempatnya akan ada di hall tersendiri terpisah dari mall nya ternyata jadi satu dan terletak hampir lantai dasar. Yah memang banyak spot foto yang "bagus" namun menurut saya bukan tempat yang selalu ingin dikunjungi jika ada waktu luang.
+Mungkin jika ingin berfokus dan memang ingin memberikan wisata pendidikan ke masyarakat bisa dipindahkan ke tempat yang lebih memadai baik untuk hewan ataupun pengunjungnya.
+Untuk hewan darat yang ditempatkan di sana saya khawatir akan stress karena ketika saya berkunjung situasi sangat riuh dan jarak antara pengunjung dan hewan sangat dekat jadi sangat memungkinkan jika mereka bisa "lepas kendali" dan terjadi hal2 yang tidak diinginkan.</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSURCd291clhREAE</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Firdausi Putri</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Amazing😍
+Kalo kesini wajib nonton show Pearl of the south sea.
+Cetak foto harga 340rb (weekend) dapat 2x foto cetak+soft copy.
+Saya beli tiket regular ya pertimbangannya karena bedanya hanya masuk ke 5D simulator (ARV simulator nya udah gak ada) dan bisa keluar masuk berkali2 selama 4 jam pertama (kalo ditengah2 mau keluar, nanti masuknya lewat pintu masuk utama alias muter lagi).
+Tiket regular aja udah cukup worth kok, anak2 udah happy dan bisa lihat show² yang ada disana.</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSURSbVBpMVVBEAE</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>fadillah akbar</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Tempat nyaman di dalam perkotaan yg padat di dalam mall CP ( Central Park ) .
+Strategis di pusat kota wisata yg menyejukkan fikiran
+Cocok bersama keluarga dan anak-anak 😎</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSURPcUlLeFd3EAE</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Just Divai</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Ini adalah pengalaman pertama saya pergi ke Akuarium Jakarta. Saya senang sekali. Bersih, nyaman, pemeliharaan ikan-ikan dan makhluk laut lainnya cukup baik. Beberapa area memang dibuat dengan penerangan kecil untuk menyesuaikan kondisi di bawah laut. Guide atau pemandu tidak selalu standby di setiap area, tetapi sudah ada keterangan yang lengkap mengenai data-data ikan di layar Ipad di sebelah akuarium. Saya agak kurang 'klik' dengan penerjemahan nama-nama maupun istilah dari Bahasa Inggris ke Bahasa Indonesia. Terasa kaku. Ada bilik toilet dan konter makanan. Sebagai wahana hiburan dan edukasi, saya sangat merekomendasi tempat ini sebagai destinasi wisata keluarga. Very good!</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUNaeHB1R1RREAE</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>sherlock holmes</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>anda hanya perlu waktu 15-20 menit untuk menyelesaikan perjalanannya. Harga terlalu mahal untuk sajian aquarium yg hanya 2 lantai (bertiga hampir setengah juta). dengan tiket segitu ekspektasi saya diawal itu bakalan sampe kaki pegel lihat pesona hewani di dalam aquarium. contohlah IKEA mendingan. belajar experience dari mereka daripada cuman buat ruang hiburan 2 lantai. mengecewakan</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSURCNzdXVDlRRRAB</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>Jeynie Worotikan</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>Keren bangettttt ada aquarium di bawah mall...anak2 senang juga orangtuanya...bermacam2 jenis hewan laut dan hewan lainnya...tiket bisa dibeli secara langsung dan online Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSUN4d2RPbzZRRRAB</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>yayu rahayu julia</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Lokasinya strategis,, kayanya beli tiketnya di online dibandinh onthespot ruame pool apalagi pas liburan.. Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSUQtdWJXLV9RRRAB</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>Gabriella</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>Nice place to go ketika bingung mau kemana!! Cari sesuatu yang unik tapi masi Jakarta area!!
+Bisa ajak anak" juga jadi sekalian explore dan belajar hal baru.
+Banyak jenis ikan dan ada hewan lain yang menarik juga.
+Foto legendaris kalo ke sini, foto depan tnak birunya.
+Harganya kalo weekend dan weekday berbeda lebih mahal weekend tentunya. Dan mereka punya yang premium pass itu kelebihannya bisa masuk berkali" selama 4 jam maksimal. Mungkin kalau mau keluar makan dulu terus masuk lagi tuh bisa gitu wkwkw beda sama tiket yang cuman masuk 1x juga cuman 20rban jdi good deal.
+Tiket premium juga bisa dapet 5d experience pas sebelum exit jadi asa nonton 5d show gitu dulu.
+Overall rating 8.5/10 🫶🔥</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSUNPMFlidTdRRRAB</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>caki</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>Cocok buat rekreasi bareng keluarga terutama anak kecil dan mengenal binatang bawah laut, ada pertunjukan Pinguin (terbatas) dan kebetulan gak dapat slot jadi ya sudah, ada pertunjukan 3D or 5D (lupa) kalau beli tiket premium gratis kalau tiket reguler bayar lagi 60K.</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSURab1pmV2F3EAE</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>gregorius adhi</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>tempat rekreasi dan edukasi yg bersahabat untuk keluarga. buat yg belum  pernah, sangat layak dicoba. koleksi ikannya cukup banyak, interior bagus, ada beberapa satwa darat seperti ular, burung hantu, burung kakatua dan beberapa satwa lain. pemandu yg ramah memberikan info tentang satwa2 di lingkungan jakarta aquarium. selain itu, pada jam tertentu ada pertunjukan satwa2.</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUMtOEozYVZ3EAE</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>Siska Sri</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>Tiket masuknya ada 2 macam regular &amp; premium
+Tiket masuk regular Rp 160,000an
+Tiket masuk premium Rp 215,000an (bisa keluar masuk area selama 4jam, meet &amp; greet dg mermaid), anak di bawah 2th tidak dikenakan biaya masuk
+Diusahakan kalau bawa bayi atau anak kecil jangan weekend &amp; libur nasional, karena pengunjung sangat membludak, bisa antri tiket berjam jam, sekalipun beli online. Atau kalau mau weekend usahakan dateng pagi pas baru buka hihi, jgn lupa bawa bekal makanan serta minuman. Semua resto biasanya akan full booked huhu</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUNoaHRTVmRBEAE</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>Ali Hamzah</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>Sebenarnya tempat yang sangat menarik dan edukatif baut anak, tapi seperti anak saya kurang begitu antusias, dengan tiket yang sama lebih tertarik di toko sebelah. Selain aneka ikan mulai air tawar dan laut, ada juga aneka hewa seperti lemur iguana dan lainnya. Atraksinya seperti parade pinguin dan lemur, feeding ikan piranha dan lainnya. Juga bisa berfoto dengan aneka satwa seperti ular, kadal, bintang laut dan lainnya. Untuk tiket premium akan mendapatkan gelang dan bebas keluar masuk lokasi.</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSUNoLU5iTTFnRRAB</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>Meidiono Untoro</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>Satwanya kurang banyak kalau dibandingkan pesaing2nya, tp overall bagus karena interior dan suasananya masih segar, plusnya di tengah mall jadi bisa lanjut makan dan belanja.</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUN1aXNXVUZ3EAE</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>sinta dewi</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>Worth itlah dgn HTM segitu, karena memang tempatnya cukup luas. Cuma sayang saat kesini kami gak sempat lihat meet and great mermaidnya.</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSURabDVhUDJnRRAB</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>eka raja</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>Premium dewasa seharga 200rb +- sangat worthit Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUNtNUsyT0tREAE</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>AW Putra</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>Worth it banget untuk kesana, karena biotanya beragam, ada beberapa yg biota nonlaut, kmrn beli tiket pake traveloka mayan sih diskon, 3 tiket premium weekdays cuma 400k, mayan kaaaan... Hewan2nya jg terawat ko, ramah2 jg pegawainya... Trus kalau premium bisa nyobain human claw ambil snack deh buat ngemil, soalnya jajan disana lumayan euy🤣
+Yg ga masuk akal ambil foto di photobooth, gila 2 foto 350an ribuuu, mending gk diambil lah . . Ga usah mahal2 napaaa 😌
+Oia nonton pertunjukan mermaidnya baguuus tapi ceritanya ga berubah sejak 3 tahun lalu, jadi yang udah pernah kesana bosen sih...
+Sama pas sore maghrib gitu aquarium utama dipake buat private dinner jadiiii ya ga bisa nonton ikan deh kitaaaa .</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSUNSbHNTOXdRRRAB</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>Chulul Fazilah</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>Tempatnya nyaman trs bisa liat kisah mermaid ama show penguin,,
+Cocok buat yg mau liburan brg anak,, Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSUNSLWRhanR3RRAB</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>Kosim Sumarta</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>Sangat nyaman buat main sama cucu weekday, pelayanan tiket ramah dan membantu.</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSURSNmFDZVpnEAE</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>Andi</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>Jadi pilihan Liburan keluarga, dan buat sarana belajar dalam mengenal satwa dan binatang laut. Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSURteE9Ic1hnEAE</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>PanroraBox</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>Konsepnya bagus sekali, ada wisata seperti ini di dalam Mall. Berada di area Lower Mall. Tempat juga nampak terawat. Hanya untuk beberapa hewan yang memang harus kena sinar Matahari seperti meerkat kasian aja jadinya hanya dapat sinar lampu. Untuk harga tiket lumayan mahal. Agak menyesal juga beli tiket premium, karena tidak sesuai ekspektasi saya. Saran saya yang mau main ke sini, beli tiket yang biasa saja dan datang agak siang. Karena animal show lebih banyak di jam siang menuju sore. Saran saya, sebaiknya harga cetak fotonya diturunin. Harganya sangat tidak masuk diakal menurut saya. 400ribu untuk cetak foto. Cetak foto lebih mahal dari pada harga tiket, bahkan lebih mahal dari harga cetak foto di B*li Bird Park yang lebih besar. Saran saya kalau memang ingin banyak yang cetak foto harga diwajarin, lebih baik murah jadi banyak yang minat ketimbang mahal tidak ada peminat untuk cetak, apa tidak kasian sama juru foto dan mesin cetaknya nganggur? Apalagi sekarang sudah ada gawai2 canggih, pastinya pengunjung milih buat foto dan edit sendiri. Harga minumannya juga dibuat masuk akal ya, sekelas ancol yang besar aja tidak menjual teh kot*k semahal di sini. Nyari cuan jangan gitu2 amat lah. Semoga kedepan Jakarta Aquarium semakin baik pelayanannya. Kalau saya cukup 1kali aja ke sini.</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUNoeWY2elR3EAE</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>Muklis Rackman</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>Harga tiket lumayan mahal, tapi terbayarkan dengan biota laut yang ada di dalam, tapi untuk jasa dan foto harga tidak bersahabat, mungkin lebih di hitung lagi untuk harga jasa dan cetak foto, rata2 di tempat wisata lain hanya 50 rb, disini hampir 300 rb 😁 …</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSUQyMExHMXZRRRAB</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>Azqia Oktadini</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>Tempat yang oke untuk jalan-jalan tempatnya nyaman, fasilitas juga oke, berbagai show diadakan selama pergi kesana. Tiket yg reguler juga worth it kok karena sekali jalan2 disana juga sudah cukup krn memang tidak terlalu besar banget yg butuh seharian buat eksplor disana. Ada aquarium besar dan touchpool, ada berbagai satwa lain selain yg di air seperti penguin, binturong, merkat dll. Buat yg bawa anak kecil cocok deh pasti seneng kesini.</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSUR4d05YdG9RRRAB</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>Stevania Togatorop</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>Baru pertama kali &amp; suka bgt sama tempatnya.. Yang belum pernah kesini. Wajib bgt kesini... Lokasinya dekat dari stasiun, yg otw dari stasiun. Tempatnya nyaman + adem. Jenis hewan nya juga banyak.. Thx you jakarta aquarium ❣️ Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSUR4NzlHbDVnRRAB</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>Ema Fatimah</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>Tempat rekreasi keluarga yg bagus dan edukatif. Instagramable dan satwanya lumayan banyak. Keren Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUMtdzh1MEdREAE</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>Sofa Abdul Muiin Multazam</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>Lokasinya berada di dalam mall Neo Soho Jakarta yang berdekatan dengan Central Park dan Mall Taman Anggrek. Lokasinya mudah dijangkau, dekat dengan pintu toll. Neo Soho memiliki lahan parkir yang luas, tetapi sayangnya parkirannya dihabung dengan parkiran apartemen, agak susah mencari tempat parkir yang berada diatas. Kemudian jarak dari tempat parkir ke Jakarta Aquarium juha cukup jauh dan lift letaknya tidak berada di tempat terbuka.
+Disini aquariumnya sudah banyak yang kotor. Baik di dalam aquariumnya ataupun kotor pada bagian kacanya, sehingga membuat kurang nyaman atau tidak bisa menikmati pemandangan hewan-hewan dalam aquariumnya secara baik.
+Koleksi hewan cukup banyak. Baik koleksi hewan air (ikan, mamalia laut, kuda laut dkk), tumbuhan ait dan juga hewan-hewan darat.</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSURCeElIQVpnEAE</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>hajar maulansyah</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>Jakarta Aquarium &amp; Safari lokasinya di mall Neo Soho
+Tempatnya nyaman dan cocok untuk mengajarkan anak2 belajar tentang satwa air.
+Koleksi ikannya cukup lengkap.. Mulai dari ikan air laut hingga air tawar. Tempatnya ramah juga bagi yg mau bawa stroller.
+Anak2 juga dapat berinteraksi dan memegang  ikan di touch pool, bisa juga foto dengan burung dan juga berinteraksi dengan pinguin dijam tertentu.
+Ada juga pertunjukan theatrikal putri duyung dan wahana 5 dimensi.
+Anak2 sangat seneng.
+Enaknya kalo laper kita tinggal keluar dan makan di mall.. Udah kenyang bisa balik lagi.
+Cmn menurut pendapat kami dari sudut pandang orang dewasa kurang lengkap saja koleksi hewannya, lebih lengkap dan gede Sea world di Ancol. Mungkin karena lokasinya di dalam mall jd agak susah dlm penataan lay outnya.
+So far.. Jakarta Aquarium bagus untuk wahana edukasi anak2</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUNSZ1p2dmFBEAE</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>Surya Simarmata</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>Letaknya didalam mall neo soho cp, bagus, bersih dan tempatnya terawat, sesuai untuk wisata edukasi bagi anak2</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUQtdlpHV2NBEAE</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>Sumayyah Nurul</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>Siapin minimal 150 ribu per orang di weekday dan spare waktu paling nggak setengah hari biar puas kelilingin aquarium ngeliat semua shownya. Menurut aku jakarta aquarium seru dan interaktif banget, guidenya banyak ngasi informasi2 seru! Harapannya mungkin bisa diperbesar lagi biar makin asik!🙆🏼‍♀️</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUQyMUlTaUxnEAE</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>Syaif muhami shidiq (Kukirakira)</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>Bagus, a perfect place to bring ur fams, located inside soho mall didalamnya luas, tiket bisa beli goshow maupun online, lebih baik goshow, kalau may solat atau toilet bisa keluar dulu nanti masuk lagi, ikannya banyak ada binatang darat juga, bisa walk in a tank tapi mesti booking, ada wahana TD kapal selam juga!!! Seru deh ada foodstall didalam dan minuman juga, ada beberapa dekor yang kurang terawat tapinya, but overall this is a perfect place to bring ur fams</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSURCa3NPUmtBRRAB</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>yenny indriyanti</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>Tempat yang cocok untuk ajak anak rekreasi sekaligus belajar mengenai fauna. Hewan-hewannya cukup lengkap dan terawat dengan baik sekali untuk ukuran sebuah kebun binatang. Ada beberapa area untuk kegiatan anak, penjual makanan dan spot foto instagrammable. Sayangnya ga ada mushola didalam area Jakarta Aquarium, harus keluar dulu ke mallnya kalau mau shalat.</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUQyMDh1RlRREAE</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>Reza Ratriadi Agusta</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>Pilihan terbaik untuk mengenalkan dunia air kepada anak. Banyak jenis hewan laut. Ada pula Touch Pool, anak bisa menyentuh hewan seperti bintang laut, hiu, dan ikan pari.. Ada pula berbagai macam pertunjukan animal feeding. Pastikan pelajari jadwal animal feeding, agar bisa menyaksikan setiap pertunjukan Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSUNwMUk3OGd3RRAB</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>Bunda kakan</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>Bagi kita yg suka traveling, pas dtg ke sini . Menurut kita utk harga terlalu mahal. Karena tdk begitu luas &amp; banyak.. petugas di dalam sedikit hanya ada petugas foto ( jd terlalu komersil) .. soal makanan &amp; minumam terlalu mahal (kalah donk harga di bandara) ... Makanan sekalas junkfood dipatok harga
+25-45rb. Mineral 600ml 20rb. Bnr2 kelewatan.. pertunjukkannya gak banyak &amp; mengulang yg itu itu aja.. jd menurut sy gk recommended...
+Ticket dewasa 175k anak2 150k.. dg luas 1hektar. Cm ada 6 pertunjukkan. Yg hanya diulang di jam nya... Terlalu mahal... Semoga kedepan lbh baik lg..</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSUQyek5yZDV3RRAB</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>Zetta Zanetta</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>Kesini pas hari kedua lebaran, walah kirain aquariumnya waw banget buat harga 220k, ternyata kecil2 dan ikannya juga gk impresive, ada beberapa hewan darat tapi kasian krn kandangnya pun kecil dan pasti stressfull krn pengunjung ramai+bising. Tempatnya ngepas tapi banyak lansia di kursi roda sama anak kecil di stroller bikin susah gerak.</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSUNlMHBiVTBRRRAB</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>Fanks</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>Saat beli tiket, anda langsung dapat kartu yang dapat diisi dengan stamp setiap kali menyelesaikan tantangan, dan apabila berhasil mendapatkan kelima stamp tersebut, anda bisa mendapat suvenir menarik dari JAQS.
+Suasana akuariumnya sendiri sangat menarik. Tidak hanya fauna laut, tapi banyak juga hewan2 darat yang dipamerkan di sini. Selain itu, terdapat sesi2 menarik yaitu seperti jadwal pemberian makan hewan2 tersebut. Saya hanya sempat menyaksikan sesi pemberian makan penguin. Penguinnya lucu2 semua wkwk.
+Tempat yang sangat cocok untuk dikunjungi bersama orang-orang tercinta.</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUQ1OXVYTEtBEAE</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>Ircham Ramadhan</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>Tempat bagus, ada pertunjukan hewan juga Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUMtcXRLc0tnEAE</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>Chintya Puspitasari</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>Suka banget sama tempatnya, dekorasinya bagus bgt. Tiap sudut bisa jadi spot foto. Untungnya datang kesana pas weekday jadi ga terlalu rame, dan ga perlu antri mau foto di aquarium tabung nya. Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSUNCc29yWnJRRRAB</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>Bilga Valentino</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>Salah satu tempat yang memiliki daya tarik untuk dikunjungi terutama jika membawa anak-anak. Ditambah ada beberapa bagian yang bisa berinteraksi dengan binatang secara langsung. Tentunya dapat memberikan pengalaman dan edukasi yang baik. Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSUMtODRyVm9BRRAB</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>meylani nur hidayah</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>Asikk bangett, aquariumnya besar-besar dan keren-keren juga ikan + satwa lainnya.. pertunjukkan mermaid nya juga wow bgtt, dari segi setting tempat, effect, dan pemainnya.. n yg wownya ini didalam mall, jadi bisa nge mall juga sekalian😁🥰 …</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUNKejVqdUJnEAE</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>Evelyn Kalyanabudianto</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>Bagus ...memuaskan..
+Tp sayang tempatnya dak segede yang dibayangkan, atraksi nya selalu penuh... Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUN1dmZYX2FnEAE</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>Kevin Saputra</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>harga di sekitar 130 rb per org hari biasa,tp 150 rb kl gapake promo dr kartu kredit/debit,untuk layout room nya cakep,karena ini lebih modern,akrilik megatank dllnya terasa lebih clear dan estetik,banyak spot" foto bagus,beda sama s*a w*rld alias aquarium sebelah yg mungkin koleksi hiunya lebih banyak,tp terbatas untuk spot foto karena gbs deket" ke aquariumnya,akrilik dll nya pun lebih tinggi dan lebih burem,mungkin kuno karena dibangun udh belasan tahun lalu,jd kurang estetik buat foto",disini jg banyak hewan non akuatik,jd gafull smua hewan air,bikin pengalaman jd lebih seru,yg saya suka disini banyak hewan" unik dan langka yg mungkin gaada di public aquarium lain,kusaranin jangan weekend apalagi libur nasional,bakal rame,tempatnya kecil dan kalo rame yg ada susah kebagian spot foto,agak berat jg di biaya kalo weekend mungkin kl sendiri gapapa,tp kl rame" biasanya kebanyakan org berat buat ngeluarin 200 rb lebih untuk 1 org ntr yg ada pas selesai malah bilang "overprice ya,mahal bgt pdhl kecil gini,krg worth"</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSURPc1k2QUN3EAE</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>Antombelink Alzan</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>Salah satu alternatif untuk memperkenalkan putra putri anda tentang biota laut tanpa harus menyelam ke laut. Yg membuat kita lebih nyaman lantaran tempat ini berada di dalam Mall Neo Soho jd apabila lelah dan lapar setelah Explorer aquarium bisa lanjut makan dan berbelanja. Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUNXOV92b09nEAE</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>trulin surbakti</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>Sarana see, learn, and fun yang cocok untuk anak-anak. Ada cerita panggung seperti drama tentang mermaid yang diceritakan mostly menggunakan bahasa inggris. Dan kerennya mermaid actressnya benar-benar berenang dan beratraksi di akuarium. Hampir keseluruhan area gelap sehingga cahaya hanya dari akuarium/spot-spot tertentu saja. Spot2nya juga cukup instagrammable. Oh ya jangan menggunakan flash disini. Fotografernya ramah dan yang saya temui bersedia memotret kita dengan hp kita dan hasil yang menurut saya memuaskan. Namun ada hal yang saya pikir kurang maksinal seperti  kurang luas dan agak pricey. But overall is good. Nyaman dan fun!
+Btw beli tiket langsung di websitenya bisa lebi murah dan ada paket-paketnya.</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSUMyajZtZnZBRRAB</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>Andrianne Agnestia</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>Sukaa bangeett bangeett.. aku kesitu after orang2 buka puasa, jam 8 mlman..dan itu udah sepii..walaupun banyak event feeding yg terlewat tp aku suka krn sepi hahaha. Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSURtNG9hMHdBRRAB</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>Ika Shaliha Oktavia</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>Wahana edukasi yang cocok untuk semua kalangan, apalagi untuk anak perikanan. Berasa review materi kuliah Fisiologi Hewan Air selama berkunjung. Selain ikan-ikan, juga ada beberapa jenis reptil seperti ular piton.
+Di pintu masuk, pengunjung diarahkan untuk berfoto setelah pembelian tiket. Jika mau dicetak, bisa menghubungi petugas. Kalau tidak, gpp.
+Papan informasi sangat menarik, karena dikemas dalam tablet digital. Pada akhir sesi, pengunjung dapat menemukan diagram siklus kehidupan makhluk hidup tertentu dan bisa memberi makan ikan sebelum pukul 18.00 WIB.
+Suasananya tenang dan nyaman. Bisa reservasi untuk fine dining sambil liatin ikan bersama pasangan, dikemas dalam ruangan bersekat khusus.
+Pembayaran tiket bisa melalui debit ataupun cash. Tempat bersih. Pelayanan ramah dan cepat.</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSURlN056aTF3RRAB</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>Nur Aisyiah</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>Tempatnya bersih, ikannya juga bagus2 terlihat sangat terawat dan sehat.
+Lokasinya ada di mall neo soho lantai LG.
+Disini gak cuman ada ikan tapi juga ada reptil, salamander, pinguin dll
+Jenis ikan pari disini lebih banyak dibanding SW.
+Ada pertunjukan mermaid pukul 15:00 setiap hari. Cocok banget untuk ajak anak2 main.</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSUN1MFBfbHJnRRAB</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>Sarah Salsabila Fitri</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>Enak banget kalo healing disini. Semuanya biru tenang dan agak sepi sih pas baru awal buka mall, tapi ya lama2 rame juga wkwk. Paling suka yg aquarium tabung gede itu</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUN1Mi1PTk53EAE</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>G. Garcia</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>Tempat yang cocok apabila anda ingin berlibur sambil belajar bersama keluarga anda. Di setiap akuarium, ada penjelasan mengenai tiap-tiap hewannya.
+Biarpun namanya Jakarta Aquarium, mereka juga punya hewan-hewan lain non-ikan seperti Otter, penguin, meerkat, Lemur, dan Serval.</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSURlOGJYMTNnRRAB</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>Syifa Faradinna</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>wah ini pengalaman yg asyik banget sih, banyak banget yg bisa dilihat disini, spot foto estetik juga banyak, nambah pengetahuan juga, koleksi hewan laut nya beragam banget, ada hewan yg lain juga, it was a really nice experience, looking forward to come here again next time. Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUM1aU9TRUpREAE</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>Hoshiko Yuri</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>Pergi sengaja pas weekdays tepatnya hari senin, ternyata tetep rame banget. Dikira agak sepi jadi enak bawa anak biar gak rame2 banget. Ternyata kayak weekend ramenya, gak kebayang kalau weekend serame apa Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSUNXdzZpUXl3RRAB</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>Fanny Salzabila</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>Kali kedua ke Jakarta Aquarium, harga lebih murah melalui aplikasi dibandingkan beli langsung. Perlu scan dahulu untuk mendapatkan tiket fisiknya, antri sekitar 10-30 menit. Sebelum masuk, staff mengarahkan kami untuk foto dahulu. Staff mengarahkan beberapa gaya, namun tidak menunggu kami semua siap untuk difoto, staff memberikan tiket untuk ambil fotonya di dalam sebelum pintu keluar. Mereka menawarkan beberapa paket beserta frame untuk cetak foto dan mendapatkan soft file foto sekitar 200 ribuan. Saya perhatikan, beberapa hewan tidak ada seperti sebelumnya saya kesini di tahun 2018.</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUNaMWVmVUlREAE</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>Rissa Paundradharma</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>Slalu takjub liat2 hewan laut di Aquarium publik begini. Enaknya ini kaya di Singapore &amp; Malaysia, Aquarium didalam Mall/connected to Mall. Jadi ademmm &amp; selesai tur bisa langsung ke Mall. Mermaid Shownya seru banget, cuma pemain dramanya kurang natural karna lypsinc. Klo dulu kita bebas moto/videoin pertunjukan mermaidnya, sekarang udah ga bisa, dilarang keras udah punya hak cipta.</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSURPejdISWdnRRAB</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>Nadia</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>overall oke bgt karena hewan cukup banyak dan variatif, ada selain hewan air juga.. semoga bisa nambah pertunjukan animal feedingnya.
+untuk tiket memang recommend beli online, saat datang jgn mepet animal show karena sudah beli ticket online pun tetap harus antri 10-30 menit saat cetak tiket karena cuma ada 1 orang yg melayani. mungkin memang jam ramai, tapi jd kurang efektif. kalau perlu sediakan booth untuk print atau ya ditambah personel yg melayani.
+kalau belum sempat datang, pilih tiket regular aja cukup. karena sampai pulang ngga berasa untuk privilege premium.
+untuk wahana 5D kita dimasukkan ke ruangan, nanti lantainya gerak sesuai pergerakan dari video yg ditampilkan.</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUNPNkpMWEt3EAE</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>Wini Eunike</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>Arena edukasi dengan beragam satwa laut maupun darat. Terdapat berbagai acara dan kegiatan yang mengedukasi. Fasilitas umum yang bersih. Harga tiket masuk dapat dilihat melalui website resmi Jakarta Aquarium.</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUR1ODY3ZFZBEAE</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>Reza Zamani</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>Agak mahal tp worth it sih apalagi anakku emang suka banget sm ikan, ikannya cukup banyak dan bagus2...ada experience pegang ikan pari, hiu (lupa jenis apa), ular python dll Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSUR4amNhN2d3RRAB</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>Rodhiatam M.J</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>aquarium di dalem mall, konsepnya unik, tempatnya bersih, koleksi hewan lautnya juga lumayan banyak.. ke sini pas weekdays jadi agak sepi, mau foto-foto juga enak ga perlu antri Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSUMyeS0ySGp3RRAB</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>Nina Mulyani</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>Dulu awal buka sempet ke sini bareng temen. Seru sih, selain liat ikan, bisa coba pegang bintang laut dan timun laut. Tapi sekarang mungkin karena pandemi jadi ditutup, gabisa deh pegang bintang lautnya. Selain banyak spot foto, sekarang ada banyak tambahan spot kaya meerkat, otter, kucing cherval, juga burung dan ular yang bisa dipegang dengan pengawasan staf. Ajak anak di atas 2th juga seru, bisa jadi salah satu alternatif main sambil belajar.</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUNPMTdIYVlREAE</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>Dendy Setiawan</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>Keren banget, ga nyangka ada akuarium besar ditengah mall seperti ini. Biota lautnya sangat bervariasi, dari mulai ikan nemo sampai dengan ikan hiu ada, tiketnya lumayan tp worth it lah.</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUNKNWJfYVB3EAE</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>Octoryna Ayuningtyas</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>Lokasinya di dalam mall Neo Soho, akses gampang. Harga tiketnya bagi saya relatif mahal, tapi mungkin memang maintenance tempat dan satwanya berbiaya tinggi ya. Di dalam tidak hanya ada hewan air, tapi juga ada reptil, serangga, monyet dan lain-lain. Tempatnya tidak terlalu luas, tapi ditata apik jadi kesannya luas. Di setiap display ada penjelasan tentang satwanya dalam 2 bahasa. Petugasnya ramah. Ada toilet dan tempat jual jajanan di dalam (tapi harga tempat wisata ya). Secara umum cukup menarik sih.</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUNwMmVDcVp3EAE</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>echya princesse</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>I love the places. Coba ditambah lagi untuk reptil nya. Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSURtdzRxY2VBEAE</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>Saya ke JAQS, 3 Januari lalu sama mama saya. Sejujurnya Saya sangat sukaa tempat ini, disini kita bisa melihat keindahan bawah laut lewat beberapa aquarium raksasa Dan Ada juga satwa² yg unik Dan dilindungi disini, Ada juga mermaid show yang keren banget. Pokonya recommend banget kesini, but kenapa sy kasih Bintang 4 karena masih Ada kekurangannya sih, menurut sy akan lebih worth it lagi kalau ditambahin terowongan kaca spt di SeaWorld, Dan kalau spot foto di aquarium nya lebih diuaskan lagi, pasti makin oke, biar ga terlalu lama gantian sama orang.
+Itu aja sih dari Saya, untuk staff nya sangat ramah Dan baik banget, untuk htm karena sy &amp; mama sy kesananya masih suasana holiday  (libur nataru) jd agak mahal, tp dekorasi nya bagus bangett.
+Terimakasih</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSURXamRXc3FRRRAB</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>Meilatia Kartikasari</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>Destinasi wisata yang sangat menyenangkan dan menenangkan.
+Meski ditujukkan sebagai destinasi wisata keluarga, namun saya yang pergi sendiri pun tetap merasakan kenyamanannya.
+Kalau kalian senang dengan musik-musik menenangkan, serta suasana yang nyaman, silakan datang pada pagi hari di hari-hari kerja.
+Sebab, pada waktu tersebut, jakarta aquarium relatif tidak terlalu ramai.
+Ada beberapa feeding show (otter, binturong, apalagi ya lupa)... Tapi kesukaan saya adalah aquarium utama dengan manta raksasa, serta hiu.. keren banget bs lihat di depan mata tanpa perlu ke laut lepas (hh sudah pasti daya tariknya berbeda..)
+Oiya, perihal tiket, meskipun sendiri, saya tetap mencoba memesan tiket premium (penasaran dengan 5dnya).
+Awalnya cukup ragu, bakal worth-it atau tidak, sebab beda tiket regular dan premium hanya di pertunjukkan tsb (+ bisa bolak balik masuk JAQ, yg mana ngga ngaruh buat saya 😂).
+Ternyata........... 5dnya memuaskan 😙✨ wajib dicoba sendiri 😬😬</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSUN1azlTTXR3RRAB</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>Khanti Listya</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>Tempatnya bagus, sangat cocok bagi anak anak, disini Anda juga dapat membeli makanan dan minuman yg bervariasi
+Ada pula pegawai yang menjelaskan tentang hewan hewan disini. Selain ikan, anda dapat melihat hewan lainnya seperti kecoa mexico, kadal, tarantula, ular, dll
+Selain itu di jam2 tertentu ada pertunjukan mermaid, pemberian makan ikan, dan anda juga dapat memegang beberapa ikan di kolam khusus
+Pegawainya juga ramah ramah dan sangat membantu.
+Jika anda pengunjung dengan tiket premium, Anda dapat menikmati fasilitas simulator kapal selam.</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSUNSOHB2MjNBRRAB</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>Nany Listyowati</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>Cocok utk keluarga, dan fauna laut yg dipamerkan cukup beragam hanya wahana nya minim dan tiket masuk sedikit pricey. Tapi its a good experience for once in lifetime☺</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSURCaFkyM1VREAE</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>Kartika Rahayu</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>untuk sekedar couple date ya seru sih, cuma emg ga sebanyak seaworld. tp ini worth jg kok krn ga perlu jauh2 ke ancol hehehehe Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSUQyd0oyeTN3RRAB</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>Cherlie W Tauriesky</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>Datang di tgl 2 Mei 2022, pas hari 1 lebaran.. kirain orang2 uda pada mudik atau lg kunjung2 ke rumah sodara buat silaturahmu  ternyata.. tetep aja rame 😂
+Saran beli tiketnya online aja, jd ga perlu antri lagi.. tinggal dtg ke depan foodhall buat cetak gelang tiketnya terus bisa lgsg masuk deh..</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUNGanRHZ0hBEAE</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>Kenrich Mommy</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>Field trip anak sekolah kemari. Tapi waktunya singkat bangettt... Ga puas. Tapi ya lumayan menghibur anak. Anak senang dan Mengajak liburan kemari lagi Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSUNtX3JlYmx3RRAB</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>Novianti Kusumawardani</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>Tempatnya kids friendly, ada jadwal show ketemu binatang juga. Wktu ke sini bisa pegang ular, bintang laut dan pari. Akuarium bulat yg memanjang ke atas very impressive. Lihat pas ngasih makan hiu juga. Tiket masuk cukup mahal, tapi worth it lah. Ada toko suvenir. Bisa dicetakkan foto juga, tp mahal banget</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSURPaXV1aTF3RRAB</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>AANG HARYANTO</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>NEO SOHO_JAKARTA AQUARIUM Wahana Wisata Air Yang Penuh Edukasi.. Kami sarankan untuk memesan tiket Premium sehingga mendapatkan berbagai macam fasilitas seperti menonton pentas mermaid dan 5D animasi bawah lain banyak keuntungan lain.</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSURaNXZUTUpBEAE</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>Tegar Hamzah</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>Tempat rekreasi yang keren dan compact karena bergabung dengan mal. Memang tempatnya tidak sebesar taman safari namun ragam hewannya lumayan unik dan bervariasi. Kedepannya mudah-mudahan tempatnya diperluas dan diperbanyak hewannya.</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSURtLXFic0tREAE</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>Tessa Apriestha</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>Tempatnya bagus, cukup luas. Kami sekeluarga datang sore hari (weekdays), sayangnya karena sudah sore jadi semua show (feeding time) sudah habis, lain kali datang dari siang agar bisa nonton show2 yang ada dsana.
+Mungkin karena pandemi jadi touching pool ditutup saat kami ksana, atau mungkin karena sudah terlalu sore, kurangtahu juga.
+Yang agak disayangkan juga masih ada beberapa pengunjung lain yg berjalan2 tanpa memakai masker, padahal tidak berfoto2 juga. Ya kami cukup was2 karena anak kami masih kecil belum dapat jatah vaksin juga.
+Semoga ke depannya makin baik lagi, makin banyak &amp; bervariasi koleksi binatangnya.</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSURtcXNQQlV3EAE</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>Syifa Rivanda (Rivaa)</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>Tempatnya asik banget, bisa melihat banyak spesies ikan &amp; beberapa hewan seperti ular, pinguin dsb. Cocok untuk wisata bersama keluarga &amp; healing hehee. Untuk tiket lebih murah pesan di traveloka dr harga 150rb (adult) jdi 125rb/orang.
+Disana jg bisa mencoba pegang bintang laut, ular, kecoa madagascar, kadal, dan msih banyak lagi.</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUR1N29QN2ZBEAE</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>Jessica Mangawe</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>better udah pesan tiket duluan, udah lebih murah 20rb-an, nggak ngantri juga.. dtg langsung tuker voucher, bisa dipakai keluar masuk sampai 4 jam ke depan.. paling suka area duduk yg ada diatas akuarium gedenya, bisa lihat ikan hiu, pari, dll seliweran di bawah kita :) pertunjukan putri duyungnya jg keren bgt.. Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSURwX2RubV9BRRAB</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>Destia Pramitah</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>seru tapi rame bgt, tapi harus kesini sih buat ketemu otter 🥰</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSUNaOXJHbnFRRRAB</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>anti ahsanti</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>Menyenangkan dan nyaman kondisinya buat anak-anak belajar mengenal hewan-hewan. Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSURwZ08zWWJBEAE</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>Suci Ekawati Nurcahya</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>Salah satu tempat wisata di ibukota yang layak dikunjungi.
+Bagus. Adeem. Lumayan luas.
+Banyaak sekali ikan ikan di dalamnya dengan berbagai ukuran tank.
+Ada juga hewan lain, ngga cuma ikan.
+Perhatikan jadwal show yang tersedia biar bisa nonton &amp; dapat hiburan tambahan.
+Aquarium ini berlokasi di dalam mall. Jadi pas lapar tinggal keluar &amp; banyak makanan.
+Harga suvenirnya lumayan tapi lucu-lucu.
+Kalo mau foto dan menebusnya siapin dana min. 300 ribuan.</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUN1cDczMEJBEAE</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>Sasanti Meirdana</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>destinasi wisata yang menarik, karena ada aquarium &amp; safari di dalam mall. lokasinya di Mall Neo Soho lantai LG, kalau mau cepat sampai masuknya dari Sky Lobby. harga tiketnya di range 120~200 di weekdays &amp; 140~220 di weekends. jam buka mengikuti jam buka mall. overall, worth the price😊</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUM1aEo3WENnEAE</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>Leonardo Melawi</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>Nyaman.... dan bagus aquarium dg ikan ikan nya Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSURtcXZES25nRRAB</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>Bimantoro Setio Nugroho</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>Pengalaman yang luar biasa. Menarik, banyak ikan dan wahana yang bisa diakses ya. Ada 5D, ada penampilan mermaid juga. Lokasi ada di lantai LM atau bisa masuk dari lantai LG juga. Jakarta Aquarium ada beberapa tiket masuk, kalo reguler tidak dapat mengakses 5D, sementara kalo mau akses 5D yang include sama fasilitas keluar masuk di 4 jam pertama, beli tiket yang premier.</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSURCOWN2cXlBRRAB</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>Rayhan Pangestu</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>Tempat yang sangat edukatif sekali, cocok untuk memberikan pengetahuan lebih banyak lagi tentang informasi dari ikan dan hewan yang ada disini.</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSUMtNmI3cmlRRRAB</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>Danny Okky</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>Tempatnya berada di dalam mall. Htm weekend sekitar 175ribu/org untuk dewasa reguler. Tempatnya keren, disini bisa mendapat pengalaman yang berbeda dari tempat sejenis. Bisa pegang hewan dan melihat waktu memberi makannya.
+Untuk yang belum pernah kemari, mungkin bisa datang 30-40 menit sebelum jam 3.40 sore, supaya bisa melihat piranha dikasih makan.
+Setelah berkunjung, bisa juga membeli merchandise unik dan lucu, cuma harganya cukup mahal untuk yang tidak berkantong tebal</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSURPcHJtRTVRRRAB</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>pramesti wardani</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>Worth to buy, area bersih.. cuma agak ramai karena libur sekolah.. antrian online dan offline lumayan panjang. Recommended show adalah mermaid time.. range harga 175-225rb per orang tergantung reguler/premium.. Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSUQyazdTNGh3RRAB</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>yunan ma</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>Luar biasa! Menyenangkan sekali berada di Jakarta Aquarium. Anak2 senang, wahananya banyak, tidak hanya satwa air, tetapi juga satwa daratnya OK punya. Ada mini cafe yang ramah anak di beberapa spot, jadi semakin betah berlama2 di dalamnya. Jangan lewatkan "Pearl of South Sea Show" yaaa, seru sekalii!!! Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSUQydHNfY3VnRRAB</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>Nadia Agusta</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>Kalau mau puas harus datang pagi-pagi dari jam buka mall.
+Beli tiket online, ternyata tempat redeemnya di luar dekat lift. Lebih baik kalau dikasih tanda supaya orang tau itu tempat redeem tiket online. Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSUMydU1HSW5nRRAB</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>Meyane RDP.</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>pertama kali kesini, baguuuuuuuus spot foto banyaak, menghibur sekali, kalo bawa anak pasti seneng anaknya, tp sayang waktu itu agak buru buru jadi kurang puas foto fotonya wkwk</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSURPNWNHVDhnRRAB</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>Yudha Dirgantara</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>Tempat nya bagus dan terawat. Banyak jenis2 ikan yg ada di sini. Untuk tiket masuk nya relatif ya! Sesuai segmen nya mungkin. Akses jalan ke lokasi juga sangat menarik. Ada jembatan yang bagus bangat untuk spot photo. Lampu gedung nya juga bagus bangat kalau malam hari di jembatan nya. Berasa kota besar nya.</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSURPazRQOVp3EAE</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>budi man</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>Harga sesuai tempat, tapi aquarium nya kurang variasi, harga tiket Juli 2022 dewasa 150k, anak diatas 7tahun dianggap dewasa. Jadi we di hitung dewasa semua, hahahaha</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSURwMXRfTzh3RRAB</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>Khoirunnisa Nurjanah</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>unpleasant memories!
+dengan harga segitu nggak cocok banget, apalagi di dalamnya ada yang jualan dan berisik bgt kayak di Mangga Dua!
+hewannya banyak yang sendirian dan tempat mereka sangat-sangat kecil! 🥲 lebih baik liat pameran hamser, ular dan kelinci di mall-mall dimana tempat mereka itu sangaaaaaaaat luas! liat deh, ada piranhanya ada yang sakit, dan kucing afrikanya muter-muter doang (seems depressed), ditambah kaca-kaca hewan sangat kotor. kasihan mereka. don't ever come to here! I swear, lebih baik uang segitu dipake ke Seaworld langsung 🥲</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSUNSd09hSWxRRRAB</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>Ammara Dalia</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>Dewasa reguler 150rb
+Dewasa premium 200rb dpt melihat 5D
+Buat yang mau bener2 nikmatin semua nya, bisa datang jam 10, karena mulai jam 11 ada feeding Otter, dan feeding binatang2 lainnya
+Buat yang mau nonton mermaid bisa dateng siang karena jadwal penampilan ada jam 13.00, 15.00, dan 17.00
+Menurut aku sih worth it, nanti juga ada semacam kartu buat misi mengumpulkan stampel dari megang ular, serangga, bintang laut, dll, nanti bisa ditukar hadiah di ujung perjalanan</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSURaOVlleHpBRRAB</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>Andreas Kristiadi</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>Tempat baru untuk rekreasi keluarga sekaligus santai di mall Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSURCdkp6ZTV3RRAB</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>Dewi Masita</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>Aquarium Jakarta letaknya di Neo Soho jl S.Parman. jadi jika kalian pakai driver online tujuan bisa pilih Neo Soho.
+Ada 2 jenis tipe pemesanan tiket on the spot dan online.
+Online sekitar 120-150rban kenapa beda krna beda aplikasi beda penawaran gak tau kenapa 😅
+Kmrn pas mau coba beli di app traveloka itu sekitar 120rban tp abis 🥲 jd belinya lewat Blibli itu dapet hrga 150rban klw gak salah (bisa juga cek di app lain)
+Oia sebelum masuk wahana nanti kita diminta foto dulu di spot yg disediakan untuk foto gak bayar. Tp yang mau hasil berupa cetak nya itu ada 2 paket 230-250rban tergantung ukuran foto.
+Dan sedihnya soft filenya gak bisa diambil kalau kita gak cetak foto krna udh sepaket 😭
+Untuk tempat : bagus banget, sangat recommended untuk dikunjungi, sangat edukatif untuk anak" bermain dan belajar, worth it lah pokok nya
+Oia. Di jam" tertentu sekitar jam 2 dan jam 5 akan ada drama musikal. Dari semua spot hanya drama musikal yg tidak diizinkan untuk di rekam atau difoto.</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSURPbDQ3aTR3RRAB</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>awan tomat</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>Harga sesuai tempat, harga dewasa 150k, anak2 diatas 7tahun dianggap dewasa. Aquarium nya kurang banyak, ya mungkin namanya juga di mall jadi ya lumayan lah. Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSURSX2RxVHlRRRAB</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>Rabi'atul Adhawiyah</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>Tempat nya bagus ..tapi kalau menurut saya harga tiket masuknya mahal.. Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSUN1d2Yycl9RRRAB</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>Dini Farid</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>Its an OK experience lah. Ikannya dr berbagai jenis. Terdapat juga bbrp flora dan fauna dr bberapa ha itat lainnya. Datang pas weekdays lebih enak karena lebih sepi. Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUNKNTZIc1BnEAE</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>Apri'e Tan</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>Bagus aquarium nya, ikan dan species lainnya beragam, bahkan ada reptile dan kecoak segala. Satu hal aja yang kurang yaitu lorong food stall di area kolam piranha terlalu crowded, jadi berasa seperti dapur umum. Sayang aja, asap dan aroma nya pada kemana mana, kaya popcorn dan jajanan Snack yg dimasak.
+Di luar itu sudah bagus kok,
+Staf ramah2, kalau beli tiket premium bisa bolak balik keluar dan masuk, dan ada game tiki tos yg bisa kita ikut tanpa membayar lagi (lumayan bisa dapet hadiah)</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSURKZ2NxQVNREAE</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>VIELA 07</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>Bagus buat akhir pekan bersama keluarga,,
+Tiket mahal harusnya foto2 sebelum masuk di kasih soft copy nya gratis... semua di cuanin belum lagi di cetak beberapa lembar aja mahal banget sampai 350rb 😀</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSURKd3BhNUlBEAE</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>Thea Damatriyani</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>Cukup menyenangkan. Didukung dgn sarana Mall yg baik, ada fasilitas peminjaman kursi roda untuk lansia 👍🏻Namun utk reedem tiket online, tetap mengantri di antrian yang cukup mengular. Mungkin ke depannya bisa lebih efektif.</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSURXaHBfN3R3RRAB</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>Yurni Sherliati (Sherly)</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>Sebagai salah satu tempat wisata, tempatnya di dalam mall, bisa jadi alternatif yang bisa dikunjungi jika bosan mengelilingi mall. Banyak yang bisa dilihat selain binatang laut, ada juga binatang lainnya walaupun tidak sebanyak di kebun binatang 😁 tapi menyenangkan bisa mengunjungi Jakarta Aquarium dan safari, recommended place....👍🏻👍🏻👍🏻</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSUNwMnBxbHJBRRAB</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>AROUW</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>Datang saat hari sabtu jam 17.00, harga tiket Rp165.000,-
+Masuk tanpa antri, tetapi kondisi pengunjung di dalam lumayan ramai walau masih kondusif.
+Overall bagus, tapi ternyata lokasinya relatif kecil.</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSURXOTctM3RnRRAB</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>Yanny Khoe</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>Bagusss....entertainnya smakin bagus, apalagi skrg ada pakai kostum jg
+Karyawan2nya jg ramah, byk knowlege, jd wkt kita tanya2 bener2 bs jwb dan bs menjelaskan dng jelas 🥰
+Toilet di dlm jg lbh bersih, lbh bersih drpd mall🙈
+Koleksi satwa2 darat smakin bertambah, hope kedepannya ada bertambah lg koleksi satwa2nya jg ikan2nya hehehe
+Sukses trs jkt aquarium🥰</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSURCanI3Sl9nRRAB</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>Muhammad Riza Hafizi</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>Tempat yg menarik untuk menghabiskan liburan bersama keluarga, karena tempatnya bagus untuk edukasi anak-anak. Belajar mengenal jenis-jenis ikan dan beberapa binatang yg lucu dan menarik.</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUNoaVp1aVBnEAE</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>Hudaifa Nurul</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>Letaknya di paling bawah Neo Soho. Tempatnya bagus, informatif, tapi karena weekend jadi padat pengunjung.
+Bagus juga untuk wisata edukasi anak. Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSURKa0wyZXp3RRAB</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>Fania Nur Azizah</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>Mengecewakan, beli tiket premium rasa beli reguler. Sebagian Plus2 untuk premium juga bisa di nikmati oleh reguler, penjaga pintu pinguin sombong dan gampang ngeremehin orang. Apalagi tukang resto nya songong banget muka nya. Kaya ngeremehin banget cuma untuk duduk makan dan lihat pinguin Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSURlN2NqUnRRRRAB</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>Nurul Rizqie</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>Berkunjung di hari Selasa sekitar jam 16.00 WIB, beli tiket langsung disana tanpa antrian kalo ga salah sekitar 125.000 an, kalo mau premium (waktu itu pas ada pertunjukkan simulasi kapal selam) sekitar 200.000 (cmiiw).. Tempatnya bersih bangeeeet, stafnya juga ramah mulai bagian tiket, entry gate, staf yang didalem juga ramah semua.. oiya,awal masuk akan ada foto yang bisa diambil waktu di pintu keluar tapi kalo buat saya lumayan pricey,hehehe (sekitar 250.000 dapat 1 foto dicetak plus ditaro di semacam single album JAQS gitu).. beberapa hewan bisa dipegang dan didampingi staf dari JAQS nya, kalo pas saya masuk bisa pegang ular phyton albino, bintang laut, kecoa Madagaskar, sama 1 hewan lagi tapi lupa namanya..</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSUNocVlpci1RRRAB</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>Bima Achmad</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>Sangat menarik, bersih, meski tidak liburan tetap ramai, banyak booth, ikan cukup lengkap, ada hewan2 selain ikan</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSUQtdUplTnlBRRAB</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>Jennita rorong</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>cocok dgn keluarga,  temptnya adaa beberapa show nyaa jamnya. bukan sampei jam 8 . tiketnya 180k.</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSURaLW9HTHZBRRAB</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>Will Yanto</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>Bayar 265rb untuk cetak 1 foto dan semua file foto2 (12 file) yg katanya bisa di download di aplikasi. Tapi ternyata yang diupload cuman 1 file yg sudah dicetak sebelumnya. Saya email tanyain tidak direspon.</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSUR4OUsybmt3RRAB</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>Henny Octhariyanthy</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>bagus tempatnya seru dan keren banget atraksi mermaid, bisa diving wow amazing Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUNlcjRpZ1FREAE</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>Made Sandya Devananda</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>Tempat rekreasi yang menyenangkan pelayanan ramah, banyak satwa selain ikan juga ada mamalia dan reptil. Tempat bersih dan rapi</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSURSeVA2SUhnEAE</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>Jimmy Fu</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>Anak2 pasti suka kesini. Bisa melihat macam2 ikan dan beberapa hewan kecil. Kesana pas ada promo kartu kredit tertentu juga. Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSUR4Z2ZlcTJnRRAB</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>Efrin Riyadi</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>Baru pertama kali kesini &amp; top banget tp tiket lumayan mahal. Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUNPcE5xUE9nEAE</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>Dariyati Colection</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>Saya sangat senang mengajak keluarga...banyak hiburan yg menyenangkan  tambah pengetahuan tentang satwa air tawar , laut  dan lainnya mendidik juga</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSUNwZ0pqMnh3RRAB</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>liza heriani</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>Tempatnya luas, dingin, tapi para petugasnya mostly gak friendly. Trutama di    tmpat pmbelian merchandise foto. Sudah mahal harganya, di bohongi pula di bumti pembyrannya yg sy ketahui pas sampai rmah. Pantas saja ptugas tsb melipat bukti pmbyran itu. Trnyta dibwhnya ada harga pmbelian fiktif</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSUNwMEliU3l3RRAB</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>V.2</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>Tempat rekreasi yang sangat menarik di daerah Jakarta Barat, tempatnya tetap bersih meskipun banyak pengunjungnya, binatangnya juga terawat, letaknya juga sangat strategis karena dekat dengan Mall Central Park yang selalu banyak event menarik jadi tambah ramai pengunjung nya, tempat parkir juga luas. Konsep Aquarium nya bagus dan aman</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSURtZ3B2YnNnRRAB</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>Shalavi Dhuha</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>Seru banget si kesini, suasananya tenang, tempatnya nyaman, ikan nya juga lucu2, bukan cuma organisme laut aja si, ada reptil juga disini..cukup luas walaupun ga luas2 banget, aesthetic sekali tempatnya. Posisi Jakarta Aquariumnya di NeoSoho CP lupa lantai berapa, tiket masuknya 150-175an kynya weekdays-weekend pasti harganya beda. Tapi lumayan worth it lah💯🥰</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSURtdDZxSVZ3EAE</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>Selvia Suryadinata</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>Aksesnya gampang banget si buat kita yg tinggal di luar wilayah DKI tinggal lewat tol terus SMP. Harga jg ok. Cuma sayang tdk ada terowongan ikan yg besar. Kita beli yg premium. Sebenernya yg reguler jg uda cukup bedanya bisa akses keluar masuknya aja yg bisa beberapa kali 😉 …</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUMtcE5heU1nEAE</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>Ahyan Fuadi</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>Cara baru menikmati indahnya kehidupan laut ada disini. Jakarta Aquarium!! Ada pertunjukan memberikan makanan pada ikan di dalam aquarium nya di sore hari, jadi ini waktu terbaik jika mau berkunjung.
+Menghadirkan banyak binatang laut seperti ikan pari yang besar, bahkan sampai ikan piranha. Ada cafetaria nya juga jika ingin bersantai sejenak. Dan jangan lupa untuk mengambil oleh oleh ya berupa foto kenang-kenangan saat akan meninggalkan lokasi</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSURKbDVhcFRREAE</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>Nadia Anasthasia</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>Hewannya bertambah,.ini yang ke 3.kalinya,tapi sayang aquarium yg lorong terakhir ditutup 3/4 ditutup oleh papan saat kesana karena ada yang booking makan malam di dalamnya sehingga tdk bs menikmati bagian akhir . Rasanya mengecewakan,.seharusnya jika mau menambah pemasukan kantor, jangan menganggu bagian hak pengunjung lain.</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUNwMUxib0lBEAE</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>Fathi Fawwaz</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>menurut saya tiketnya masih terlalu mahal, karena aquarium dan ikannya tidak sebesar dan sebanyak yang saya kira Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUR4bXN6NWJ3EAE</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>hendy wang</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>Kids love it! Banyak pertunjukan. Tempatnya juga bersih dan banyak hewannya. Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSURKeE1LUlBnEAE</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>Maghfir. Rosyi</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>Bagus banget, banyak sekali ikan² cantikkk, pertunjukan putri duyungnya juga bagus sekali Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSURPNzdpQS1RRRAB</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>Hiya Ridha</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>Tempatnya cukup bagus ya untuk ukuran "aquarium" di dalam mall. Hanya kalau saat weekend atau high season/libur nasional menjadi sangat sempit dan padat sehingga kurang memuaskan. Overall it's nice to spend your time with family, friends, etc here ^^ Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSURSOV8zTGZBEAE</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>Rudy Chandra</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>Banyak jenis ikan hias, tempatnya bagus..</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSURSb3Q3NUp3EAE</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>Rino Dwiyanto</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>Disaat high season tidak ada pembatasan pengunjung, petugas pun terlihat sangat tidak siap menghadapi lonjakan pengunjung....
+Price to satisfaction 1/5
+Aquarium 3/5 Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSUMtN19LXzRnRRAB</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>Unknown User</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>Cantikk. Cocok untuk date atau berkunjung bareng keluarga. Selain hewan laut, juga ada beberapa hewan darat yang unik-unik. Ramai juga sih, tp masih terkondisikan. Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSUNwZzZUNmxBRRAB</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>bunga pramesti</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>antri tiket masuk on the spotnya di hari weekend lumayan panjang. jadi lebih baik beli online. aquariumnya bagus, bersih. pertunjukan penguinnya sayang banget harus gabung sama restoran, jadi banyak pengunjung yang gak bisa nonton. makanan didalam mahal mahal banget. Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSUNlcXRTdHlRRRAB</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>Cerita Mamayesa</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>Salah satu destinasi penghujung minggu yang tepat untuk keluarga, apalagi anak-anak.
+Jakarta aquariun safari sangat penuh dengan pengetahuan tentang hewan-hewan bawah laut, juga hewan darat. Harga tiketnya pun worth dengan semua yang ada di dalamnya Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSURoa3JQTDV3RRAB</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>reni supartika</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>Keren sih ini tempatnya, aquarium besar di dalam mall waw, tiket masuknya juga wow karena datangnya sore jadi gak dapat show apa2 hanya liat2 aja koleksi, cuma lumayan lah harga segitu emang kalo di mall Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSUM1d1pTc25RRRAB</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>Indah Retno</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>Baguuuuuuuus, tapi penuh mulu jadi kurang menikmati, ehe.
+Better beli tiket online, kalo offline antriannya panjang.
+Binatangnya juga banyak, atraksinya juga lumayan banyak tapi penuh juga.</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUNGMWQ3N1VnEAE</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>zahara ahyesa</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>Suasananya nyaman, bersih. Tapi tiketnya terlalu mahal sdg apa yg di dapat dari sana. Tidak terlalu luas Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSURPcHV5QUR3EAE</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>Wenny D</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>Rame bgt musim liburan sekolan, antrian tiket offline &amp; online tetap panjang. Menurutku tiket reguler &amp; spesial sama aja cuma beda di 5D &amp; bonus makanan &amp; voucher.
+Tempat nonton mermaidnya menurutku layar yg dipilih terlalu kecil dengan pengunjung sebanyak itu. Ada 2 kaca yg bisa dilihat dari samping tapi mermaidnya ga ada satupun yg datang ke sana.
+Sarana ikannya bagus bervariatif.
+Ada jual makanan bertema Jepang &amp; minuman juga di dalam.</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSUNoNUpfT2dBRRAB</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>Helmi Ariwibawa</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>Banyak hewan yg baru dilihat dan banyak hewan unik. Petugas ramah. Tempat bersih. Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUNCOUtDVlBnEAE</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>Eka A</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>Aquarium Jakarta yang berlokasi di Neo Soho. It was amazing, pengalaman sensasi berada di dalam aquarium besar. Mata sangat di manjakan dengan melihat berbagai macam Ikan . Suhu dalam ruangan tetap sejuk walau pengunjung lumayan padat. Anak anak happy banget di ajak kesini karena ini juga merupakan Wisata edukasi ya. Harga tiket cukup pricey ya untuk di Weekdays Dewasa reguler Rp. 150.000 but worth kok .</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSUNCNTlybzFRRRAB</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>nty nainggolan</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>Bagus,hewan2nya jg menarik Dan byk yg ga sama dng tempat lain,Jd senang aja liatnya Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSUQtNUk3WnBBRRAB</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>fahrul ahmad</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>Lokasi pinggir jalan utama.. Berada dalam mall soho.. Area parkir tersedia baik motor maupun mobil.. Ruangan ber AC jadi aman dan nyaman membawa keluarga dan anak kecil.. Banyak ragam jenis hewan yang hidup di air maupun di darat.. Sebagian besar yg hidup di air.. Karena tempat ini berada dalam mall.. Setelah keluar dr area ini kita bisa kuliner dengan berbagai macam pilihan makanan yg berada dlm mall tsb.. Bagus suka..</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSURKck9Ya3p3RRAB</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>Dwimora Efrini</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>Seru sekali, our 1st time in here, anakku terkesima sama show mermaid nya sampai mau nonton lagi 🤩</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSUQtd1pIVXRRRRAB</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>kue bolu</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>Menarik bgt tempatnya.. walaupun nggak terlalu luas tp bnyak yg bisa diliat.. cocok bgt bawa anak2..
+Cuma nebus fotonya lumayan mahal 😅😅 trus di dlm ada toiletnua jd jgn khawatir.. klo bisa pas kesini perhatiin jam2 ada show atau feedingnya biar nggak ketinggalan acara serunya 🥰🥰🥰</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSURlNTlIWldBEAE</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>Sheilla Fairuzia</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>Fauna lautnya lumayan beragam, ada beberapa yang fauna darat juga. Bagus banget buat edukasi atau rekreasi, ada touch experience juga. Hampir semua tempat bisa jadi spot foto bagus. Tempatnya enak sih, di dalam mall juga jadi bisa sekalian. Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUNGbWVlSWNBEAE</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>Ridnia Nur Istiqomah</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>Salah satu tempat hiburan yg ada di Neo Soho.
+Salah satu aquarium indoor terbesar di Indonesia.
+Salah satu hiburan yg cocok untuk segala umur.
+Yuk dicoba ..... Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSURadjY2b0NnEAE</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>Andreas Adrianto</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>Recomendedddd... harus kesini kalo k jakarta. Aquarium di dalam mall. Luar biasaa. Show ny juga semakin upgrade,thn lalu ksni. Meskipun sama alurnya tetapi efek dan kualitas semakin mateng.. Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSURoaDhPZ1R3EAE</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>BeWee</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>Lumayan. Di tengah padatnya mall Jakarta, isinya lumayan juga. Cons nya.. petunjuk arah buat yang g biasa ke sana ruwet. Flow pertunjukan juga ga smooth dan terkesan membingungkan, sampe pas feeding jam 16 , pinguin cuma bisa dilihat dari restoran, yang aksesnya harus mutar keluar dulu.. bukannya termasuk part of the show... Rating terburuk sih., Dengan 1jt an tiket berempat cuma jalan jalan segitu aja..</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSUNKbXBXNnh3RRAB</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>evandriya cahasta</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>cocok bgt buat yg punya anak kecil atau pasangan buat dateng kesini Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSURPdnVpQm1RRRAB</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>ika puspita sari</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>Tempatnya bagus, binatang lautnya byk selain itu beberapa binatang lain kecil2 dan unik  jg ikut melengkapi. Sayangnya saat liburan sekolah sangat ramai luar biasa, Ac juga jadi berkurang dinginnya. Ketika keadaan sangat ramai juga jadi sulit melihat pertunjukan hewannya.</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSUNPbi1tSDdnRRAB</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>Aron Suhartono</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>Aquarium didalam mall, bukan aquarium sh jadinya, laut didalam mall. Lebih mudahnya masuk turun kendaraan di capital soho. Sangat menyenangkan berkunjung bersama keluarga dan sahabat, ada juga makan2 ringan didalamnya, saat keluar bnyk souvenir yg dapat dibeli untuk di bawah pulang.</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSURSdnVmMlNnEAE</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>Ahmad Iday Hidayat</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>Tempat yang bagus untuk mengenalkan binatang laut dan lainnya kepada anak kecil. Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSURPemEzUEh3EAE</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>PK JTN</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>Tempatnya bagus, penuh dengan hewan2 laut dan bbrp mamalia dan sejenisnya. Masuknya meskipun sdh beli tiket online, tapi tetap antri.
+Antara yang premium dan reguler hanya di bbrp spot. Buat yg belum pernah ke seaworld ancol atau mau iseng berkunjung boleh juga.
+Mungkin wahana untuk yg pemegang tiket premium ditambah atau diberikan merchandise gratis,  krn sedikit kurang memenuhi ekspektasi apabila membeli yg tiket premium. Terima kasih.</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSURPN191bXRRRRAB</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>Mushlih uddin (Muslih)</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>Pengalaman baru bersama keluarga dengan mengenal berbagai ikan laut &amp; air tawar serta satwa khas Indonesia, tempatnya bersih &amp; nyaman Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSURtamN6TU5BEAE</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>Asri Kamilah</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>Tempatnya bersih, pelayanan ramah, banyak atraksi satwa. Paling seru parade pinguin dan mermaid show. Namun tempatnya tidak terlalu luas, dalam waktu beberapa jam saja semua bisa dijelajahi, sehingga harga tiket jadi terkesan agak mahal. Semoga ke depan semakin diperluas dan koleksi satwa nya bisa makin banyak</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSURXNEtTUmdnRRAB</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>Lutfiah Luciana</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>Tempat yg bagus untuk anak2 mengenal ikan dan satwa ini seperti mini zoo.... Ada nya di mall dalam kota. Setelah lelah keliling di aquarium, keluar banyak tempat makan Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSURCcl9hMHVBRRAB</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>Yen Yen</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>Akhirnya kesini juga!! Tempatnya bagus bangett hewan nya juga lucu sayang datengnya udah malem jadi udah gak ada show nya, tapi tetep menikmati sih, karena hari kerja dan udah malem juga sepi. Recommended banget buat healing, bisa duduk lama lama disini liat aquarium rasanya tenang banget 😄</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSURKcVBfd29BRRAB</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>tifani hermawan</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>Tempatnya nyaman, bersih,,
+Petugas ramah</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSURXcGNlVXd3RRAB</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>Abeth Chann</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>Tempat yang asyik untuk menjernihkan pikiran dengan melihat ikan-ikan dan terumbu karang serta jenis hewan laut lainnya. Suka tempat ini, harga tiket masuknya :
+Weekdays :
+Regular Child : 115.000
+Regular Adult : 150.000
+Premium Child : 150.000
+Premium Adult : 200.000
+Weekend :
+Regular Child : 150.000
+Regular Adult : 175.000
+Premium Child : 175.000
+Premium Adult : 225.000</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSURSelptakRnEAE</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>Esa Putra</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>Tempatnya bagus di dalam mall, dan bisa aqua trekking Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUM1eFBmWEpnEAE</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>Emeilda Daniati</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>Cocok untuk tempat edukasi mengenai satwa Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSURPM01XMk1REAE</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>Fauziyah</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>Ternyata di dalam mall ada aquarium yg cukup besar ya. Menurutku tempatnya oke sih, ada 2 lantai &amp; sering ada pertunjukkan di lantai yg bawah. Variasi ikan lumayan banyak, dan ada touch pool juga jadi klo pengin pegang bintang laut atau ikan pari bisa loh. Biaya masuk kurang paham ya, tapi di atas 100 ribuan si. Klo weekend rame bgt, kurang bisa nikmatin huhuu. Oiya di lantai bawah ada beberapa stand makanan juga, jadi klo cape bisa istirahat dulu sambil ngemil hehe</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUNCX0pMTVdnEAE</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>Lisa Ariani</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>Tempat edukasi yg baik buat anak2… lokasi didalam mall. Jadi lebih nyaman buat keluarga berkeliling</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSUNPaWN2NHl3RRAB</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>Cheonsa Cleon Deananta</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>Seruuu banget...😀😀 anak2 sangat puas,semua show di ikutin dan memdapat kesempatan untuk memegang/foto2 sama binatang2 na🤗🤗</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSUNoelptUXBBRRAB</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>Rangga Afina</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>Tiket masuk udah lumayan mahal
+Beli cemilan di dalam sangat mahal
+Belum tempat makan nya harga diatas 50 utk makan berat (ini pun bukan nasi ) klo nasi 150an
+Blum harga cetak fotonya ga bersahabat (200 - 400rb) minta file mentah ga boleh klo mau dibayar 50rb oke lah
+Oh ya terutama di bagian tiketing ada yang ga ramah cuek nunggu beberapa menit gara2 beli tiket online
+Total habis 800rban cuman kesini doang
+Buat saya not recommended</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUN1d3RlQlh3EAE</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>Kuncoro Renaldy Surya</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>Buat tempat hiburan di Jakarta dan posisi nya di dalem mall termasuk bagus tapi sayang ngantri banget kalo weekend 😣 …</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSURKNkxUU21RRRAB</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>Diana Padyastuti</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>Tidak sebesar Sea Worldnya Ancol, tapi kalau mau ngajak anak lihat kehidupan ikan di mall, ini jadi pilihan. Cuma sejujurnya dari sisi harga dibandingkan pengalaman yg didapat, saya masih lebih suka sea worldnya Ancol Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUNXbkpIVVRnEAE</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>Kitin nm</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>Lokasinya didalam mall neo soho sebelah central park, tiket bisa dibeli on the spot atau di traveloka juga bisa, kadang ada promo2, tapi trlalu kecil menurut aku tempatnya, tapi ok lah !!!</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSUQyeU91dGhnRRAB</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>Joko Tulus M</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>Untuk keluarga tempat ini disarankan, sebagai alternatif ke Ancol...hanya saja kalau parkir di neo soho harus sip kondisi kendaraannya..parkir langsung naik ke L4 tanpa berhenti...jadi kalau rame antri di tanjakan...</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSUMyNk5uUzNRRRAB</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>Kristianto Dwi Raharjo</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>Tempat yg menarik dan menyenangkan untuk berakhir pekan bersama keluarga, cocok untuk si kecil yg baru mengensl binatang, areanya tidak terlalu luas tp satwanya lumayan lengkap dari darat, air tawar, juga air asin. Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSURKb2VYYktnEAE</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>Ading F '85</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>Saya berkunjung ke Jakarta aquarium beserta keluarga hari  minggu, beli tiket online, antrean untuk menukar tiket +/- 10 menit, masuk lancar gak ada antrean,  tempatnya di mall soho, Saya mengira ada terowongan aquarium ternyata tidak ada, tapi bagus untuk edukasi. Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSUNPd3V2dTFBRRAB</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>MsCotoholic</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>Gak usah jauh-jauh ke SeaworLd kaLau cuman mau Liat-Liat Aquarium di daerah Jakarta, datang saja ke Neo Soho CentraL Park. Nah di daLam Neo Soho CentraL Park ada tuh Jakarta Aquarium Safari.</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSURoMG9TNmlRRRAB</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>Arwani Muhamad</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>Tempat yg menyenangkan utk jalan2 dan belajar bersama keluarga tercinta</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSURCbVpEUDVBRRAB</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>Renne Andrew Rumengan</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>Tempatnya agak luas dan masuknya tidak berdesakan, didalam Jakarta Aquarium ikan dan binatang banyak...asik deh</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSURKdTRYajd3RRAB</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>Randy Hardinata</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>Buat yang pengen cari tempat yang tenang, menenangkan, rileks dan adem. Apalagi klo lagi ga rame. Disarankan bawa tongsis ya. Oh ya kalau mau pakai jasa foto juga ada, stafnya juga ramah-ramah. Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUN4MDVuclVREAE</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>Heri Kristanto</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>Pertama kali kesini, jauh jauh dr solo pengen lihat seberapa wow lokasi ini. Sebelumnya sempat berpikir kenapa ga sea world, tapi karena anak udah diberi info sebelumnya, akhirnya milih lah kesini. Tujuan utama liat mermaid nya. Show pertama mermaid ga bisa lihat karena pas ada kunjungan beberapa grup. Tapi akhirnya jam 3 bisa lihat mermaid utuh dengan ceritanya. Walau endingnya anaknya takut dan nangis. Cuma layout yg di tampilin di ig beda angle.. Ya sederhana banget dan cenderung tidak tertata. Dan sepertinya tdk ada perbedaan apakah pengunjung premium atau bukan. Semua tumpah ruah dulu duluan.. Utk aneka aquariuk ikannya mnrtku cukup bagus.. Ya cuma rada zonk di mermaid show potts nya. Mgkn next time kita perlu cek sea world buat alternatif lainnya. Keuntungan disini, lokasinya didalam mall. Jadi adem.</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUR4cl8tcVRnEAE</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>OLAF</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>Keren banget sih interaksinya, hanya saja makanan dan minuman tidak boleh bawa dari luar, tapi yang didalam harganya uwaw, ex: air mineral yang ada manisnya 600ml 20k :) Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUNoazVuOVZREAE</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>Patricia Angelina</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>LUCU BANGET TEMPATNYAAA AAA, suka banget, ini tempat sbnrnya cocok banget buat ngedate or bawa anak kecil ato buat org yg cinta binatangg hehe Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSUNCbjdPYWl3RRAB</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>Dwiputrabayu</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>Tempat ini luarbiasa, menyuguhkan tidak hanya binatang  air laut maupun air tawar.  Melaknkan hewan hewan unik lainnya. Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUNPemNpbEJBEAE</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>Lea akira</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>Ramah utk anak2. Menyenangkan. Udh 2 x kesini. Utk hibur anak2 aja. Binatang bagus2 terawat hehehe</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSURKcEtxem9BRRAB</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>niza kurnia</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>Tempat seru buat liat berbagai macam hewan laut Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSURPckx1c1NREAE</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>Sarah Muthi'ah</t>
+        </is>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>Tempatnya bagus untuk jalan2 bareng keluarga ataupun teman2. Informasi ttg satwanya sangat interaktif karena disediakan layar berisi info satwa yg dpt dibaca. Spot foto juga bagus. Saran, baiknya datang pagi2 supaya lebih puas lihat2 satwa disini karena diatas jam 11 sudah ramaiiii. Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSUQyaW9PT2pRRRAB</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>Agus Bae</t>
+        </is>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>Tempat rekreasi keluarga didalam kota
+Lokasinya  mudah dijangkau di Jl. S.Parman Jakarta Barat.
+Dekat Taman Anggrek dan Podomoro Land Mark.
+Tepatnya lokasi  didalam gedung Neo Soho Central Park
+Beraneka ragam ikan laut bisa kita saksikan disini ditempatkan dalam beberapa Aquarium besar yang menarik dan indah dilihat.
+Fasilitas umum tersedia tempat makan minum juga tempat solat yang bersih dan bagus.
+Keluarga bisa diajak menyaksikan pagelaran lkan Duyung dalam sajian drama yg menarik.
+Ada Th UIeater 5 Dimensi yang mengajak kita berpetualang dilaut yang dalam merasakan getaran gelombang laut dan olengnya kapal. Pemandangan dibawah laut yang indah.
+Namun disarankan  gambar dilayar diperbaiki agar warnanya lebih jelas dan tajam.</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSUQtaHJDZGx3RRAB</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>Yosua Pratomo</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>spot wisata menarik bagus untuk edukasi anak2 tentang kehidupan biota laut maupun darat.
+mulai dari hiu sampai ke ubur2 ada di sini. selain itujuga terdapat ular python albino, burung, meerkat, dan beberapa binatang lainnya yg bisa dilihat dan diajak foto.
+recommended buat spend the weekend kalau misal gak ada agenda atau buat ngajak anak jalan2 ngliat ikan2an meski di jakarta susah nglihat kehidupan laut. 😁</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUNKX29Ud0hBEAE</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>Annabella Sabilah</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>Gue dateng pas weekend. Rame parah sampe sumpek. Tapi kayaknya kalau dateng di non weekend bakalan better sih. Overall tempatnya memuaskan. Kalau dibandingin sama Seaworld gue sih ngerasa ya lumayan deh. Cuma yang masalah adalah gaboleh bawa makanan dan minuman ke dalem. Sementara harga minuman di dalem mahal bingit. Ya bayangin aja le minerale yang di senayan cuma 5000an, di Alfa 4000an, eh di situ harganya 4-5x lipatnya wkwkwk. Masalahnya kita pasti haus karena untuk menikmati fasilitasnha harus jalan kaki lumayan juga kan keliling tempat seluas itu tanpa minum air.</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSUNCNUlDMHNBRRAB</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>Vv louw</t>
+        </is>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>Mahal…Jadwal feeding ga ada yg sesuai…ga ada atraksi apa”…lack of marketing, communications… very bad…panas, ikan sikit…
+Ga lihat pinguin, ga lihat jelly fish (petugas info kalau jellyfish nya tidak ada artinya lom di stok)… foto nya mahal banget 260k, 1 foto…2 foto 320an… bad service juga,, ga ada penawaran / info ke resto pingoo nya bagaimana… kecewa … paling 1 jam kelar muter😅</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSURCdzl5Ump3RRAB</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>rahmi taufika</t>
+        </is>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>Worth the price in weekdays!!
+Standing applause untuk pertunjukan mermaid nya! Kerrrren dan berkelas bgt kostum2nya! Will definitely visit next time. Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSURPbnEyQVFnEAE</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>Nadine Selena K</t>
+        </is>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>Bagus, bersih, rapi, jenis ikannya banyak, ad bbrp hewan lain jg..</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSUR4LU5qNTBRRRAB</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>Aku</t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>Bagus, terawat, cukup menghibur untuk anak anak. Mermaid show dan pinguin parade nya juga menghibur. Informatif dan ramah staf nya.
+Kurangnya cuma ngga boleh bawa makanan dan minuman dari luar TAPI harga cemilan dan minuman ringan nya ngga sepadan sih sama yg didapat Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUNCNXR5WWJnEAE</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>MAR Danzig</t>
+        </is>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>Tempat menarik dengan berbagai macam hewan yang jarang di lihat. Baik untuk edukasi anak. 5D nya OK banget. Seru. Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSURKcHNtRnZBRRAB</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>Evzen Wisely Xie</t>
+        </is>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>[Bahasa] Keren banget akuarium nya, ada ikan ikan besar nya banyak dan juga ada touch pool nya. Ada jellyfish, Ikan hiu kecil, mermaid show,dan juga ada 5d submarine experience nya.  /// [English]  This place is very cool, it has big fish and also a touch pool! Theres also jellyfish tanks, small sharks, mermaid shows, 5d submarine and much more.</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSURwM19UcTd3RRAB</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>Ainul Yakin</t>
+        </is>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>Nice, ga cuma ada hewan air aja 👍👌</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUMtamFpbFJnEAE</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>Meylinda KF</t>
+        </is>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>Seru, jenis ikannya banyak banget bener2 yg terkecil sampai terbesar adaa!! Banyak pertunjukkan menariknya jugaa ada hewan darat juga, tempatnya enakk bgt pokoknya cocok buat yg mau liat hewan lautt</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSUN4d0lqeV93RRAB</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>denden faturacmand</t>
+        </is>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>Wisata aquarium terbesar di Indonesia dengan berbagai jenis binatang air dan darat..dan sebagai tempat edukasi bagi anak-anak untuk lebih mengenal berbagai jenis binatang... Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSUNCdGVhZWhBRRAB</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>verry Gingerwan</t>
+        </is>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>Terlalu gelap untuk berfoto. Dan tiket Lumayan mahal untuk wahana yg biasa saja... Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUNoaHRLSEV3EAE</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>Vian Pratama</t>
+        </is>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>Kalau mau edukasi anak tentang biota laut...ini tempat yg paling cocok.
+Disini kita juga bisa berinteraksi langsung dengan beberapa hewan.
+2x berkunjung kesini ..anak2 tetap suka. Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUNwemN1Z0xREAE</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>Nur Muhlis</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>Experiencenya bagus, tapi agak mahal ya tiketnya 😂 …</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUNGM2VUY1RBEAE</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>satria satya nugraha</t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>Seru untuk ajak keluarga bermain, lebih baik ke sini saat weekday biar ga terlalu rame Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSUR4MHJIRV9BRRAB</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>ade meidian malik</t>
+        </is>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>Cukup bagus dan beragam untuk aquarium indoor. Cocok untuk bawa anak Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSUN1bE9TNjFRRRAB</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>Dwi Febri Novita</t>
+        </is>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>Kebetulan dapat kesempatan buat masuk kesana. Ga nyangka bakal takjub banget begitu masuk dan lihat apa aja yang ada di Jakarta Aquarium. Selain ada ikan-ikan yang beraneka ragam, ada pinguin, reptil, juga hewan mamalia lainnya. Ada mermaid show juga cuma ga sempat nonton karna sibuk keliling liat" yang lain.</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSUNwOWJfVXNnRRAB</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>monique Prambanan kencana</t>
+        </is>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>Tempat rekreasi dan edukasi yg baik untuk anak2 Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSUNKNk1IVnJBRRAB</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>Sirahmah</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>Sebelum kesana pastiin dulu jadwal atraksinya jam berapa aja. Kesana di jam 11 an juga bisa ko. Bener-bener recommend klo mau wisata bareng anak.. Enak, adem &amp; luas.
+Beli tiketnya online aja karna bedanya lumayan 🤣</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUNoemFhQUhREAE</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>Untari Yani</t>
+        </is>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>Tempatnya bagus nyaman anak2 pada senang sekali Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSUQtLWV6Y2l3RRAB</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>Ainul Musayyadah</t>
+        </is>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>Bagus hewannya unik2, untuk indoor lumayan luas tapi jujur kurang puas. Hehe Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSURCb1plazhBRRAB</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>Aeny Nurwahdah</t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>sebuah tempat wisata yang berlokasi di neo soho central park, meskipun namanya aquarium disini juga terdapat koleksi hewan selain binatang laut. selain itu juga ada pertunjukkan putri duyung Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUQyM0p2WExnEAE</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>Bambang Waluyo</t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>Datang di tanggal 6 Mei di libur lebaran shg hany ada 1 jebis tiket yg dijual yaitu yg :
+PREMIUM seharga 225K
+padahal di hari biasa ada 2 Jenis Tiket :
+REGULER  : 175K
+PREMIUM : 200K
+Wahana hiburan dan edukasi seputar dunia laut yg dikemas cukup baik dan berbeda, ada wahana 5D seolah naik kapal selam, spot2 foto dg ikan yg bagus.
+Wahana ada di lantai LM Neo Mall Grogol Jakarta Barat
+Jenis ikan tdk terlalu banyak, kurang worthed dg harga tiket bila dibanding wahana Sea World Ancol</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUQyclBfZkJ3EAE</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>Nurdya Ningsih</t>
+        </is>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>Tempat yg cukup estetik namun cukup mahal juga. Alhamdulillah nya pas masuk ditraktir abangnya temen yg lagi ngajak reuni. But overall oke untuk pelayanan dan kebersihan. Saran sedikit sebaiknya perlu ditambahkan fasilitas photo boot ataupun jasa foto keliling saat berkunjung ke setiap spot namun dengan harga yg miring cukup soft copy saja yg dikirim. Agar para pengunjung ttp dapat mengabadikan moment namun tetap hemat dan nyaman. Comparable dengan harga tiket masuk yang telah dibayarkan diawal. Sekian dan thankyou :)</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSURScFpmdVNnEAE</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>li ani</t>
+        </is>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>Bagus tempat nya, bisa buat selfie juga..
+Untuk harga lumayan sangat menguras kantong ya.. Hehehehe Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSURoeWMzcnlnRRAB</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>noldy harys</t>
+        </is>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>Selain diAncol, Jakarta Aquarium punya banyakkk.. Ikan, lebih nyaman saja tempatnya, Karna di JA,terletak dalam mall Soho central Park.. Pokoe top markotop dah.. Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUNPOGJQbk9REAE</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>Abi Sarwanto</t>
+        </is>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>Salah satu alternatif wisata edukasi di Jakarta. Lokasi cukup strategis, terjangkau dgn transportasi publik. Harga tiket jg masih bisa dijangkau. Koleksi mungkin tidak selengkap sea world, tapi cukup beragam. Cocok untuk berakhir pekan bersama anak. Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSURtMTUyeDRnRRAB</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>Rani Mawaddah</t>
+        </is>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>Pro : Tempatnya sangat bagus dan indah, koleksi ikan dan binatang laut yang ada di dalam aquarium ini juga sangat banyak dan beragam. Terdapat touch pool dimana kita bisa memegang bintang laut, ikan pari, dll. Ada show mermaid juga walaupun saya tidak sempat nonton. Aquariumnya besar dan saya sangat terpukau seperti melihat ke dasar laut asli.
+Con : Kandang hewan darat sepertinya ada yang terlalu kecil, terutama kangguru. Untuk hewan darat yang terbiasa lari-lari dan loncat-loncat sepertinya terlalu kecil, kasihan kanggurunya hanya diam saja di pojokan. Harga cetak foto di photobooth juga cukup mahal sehingga saya tidak cetak foto sama sekali.
+Overall, a very good place to visit!</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUNKbzZmaEl3EAE</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>Mahesa Ardhi</t>
+        </is>
+      </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>Tempat yang seru untuk quality time sama anak liat berbagaimacam hewan2 kecil dan tentunya ikan. Harganya lumayan mahal, bisa cari diskonan aja biar agak murah. Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSURwbmJMNU9BEAE</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>Reggie Wirawan</t>
+        </is>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>Mungkin bisa lebih dr 3 star kalo bisa lihat feeding time dan mermaid. Kalau tidak, menurut saya kurang worth it utk harga tiketnya.</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSURlMnJLQXZRRRAB</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>Diky</t>
+        </is>
+      </c>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>Tempat bagus, syang tidak sesuai dengan harga yg lumayan mahal. Kurang interaktif buat anak2, bayar mahal disuruh duduk lesehan ketika nntn show.</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUN4dkpyZVp3EAE</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>Abu Muhammad Multazam</t>
+        </is>
+      </c>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>Feeding timenya bentar banget.. lewat 2-3 menit uda gabisa Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSURtMElxRFFREAE</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>Harlan Eka Ch</t>
+        </is>
+      </c>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>Di tengah kota
+Harga premium tapi nyaman
+Agak engap karena plafon ruangan agak rendah
+But overall masih nyaman utk bawa prajurit2 kecil dari rumah bermain....
+Disini beda nyatanya dengan "tempat yang sejenis" tidak ada underwater aquariumnya....</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSUNKaXZHZHpnRRAB</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>Yunita Purnamasari</t>
+        </is>
+      </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>Tempatnya nyaman, baby friendly Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUNCX0xpV0pBEAE</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>agus rizki</t>
+        </is>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>Ternyata ga cuma ikan aja.. banyak g lain dan seru ada adventure nya ngumpulin stempel</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUNKeTRfZmZBEAE</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>nuraeni budi hastuti</t>
+        </is>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>Tempat tidak terlalu luas, di weekday saat libur sekolah anak kondisi lumayan ramai, koleksi fauna nya banyak tapi kurang variasi Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUR4eXBlelB3EAE</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>Cahyo Bagus Nofianto</t>
+        </is>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>Masih bagus seperti yang dulu, hanya saja datang di waktu yang kurang tepat.
+Sebaiknya selesai sebelum jam 5 sore karena ada private dining yang mengakibatkan kita tidak bisa melihat aquarium utama dengan nyaman Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSURKd08yeEZREAE</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>Matthew David</t>
+        </is>
+      </c>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>Oke lah buat short escape di daerah barat sini. Tp agak mehong shaaayyy hahah... tp kalo suruh milih gw masih mending ke ancol dufan deh meskipun panas Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSURlNGZ1RVNREAE</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>jamilatus surifah</t>
+        </is>
+      </c>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>Tempat edukasi yg cocok untuk anak-anak, selain anak-anak mengenal berbagai jenis ikan, anak-nak juga bisa melihat binatang seperti ular, monkey, dsb</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSUNwMExlMXhBRRAB</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>dimas setiawan</t>
+        </is>
+      </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>Tempatnya bagusss untuk mengenalkan binatang2 laut ke anak anak . Tempatnya bersih dan wangi . Jika membawa minuman sebaiknya gunakan Tumbler karena akan di keluarkan jika membawa minuman kemasan . . Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUR4akl2U2ZBEAE</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>Alberado Nopentomipit Siburian</t>
+        </is>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>Saya pikir akan semenyenangkan itu, tapi untuk escape bagi orang kota sangat bagus, kalau saya pribadi lebih senang yang outdoor, tapi untuk edukasi anak, sangat saya sarankan. Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSURoLU0yNzlBRRAB</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>Helena Liesya</t>
+        </is>
+      </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>Tempat bersih, menyenangkan bagi anak2 melihat biota laut. Cuma harga tiket lumayan pricey. Petugas ramah kecuali yg diloket rada jutek. Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUNwaDZlU0xBEAE</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>Ganis Alma Latifa</t>
+        </is>
+      </c>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>It was a good experience. Tempatnya sih ga begitu besar tp sangat terawat. Shownya juga bagus bagus terutama yg mermaid. Cocok buat short vacay Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUN4cXRxZ01nEAE</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>Khairunnisa Nur Azmi</t>
+        </is>
+      </c>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>Harga di 150rb perorang, anak dibawah 2 tahun free. Untuk fasilitas oke ada lift, walopun hanya 2 lantai. Jd cocok utk yg bawa stroller dan kursi roda, jenis ikan beraneka ragam. Terdapat fasilitas foto, tapi mehong beuttttt 280rb paket paling murah dan hanya dapat 1 foto tapi besar seukuran A4.
+Jenis ikan beraneka ragam, untuk beberapa hewan darat juga adaa tapi tidak terlalu banyak👍🏻</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUNwODZtWVNREAE</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>Budy Ernes</t>
+        </is>
+      </c>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>Bagus banget hari biasa sepi jadi lebih tenang</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUN4ak9iYVRnEAE</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>Hendi Yusteja</t>
+        </is>
+      </c>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>Keren,bersih dan ikan cukup lengkap serta edukasi yang baik untuk semua kalangan. Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSURSMzltZnFnRRAB</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>olivia wahyuk</t>
+        </is>
+      </c>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>Harga tiket masuk yang reguler weekend 175rb
+Menurut ku harga segitu cukup mahal dg ambien di dalam yang gitu-gitu aja. Kalo ga ada pertunjukan mermaid menurut ku harga segitu kurang worth it ya... Experiencenya kurang
+Di beberapa lokasi ada kru fotografer yang nawarin jasa foto yg nanti bisa dicetak. Harga cetak foto mulai dari 280rb @foto. Cukup mahal sih ,,, tp kita dikasih soft file semua foto. Yaaa lagi2 kurang worth it sih karena kalo HP kalian dah bagus hasilnya juga ga kalah kok. Cuman setidaknya stlh pulang dr sana kamu bawa pulang oleh2 foto yang dicetak sesuai tema aquarium jakarta.
+Cocok utk anak-anak sebagai sarana edukasi...</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUQya2VlOEd3EAE</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>Ni Putu Shinta Dewi</t>
+        </is>
+      </c>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t>Tempatnya cocok untuk mengajarkan anak anak berbagai macam binatang mulai dari laut hingga darat. Suasana dibuat asik dan menyenangkan dan bisa dijadikan tempat berfoto yang bagus karena desainnya yg dibuat menarik. Tiket masuk masih worth it dengan fasilitas yang diberikan. Kalo engga mau antri utk beli tiket, bisa beli tiketnya di tiket.com atau traveloka.</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSUMtaXAtUHVnRRAB</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>Muhammad Khairi WIjaya</t>
+        </is>
+      </c>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t>Tempat cocok untuk aquarium date bersama pasangan, tiket tersedia reguler dan premium dan disarankan ambil premium, dalam sehari ad jadwal² khusus yang tersedia seperti kasih makan penguin, teater mermaid , bioskop 5D dan masih banyak keseruan lainnya. Disini kita juga bisa melihat beragam jenis hewan laut dari yang familiar sampai yang unik sekalipun</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUQtb3N5amF3EAE</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>Channel Film</t>
+        </is>
+      </c>
+      <c r="C428" t="inlineStr">
+        <is>
+          <t>Tempatnya Bagus ,Cocok Untuk Keluarga ,Baik Untuk Pengetahuan Anak", Namun Harga tiketnya Termasuk Lumayan Mahal Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSURoa2NlMmhRRRAB</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>Muhammad Reyhan Arif</t>
+        </is>
+      </c>
+      <c r="C429" t="inlineStr">
+        <is>
+          <t>Seru, untuk dating atau bawa anak dan keluarga jug seru. Mudah mudahan bisa nambah lagi koleksi satwa nya.
+Parkiran cukup luas, akses lift gampang.</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSUNSb0xtMm9RRRAB</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>y ruswandy</t>
+        </is>
+      </c>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t>Bagus lah... lumayan mehong ticket masuknya</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSUNoa2E2QzJnRRAB</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>Iend Mar</t>
+        </is>
+      </c>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>Masuk Jam 13.55 PM , nanya ke petugas mermaid show katanya jam 15.00 , kita udah tungguin utk liat Mermaid shownya sampai setengah 4 sore tp tidak ada , setelah di tanya ke petugas nya info nya sudah dari jam 14.00 mermaid shownya selesai.. SANGAT KECEWA SEKALI !!! krn tidak ada pemberitahuan utk jam pertunjukannya..udah jauh jauh tujuan mau liat Mermaid show tp ternyata ZONK !!!</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUN4NUp6Ukt3EAE</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>Agoy Moko</t>
+        </is>
+      </c>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t>Kalau g mau antri mending beli tiket online... Untuk weekend sangat ramai didalam Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSURwbzVDcmV3EAE</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>kristina Erlinda</t>
+        </is>
+      </c>
+      <c r="C433" t="inlineStr">
+        <is>
+          <t>Tempatnya luas dan ikan2 beragam... menarik Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSURoX0lMOEtnEAE</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>thubagus abdussalam</t>
+        </is>
+      </c>
+      <c r="C434" t="inlineStr">
+        <is>
+          <t>Pengalaman pertama datang kesini, ga nyangka aja ada safari di dlm mall MasyaAllah.. petugas ramah2, untuk ikan ada banyak dan aquarium bersih… jadwal dan tempat pertunjukan jelas, Overall ga kapok kalo kesini lagi, yang jadi catatan mungkin hanya perlu nambah toilet saja karena setau saya cuma ada satu di lantai bawah.. klo beser repot..</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSUNGbmRtaTR3RRAB</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>Sally Dwi</t>
+        </is>
+      </c>
+      <c r="C435" t="inlineStr">
+        <is>
+          <t>Suka bgt, trs pemandangan satwa bawah laut itu bnr2 cantik. Suka ... Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSURPNjZTV3dRRRAB</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>Aghnia Rusydah</t>
+        </is>
+      </c>
+      <c r="C436" t="inlineStr">
+        <is>
+          <t>Saya mengunjungi tempat ini saat Sabtu sore dan cukup ramai. Di Jakarta Aquarium disediakan juga loker penitipan, beli langsung (tidak bisa online). Lokernya terletak di dekat pintu masuk, harga 1 lokernya 10rb.
+Satwanya beragam. Walaupun nama tempatnya aquarium, namun di Jakarta Aquarium ada hewan daratnya juga.
+Harga tiketnya worth it dengan experience yang didapatkan. Saran saya, kalau mau puas explore di tempat ini, bisa datang dari siang-sore karena pada jam tertentu ada atraksi yang disediakan oleh Jakarta Aquarium.
+Petugas yang bertugasnya pun ramah. Sangat detail menjelaskan hewan yang berada disana dan berkenan untuk diminta tolong fotokan saya.</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSURlOVp5ZHhBRRAB</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>Gloria Subekti</t>
+        </is>
+      </c>
+      <c r="C437" t="inlineStr">
+        <is>
+          <t>buagussss bgt tempatnyaaaa! byk binatang² menarik! hebat bgt mall bisa ada aquarium besar isi ikan² laut yg gede², ada ikan² air tawar amazon juga! gila kueren puol! bakalan kesni lagi klo anakku udh gedean wkwkwkwk</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSURKeDlLMDRBRRAB</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>Kel Channel Tv</t>
+        </is>
+      </c>
+      <c r="C438" t="inlineStr">
+        <is>
+          <t>Tempat yang bagus untuk anak belajar biota laut</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUQyc0stZFpnEAE</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>Pristia Astari</t>
+        </is>
+      </c>
+      <c r="C439" t="inlineStr">
+        <is>
+          <t>Finally, aku berkunjung kesini dari kepengen tahun 2017 dan baru terealisasikan 2022 hahaha. Aku sengaja dateng di weekdays karena murah tiketnya, tapi ternyata tetep rame. Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSUQyMnRDTG9nRRAB</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>Finan Akbar</t>
+        </is>
+      </c>
+      <c r="C440" t="inlineStr">
+        <is>
+          <t>Ini tempat rekomendasi banget untuk rekreasi indoor di Jakarta. Asalkan dateng di hari biasa pas sepi ya. Karena kalo pas rame, beneran gak nyaman, sumpek dan panas.</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUR1a05UZUd3EAE</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>Mohamad Fadil Wicaksono</t>
+        </is>
+      </c>
+      <c r="C441" t="inlineStr">
+        <is>
+          <t>Pengalaman yang amazing banget pokoknya. Ikan2 nya eksotik, para staf ramah, dan tiket nya reasonable. Saya ikut anemone dining, alhamdulillah pelayanan luar biasa, makanannya enak semua. Bikin istri makin sayang aja, hehe Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSURPdTdQT0JBEAE</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>LoKeCe Lo</t>
+        </is>
+      </c>
+      <c r="C442" t="inlineStr">
+        <is>
+          <t>Saya sangat suka tempat ini, disini kita dapat melihat keindahan bawah laut lewat beberapa aquarium raksasa serta Ada juga satwa² yg unik Dan dilindungi disini. Pokonya recommend banget👍👍 …</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSURlNkpQeU1BEAE</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>Ali Akbar</t>
+        </is>
+      </c>
+      <c r="C443" t="inlineStr">
+        <is>
+          <t>Pengalaman yang luar biasa, tempat nya luas banyak ikan2 dan hewan lain. Banyak pertunjukan nya juga. Cocok buat jadi tempat wisata. Bisa buat foto2 estetik juga Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUNPX3RqNUhREAE</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>Ranty Fatriana Puteri</t>
+        </is>
+      </c>
+      <c r="C444" t="inlineStr">
+        <is>
+          <t>Rekomendasi yang sangat bagus buat membawa anak berlibur dalam kota Jakarta. Banyak hewan-hewan baik air maupun darat yang ada disini. Untuk hewan-hewan tertentu kita bisa menyentuh dan berinteraksi langsung. Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSUNCX0pYVnBRRRAB</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>Endra Wardana</t>
+        </is>
+      </c>
+      <c r="C445" t="inlineStr">
+        <is>
+          <t>Tempat edukasi yang bagus untuk mengenalkan satwa air untuk anak, banyak spesies ikan laut yang jarang ditemui dan hanya bisa diliat dibuku ataupun film
+Bagus juga untuk rekreasi dengan keluarga , spot foto juga ada banyak dan beragam</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSURPOXB2S1R3EAE</t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>ratria putri</t>
+        </is>
+      </c>
+      <c r="C446" t="inlineStr">
+        <is>
+          <t>Kesini bareng keluarga asik banget. Bisa mengedukasi sekaligus buat foto instagramable.  Tempatnya bersih dan nggk bikin gerah walaupun waktu itu ramai pengunjung. Pertunjukan putri duyungnya yang paling dinanti sih, bagus banget, fyi klo nonton pertunjukan gaboleh diabadikan karena ada hak ciptanya. So happy :)</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSUQydlBXR3JBRRAB</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>Vicky Young</t>
+        </is>
+      </c>
+      <c r="C447" t="inlineStr">
+        <is>
+          <t>Tempatnya bagus, luas, banyak berbagai macam hewan laut dan amfibi. Lalu mendapatkan experience yang tidak bisa didapatkan di tempat lain Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSURPaWJXaTVRRRAB</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>Gatot Noviantoro</t>
+        </is>
+      </c>
+      <c r="C448" t="inlineStr">
+        <is>
+          <t>Tiket premium 200rb per orang, bisa dpt wahana2 berbayar didalam. Terdiri dari bbrp akuarium2 kecil-sedang. Harga softcopy foto, 200rb. Harga souvenir lumayan mahal Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSURoZ1pPREh3EAE</t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>yennisf safitri</t>
+        </is>
+      </c>
+      <c r="C449" t="inlineStr">
+        <is>
+          <t>Sangat edukatif, tempat nyaman dan bersih.. Lebih gede dari seaworld. Hewan lucu dan ikan nya banyak. Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSURKZ29iR3lBRRAB</t>
+        </is>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>Irfan Ermawan</t>
+        </is>
+      </c>
+      <c r="C450" t="inlineStr">
+        <is>
+          <t>Harusnya tangga d bagian dalemnya d ganti pake eskalator. Atau seenggaknya yg rata biar bisa d lalui stroler bayi. Kan rempong ngangkat2 nya.</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSURtN3V5WlRBEAE</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>Mia Putri Melani</t>
+        </is>
+      </c>
+      <c r="C451" t="inlineStr">
+        <is>
+          <t>Udah 2x kesini, untuk harga 150rb agak pricey sih. Dibandingin aquarium di COEX Mall Korsel dg harga yg sama lebih oke 3x lipat. Tp utk ukuran dalam negeri udah yg paling bagus sih, cocok buat ngajak anak2 atopun dewasa. Ada hewan2 daratnya juga pas awal masuk. Kalo mau kesini dipasin sama jam ngasi makan ikan sama jam pertunjukan teater aja biar maksimal beli tiketnya.</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSURtM3VhejlnRRAB</t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>Achmad Hilman Z</t>
+        </is>
+      </c>
+      <c r="C452" t="inlineStr">
+        <is>
+          <t>Ada 2 jenis tiket, tiket yang biasa dan premium. Perbedaannya yang premium bisa keluar masuk dan nonton 5D, yang biasa gabisa keluar masuk.
+Secara tempat okee, menarik, banyak spot foto juga. Namun untuk jumlah biotanya bisa dibilang terbatas dibanding dengan tempat2 lainnya.</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUR1dkpqeFdnEAE</t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>Beatric Sarah</t>
+        </is>
+      </c>
+      <c r="C453" t="inlineStr">
+        <is>
+          <t>Sangat mengedukasi anak2 tentang hewan2 laut.tapi tolong saat beli tiket online di jelaskan perbedaan tiket premium sama yang biasa.flashlight fish sangat menarik Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSUN4MUs2SjV3RRAB</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>Edo Kristanto</t>
+        </is>
+      </c>
+      <c r="C454" t="inlineStr">
+        <is>
+          <t>cukup memuaskan, tidak hanya bisa melihat binatang laut, tetapi ada juga kegiatan yang lain.
+sayang tiket masuk yang lumayan mahal, tapi bisa dimaklumi karena posisi ada di dalam mall. Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSUNtbDQyQzdRRRAB</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>agung saifu</t>
+        </is>
+      </c>
+      <c r="C455" t="inlineStr">
+        <is>
+          <t>Asyik kali sih
+Momen bareng sam keluarga jadi menyenangkan
+Ada theater 5D nya juga
+Yang sampai di semprot2 air 😅</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSURtMThXekxREAE</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>Barnando Akbarto Hidayatullah</t>
+        </is>
+      </c>
+      <c r="C456" t="inlineStr">
+        <is>
+          <t>tempatnya bagus, para pekerjannya ramah” dan informatif, hewan”nya ga cuma ikan”an, masi banyak yg lucu selain ikan Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUR4cHFLNWF3EAE</t>
+        </is>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>Elle</t>
+        </is>
+      </c>
+      <c r="C457" t="inlineStr">
+        <is>
+          <t>Been here several times both my self with friends and kid. A nice place to refreshing karena bisa liat ikan berenang terus
+Hewan di sini cukup beragam, ada otter, reptil, dan yang terpenting ada axlotle! Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUNPeTRYMlZnEAE</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>Fawwaz Rifasya</t>
+        </is>
+      </c>
+      <c r="C458" t="inlineStr">
+        <is>
+          <t>Tempat rekreasi dan belajar yang menarik! Diorama yang interaktif, staff2 yang ramah, atraksi yang tidak berlebihan untuk hewan, serta kebersihan yang dijaga membuat tempat ini nyaman!</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUNKeVkyRmJ3EAE</t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>Khalid Alwazir</t>
+        </is>
+      </c>
+      <c r="C459" t="inlineStr">
+        <is>
+          <t>Banyak hewan laut dan binatang lainnya. Recommended place to go. Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUR1bzZpZ2ZREAE</t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>Carrisa Ghassini</t>
+        </is>
+      </c>
+      <c r="C460" t="inlineStr">
+        <is>
+          <t>Walaupun gak begitu luas, tapi areanya padat sama showcase. Yang bikin super excited adalah karena ada show mermaid!! Mermaid profesional yang beneran berenang di dalam air. Kalau weekend ada 4 show dalam 1 hari. Kemarin saya nonton yang jam 1 siang. Wajib sih untuk mermaid-fan 💕💕 …</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSUR1X0szVzRRRRAB</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>CK Kur</t>
+        </is>
+      </c>
+      <c r="C461" t="inlineStr">
+        <is>
+          <t>Ahhh binatangnya lucu lucuu jadi inget anabul di rumahh, binatangnya di sini diurus banget, cuma waktu lihat meerkatnya ada kutu, kayaknya dari pasir/ lingkungannya, karena ada bak mandi deket kandangnya, jadi kemungkinan mereka dimandiin secara rutin. Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSUQyLU1qcm9nRRAB</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>dean mardiansyah</t>
+        </is>
+      </c>
+      <c r="C462" t="inlineStr">
+        <is>
+          <t>Cocok untuk anda yang ingin mengenalkan dunia binatang tanpa perlu jauh² keluar Jakarta, lokasi di dalam mall,dan mudah di akses.. Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSUQtd19fZ253RRAB</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>gebby gabrina</t>
+        </is>
+      </c>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>bagi yg mau wisata singkat tapi berkesan, tempat ini rekomended sih.. estetik dan binatang yg ada di sini cukup banyak.. Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUQyOHJXQ2RBEAE</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>unicorn baby</t>
+        </is>
+      </c>
+      <c r="C464" t="inlineStr">
+        <is>
+          <t>Not bad! Though di entrance juru foto nya jangan hanya kasih aba2 1,2 tapi lebih precisely arahkan gaya 🥴</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSUNlNm9uVHFRRRAB</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>tresno warningsih</t>
+        </is>
+      </c>
+      <c r="C465" t="inlineStr">
+        <is>
+          <t>Seru bgt buat liburan brg anak2, alternatif lain selain seaworld Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUNKcUxuTlpREAE</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>mutiara tiffani</t>
+        </is>
+      </c>
+      <c r="C466" t="inlineStr">
+        <is>
+          <t>Tidak se lengkap seaworld, harga lebih pricey, tapi oke sih untuk ambience nya. Dan karena di dalem mall juga jadi daya tarik sendiri. Ku pikir luas dan gede area nya, ternyata biasa aja hahaha Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUNKa3VlaU93EAE</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>KLHK KLHK</t>
+        </is>
+      </c>
+      <c r="C467" t="inlineStr">
+        <is>
+          <t>the worst place i ever had. queing di depan panjang, can’t bring our starbucks coffee ( u need to drop it). alasannya takut kotor, tapi d dalam ada yang offering some poor food.
+never ever ksni lagi utk liburan keluarga.</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUNPMFozeVlREAE</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>Nur Hayatiningsih</t>
+        </is>
+      </c>
+      <c r="C468" t="inlineStr">
+        <is>
+          <t>Berada di dalam mall. Hewannya sangat bervariasi dan banyak yang belum pernah saya lihat. Pokoknya menarik.</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUNlLTRISlJBEAE</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>Gita Putri</t>
+        </is>
+      </c>
+      <c r="C469" t="inlineStr">
+        <is>
+          <t>Bersih nyaman.. Pelayanan ok.. Satwa terpelihara dengan baik.. Pertunnukan banyak.. Harga sesuai dengan pelayanan.. Ke jakarta aquarium di waktu weekdays lebih sepi.. Klo weekend biasanya rame.. Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUR4ekxTWlJ3EAE</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>Riska Destriyanti</t>
+        </is>
+      </c>
+      <c r="C470" t="inlineStr">
+        <is>
+          <t>Pertama kali kesini bukannya gampang malah ribet 😅😂 kita udh beli ticket online malah disuruh antri lg buat redeem tiketnya jd ticket fisik...kalo gt ngapain beli ticket online dan barcode kl ujung2nya ngantri ticket jugaa. Mungkin kedepannya bisa lebih cepet dgn pergunakan barcodenya buat masuk ya...paperless juga gak sih ehe tqq</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSURKNE11RmxBRRAB</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>Afwah Muntazzah</t>
+        </is>
+      </c>
+      <c r="C471" t="inlineStr">
+        <is>
+          <t>Seruuu bgt. Ga nyesel liburan di sana. Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSUM1aXRXUHd3RRAB</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>Luthfi Abdurrohim</t>
+        </is>
+      </c>
+      <c r="C472" t="inlineStr">
+        <is>
+          <t>ngeselin banget pelayanannya, padahal udah bayar, dilayanin dengan tidak adil dan tidak sopan! semoga berubah menjadi lebih baik! amiin</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUNSdGJLaE9BEAE</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>Dian Ayu</t>
+        </is>
+      </c>
+      <c r="C473" t="inlineStr">
+        <is>
+          <t>bagus bangeeettttt
+luaasssss
+suasananya di dalem enak banget
+banyak banget hewan di dalam
+bagus bagus pokoknya keren deh</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSURSamZDNG1nRRAB</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>nurul fathiya</t>
+        </is>
+      </c>
+      <c r="C474" t="inlineStr">
+        <is>
+          <t>Gak pernah gagal kalo ajak anak2 ke sini, yg dewasa juga terhibur😁 banyak spot foto bagus &amp; gak cuma ikan aja isinya, ada satwa lain yg ramah anak
+Gak usah bawa makanan atw minuman krn di dalam banyak pilihan makanan (disita juga di depan kalo bawa🤭)
+Recommended place for family day out 👏</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSUQyOHBfOGd3RRAB</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>Frand Infranda</t>
+        </is>
+      </c>
+      <c r="C475" t="inlineStr">
+        <is>
+          <t>Tempatnya bagus banget. Isinya rata-rata hewan² langka.  Puas pkoknya jalan² kesini Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUN1cGZhV1ZREAE</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>Mokit Room</t>
+        </is>
+      </c>
+      <c r="C476" t="inlineStr">
+        <is>
+          <t>Great place to hang,
+Aquarium nya luas, bahkan ada fauna nya juga. Cocok untuk keluarga. Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSURtOXBTcWtnRRAB</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>Yuli Kurniawan</t>
+        </is>
+      </c>
+      <c r="C477" t="inlineStr">
+        <is>
+          <t>Tempat nya bagus nyaman, setting ruangan nya bagus dan tidak membosankan. Buat ajak keluarga dan foto2 bagus.</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUQyMVBHMmJnEAE</t>
+        </is>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>Cornelia Nanindyasari</t>
+        </is>
+      </c>
+      <c r="C478" t="inlineStr">
+        <is>
+          <t>Datang tanggal 3 Juni 2022, di hari kedua Idulfitri sekitar pukul 11 siang. Sampai lokasi kaget karena untuk beli tiket atau menukar tiket yang sudah dibeli secara online harus antri panjang karena pengunjung sangat banyak. Ketika sudah masuk, juga tidak bisa santai menikmati wahana karena padat pengunjung. Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSUNwN0ppOXl3RRAB</t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>Fajar Analis</t>
+        </is>
+      </c>
+      <c r="C479" t="inlineStr">
+        <is>
+          <t>Keren dah, anak2 suka banget</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSURPNGZULTN3RRAB</t>
+        </is>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>Dian Islamy</t>
+        </is>
+      </c>
+      <c r="C480" t="inlineStr">
+        <is>
+          <t>Tempatx bagus, bersih dan menarik. Cuma tiketx kemahalan menurut sy..dewasa 175, anak2 150 (kl tdk salah). Sy datang hr sabtu pas anak2 liburan. Mudah2an next aquariumx lbh besar lagi dan binatangx bervariasi kayak di seaworld Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUNSNmZtWE1BEAE</t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>Yayan Andryanto</t>
+        </is>
+      </c>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>Tempat yang baik untuk mengenalkan hewan yang hidup di air kepada anak-anak..
+Disertai pertunjukan-pertunjukan yang menarik.. Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUQtLU1uM0N3EAE</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>One Tika Suryati</t>
+        </is>
+      </c>
+      <c r="C482" t="inlineStr">
+        <is>
+          <t>Best experience bgtt, hewan" nya juga beragam bgt, tempatnya byk yg instagramable. Pertunjukannya sihh keren bgtt. Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSURlMm9hSmlRRRAB</t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>L I A</t>
+        </is>
+      </c>
+      <c r="C483" t="inlineStr">
+        <is>
+          <t>Aquarium raksasa dengam berbagai jenis ikan, terletak di Mall Centra Park Jakarta, jd bs berwisata, bermain, belanja skaligus kuliner</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSURSdGVfeXBBRRAB</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>RICHO S. PRASTYA</t>
+        </is>
+      </c>
+      <c r="C484" t="inlineStr">
+        <is>
+          <t>Tempatnya menyenangkan, tp kurangnya tim yang mengawasi dan menegur pengunjung.
+mash banyak pengunjung menyalakan cahaya saat berfoto, yang mengganggu mata. Dan pengunjung dewasa yang duduk-duduk di depan aquarium, yang mengganggu pengunjung anak-anak untuk melihat.</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSURCbXYyZnhnRRAB</t>
+        </is>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>Aulia Morieza</t>
+        </is>
+      </c>
+      <c r="C485" t="inlineStr">
+        <is>
+          <t>Seru untuk anak2. Disarankan pergi hari biasa supaya puas buat keliling. Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSURKbEpDcENREAE</t>
+        </is>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>Arsyad Ismail</t>
+        </is>
+      </c>
+      <c r="C486" t="inlineStr">
+        <is>
+          <t>Ngantri lumayan
+Tiket 175 yg biasa, platinum 225 Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSUNlMlphOHN3RRAB</t>
+        </is>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>Te Ir</t>
+        </is>
+      </c>
+      <c r="C487" t="inlineStr">
+        <is>
+          <t>Tempat eduwisata berada dalam neo soho Shopping mal, nyaman dan sejuk. Tempat favorit anak-anak dan dewasa selain berbelanja di mal.
+Koleksi ikan yang cukup lengkap, merepresentasikan kehduo
+Pan bawah air dan beberapa hewan darat. Capucin monkey, lemur dan binturong, melengkapi koleksi binatang laut.
+Harga cukup lumayan namun sahat bermanfaat untuk konservasi kehidupan laut dan satwa.
+Rekomended tempat wisata di jakarta</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUMtd2VHSEN3EAE</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>Stella W</t>
+        </is>
+      </c>
+      <c r="C488" t="inlineStr">
+        <is>
+          <t>Waktu kesini pas lebaran hari ke 2 jadi tempatnya ga terlalu rame yang padet gitu jadi enak dapet spot foto banyak 🫶🏻</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUNSbmNHX1pREAE</t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>Vick Tamin</t>
+        </is>
+      </c>
+      <c r="C489" t="inlineStr">
+        <is>
+          <t>Weekend dateng pagian br agak sepi. Siang uda mulai rame. Tp show2 nya br ada siang. Kids friendly, staff ny helpful. Binatang nya terawat. Merchandise &amp; foto very pricey. Itung2 support biaya perawatan binatang. Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSURoaGRqYVpREAE</t>
+        </is>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>Rizki Muhammad Romdon</t>
+        </is>
+      </c>
+      <c r="C490" t="inlineStr">
+        <is>
+          <t>Saran: sediakan tempat redeem (tukar) tiket yg dibeli online di antrean yang berbeda dengan beli offline.
+Biar gak antre panjang dan buang buang waktu. Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSUNKcWVyenhnRRAB</t>
+        </is>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>Junior Zambas</t>
+        </is>
+      </c>
+      <c r="C491" t="inlineStr">
+        <is>
+          <t>Seru, tapi lama2 bosan karena terlalu monoton. Terlebih jika pengunjungnya sedang ramai, harus rela melihat display dari jauh atau hanya sebentar. Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUQydHZtSllREAE</t>
+        </is>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>Chandra Suryatmaja</t>
+        </is>
+      </c>
+      <c r="C492" t="inlineStr">
+        <is>
+          <t>beli lewat website nanti ada antrian tersendiri untuk dapat pass. entertainment untuk anak-anak hingga dewasa. palayanan nya ramah dan cekatan. Suasana yang dibangun dan berbagai macam hewan laut sangat informatif.
+cafetaria menu makan nya sedikit, mungkin bisa ditambahkan menu asin nya. Toilet bersih. Good job.</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSURCcWNlaVhREAE</t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>Julian Mahardika</t>
+        </is>
+      </c>
+      <c r="C493" t="inlineStr">
+        <is>
+          <t>Di bawah Ekspektasi, tdk sebanding dengan uang yg dikeluarkan, lebih baik nambah uang untuk Revisit ke Taman Safari. Bagian yg paling sedih adalah TIDAK TERSEDIANYA RUANG IBADAH. Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSURPa09QQktBEAE</t>
+        </is>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>Marcellina Laksita</t>
+        </is>
+      </c>
+      <c r="C494" t="inlineStr">
+        <is>
+          <t>Jakarta Aquarium ini cantik sekali, penataannya, konsepnya, service dan penjelasan mengenai hewan2 yang ada di sana juga ok. Untuk harga cukup affordable Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUQyb1pmcVp3EAE</t>
+        </is>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>AKMAL DEAN</t>
+        </is>
+      </c>
+      <c r="C495" t="inlineStr">
+        <is>
+          <t>Anak-anak suka banget kesini, staff yang bertugas ramah dan informatif, mungkin karena hari libur nasional yah jadi terlalu sesak
+overall puas kesini dan pasti akan balik lagi... Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSURXbmZfZHF3RRAB</t>
+        </is>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>Maria Zefanya</t>
+        </is>
+      </c>
+      <c r="C496" t="inlineStr">
+        <is>
+          <t>Bagus bangetttttt....
+Bener bener buat family time nih disini
+Spot foto banyak, harga tiket ok, ikan ikannya bagus dan banyak banget Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSUN4N3RyRnV3RRAB</t>
+        </is>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>Afifah Aini</t>
+        </is>
+      </c>
+      <c r="C497" t="inlineStr">
+        <is>
+          <t>ternyata mine tanknya kecil, tapi semua  staffnya ramah kok :) Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSURXcU1Ha2RnEAE</t>
+        </is>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>Imam Mustafa</t>
+        </is>
+      </c>
+      <c r="C498" t="inlineStr">
+        <is>
+          <t>Turun 1 lantai dari Lobby Entrance NEO SOHO Mall. Crew nya ramah-ramah dan informatif. Bisa menitipkan barang di coin locker dekat ticketing Jakarta Aquarium, biaya hanya 10rb rupiah.
+Jadwal setiap show tepat waktu. Setiap satwa terpelihara dengan baik. Dekorasi setiap area ditata dengan menarik. Cocok sebagai destinasi wisata bersama teman atau keluarga.</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>ChZDSUhNMG9nS0VJQ0FnSUNGZ05qa0VBEAE</t>
+        </is>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>calvin agustian</t>
+        </is>
+      </c>
+      <c r="C499" t="inlineStr">
+        <is>
+          <t>Menarik buat pengetahuan anak - anak akan dunia bawah laut.. Lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSUNtbWNiLW5BRRAB</t>
+        </is>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>Fiona Hetarihon</t>
+        </is>
+      </c>
+      <c r="C500" t="inlineStr">
+        <is>
+          <t>Edukasi buat anak dan dewasa bagus, terutama untuk biota laut. Bila baca diskipsinya banyak ilmu yang bisa diserap. Dual language ada bahasa Indonesia dan Bahasa Inggris. Diskripsinya mudah dimengerti.  Sayangnya mermaid show hanya dilakukan di jam-jam tertentu per harinya, mungkin karena pandemi. 5D lama banget antrenya. Untuk 5D tidak bisa bawa stroller dan untuk disability tidak bisa diakses karena ada tangga menuju studio 5Dnya.
+Saya tidak melihat ada lift untuk akses dari awal masuk menuju ke bawah ke aquariumnya. Perlu turun tangga. Namun untuk akses ke toilet bisa diakses dengan kursi roda. Toiletnya bersih.
+Penjualan tiket bisa di lokasi maupun online. Bila online ada antrean tersendiri dan lebih cepat scan QR codenya.
+Untuk kenang-kenangan foto album, harganya termasuk mahal, walaupun ada beragam pilihan album foto. Harus tambah biaya lagi, begitu juga untuk kasih makan ikan pari tambah Rp 50.000.</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>ChdDSUhNMG9nS0VJQ0FnSURSajR1MjRnRRAB</t>
+        </is>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>Sujono La</t>
+        </is>
+      </c>
+      <c r="C501" t="inlineStr">
+        <is>
+          <t>Mantap lah..lumayan ajak anak kesana...habis lebaran...</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
